--- a/inventory_balance_V2.xlsx
+++ b/inventory_balance_V2.xlsx
@@ -125,15 +125,15 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -467,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M172"/>
+  <dimension ref="A1:N172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -485,17 +485,17 @@
     <col min="12" max="12" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="E1" s="7"/>
-      <c r="I1" s="1" t="s">
+    <row r="1" spans="1:14">
+      <c r="E1" s="6"/>
+      <c r="I1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -508,7 +508,7 @@
       <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F2" t="s">
@@ -533,5659 +533,5663 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="2">
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
         <v>41701</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>13</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>21</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>16</v>
       </c>
-      <c r="E3" s="3">
-        <v>14</v>
-      </c>
-      <c r="F3" s="3">
-        <v>14</v>
-      </c>
-      <c r="G3" s="3">
+      <c r="E3" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2">
         <v>8</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3">
+      <c r="H3" s="2"/>
+      <c r="I3" s="2">
         <f>B3-E3</f>
         <v>-1</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="2">
         <f>IF(I3&lt;=0,B3*6.5,E3*6.5)</f>
         <v>84.5</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="2">
         <f>IF(I3&lt;=0,0,(B3-E3)*6.5)</f>
         <v>0</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="2">
         <f>IF(I3&gt;0,0,(E3-B3)*3.5)</f>
         <v>3.5</v>
       </c>
-      <c r="M3" s="3">
-        <f>IF(I3&lt;=0,B3*3,E3*3)</f>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="4">
+      <c r="M3" s="2">
+        <f>IF(I3&lt;=0,(B3*6.5)-(E3-B3)*3.5,E3*3)</f>
+        <v>81</v>
+      </c>
+      <c r="N3">
+        <f>COUNTA(M3:M132)</f>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="3">
         <v>41702</v>
       </c>
-      <c r="B4" s="5">
-        <v>20</v>
-      </c>
-      <c r="C4" s="5">
-        <v>14</v>
-      </c>
-      <c r="D4" s="5">
+      <c r="B4" s="4">
+        <v>20</v>
+      </c>
+      <c r="C4" s="4">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4">
         <v>11</v>
       </c>
-      <c r="E4" s="5">
-        <v>14</v>
-      </c>
-      <c r="F4" s="5">
-        <v>14</v>
-      </c>
-      <c r="G4" s="5">
+      <c r="E4" s="4">
+        <v>14</v>
+      </c>
+      <c r="F4" s="4">
+        <v>14</v>
+      </c>
+      <c r="G4" s="4">
         <v>8</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5">
+      <c r="H4" s="4"/>
+      <c r="I4" s="4">
         <f t="shared" ref="I4:I67" si="0">B4-E4</f>
         <v>6</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <f t="shared" ref="J4:J67" si="1">IF(I4&lt;=0,B4*6.5,E4*6.5)</f>
         <v>91</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="4">
         <f>IF(I4&lt;=0,0,(B4-E4)*6.5)</f>
         <v>39</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="4">
         <f t="shared" ref="L4:L67" si="2">IF(I4&gt;0,0,(E4-B4)*3.5)</f>
         <v>0</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="4">
         <f t="shared" ref="M4:M67" si="3">IF(I4&lt;=0,B4*3,E4*3)</f>
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="7" customFormat="1">
-      <c r="A5" s="6">
+    <row r="5" spans="1:14" s="6" customFormat="1">
+      <c r="A5" s="5">
         <v>41703</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>9</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>26</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>16</v>
       </c>
-      <c r="E5" s="7">
-        <v>14</v>
-      </c>
-      <c r="F5" s="7">
-        <v>14</v>
-      </c>
-      <c r="G5" s="7">
+      <c r="E5" s="6">
+        <v>14</v>
+      </c>
+      <c r="F5" s="6">
+        <v>14</v>
+      </c>
+      <c r="G5" s="6">
         <v>8</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="6">
         <f t="shared" si="0"/>
         <v>-5</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="6">
         <f t="shared" si="1"/>
         <v>58.5</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="6">
         <f t="shared" ref="K5:K68" si="4">IF(I5&lt;=0,0,(B5-E5)*6.5)</f>
         <v>0</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="6">
         <f t="shared" si="2"/>
         <v>17.5</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="6">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="7" customFormat="1">
-      <c r="A6" s="6">
+    <row r="6" spans="1:14" s="6" customFormat="1">
+      <c r="A6" s="5">
         <v>41704</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>16</v>
       </c>
-      <c r="C6" s="7">
-        <v>20</v>
-      </c>
-      <c r="D6" s="7">
+      <c r="C6" s="6">
+        <v>20</v>
+      </c>
+      <c r="D6" s="6">
         <v>15</v>
       </c>
-      <c r="E6" s="7">
-        <v>14</v>
-      </c>
-      <c r="F6" s="7">
-        <v>14</v>
-      </c>
-      <c r="G6" s="7">
+      <c r="E6" s="6">
+        <v>14</v>
+      </c>
+      <c r="F6" s="6">
+        <v>14</v>
+      </c>
+      <c r="G6" s="6">
         <v>8</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="6">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="6">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="6">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="7" customFormat="1">
-      <c r="A7" s="6">
+    <row r="7" spans="1:14" s="6" customFormat="1">
+      <c r="A7" s="5">
         <v>41705</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>22</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>26</v>
       </c>
-      <c r="D7" s="7">
-        <v>10</v>
-      </c>
-      <c r="E7" s="7">
-        <v>14</v>
-      </c>
-      <c r="F7" s="7">
-        <v>14</v>
-      </c>
-      <c r="G7" s="7">
+      <c r="D7" s="6">
+        <v>10</v>
+      </c>
+      <c r="E7" s="6">
+        <v>14</v>
+      </c>
+      <c r="F7" s="6">
+        <v>14</v>
+      </c>
+      <c r="G7" s="6">
         <v>8</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="6">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="6">
         <f t="shared" si="4"/>
         <v>52</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="6">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="7" customFormat="1">
-      <c r="A8" s="6">
+    <row r="8" spans="1:14" s="6" customFormat="1">
+      <c r="A8" s="5">
         <v>41708</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>17</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>17</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>16</v>
       </c>
-      <c r="E8" s="7">
-        <v>14</v>
-      </c>
-      <c r="F8" s="7">
-        <v>14</v>
-      </c>
-      <c r="G8" s="7">
+      <c r="E8" s="6">
+        <v>14</v>
+      </c>
+      <c r="F8" s="6">
+        <v>14</v>
+      </c>
+      <c r="G8" s="6">
         <v>8</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="6">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="6">
         <f t="shared" si="4"/>
         <v>19.5</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="6">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="7" customFormat="1">
-      <c r="A9" s="6">
+    <row r="9" spans="1:14" s="6" customFormat="1">
+      <c r="A9" s="5">
         <v>41709</v>
       </c>
-      <c r="B9" s="7">
-        <v>10</v>
-      </c>
-      <c r="C9" s="7">
+      <c r="B9" s="6">
+        <v>10</v>
+      </c>
+      <c r="C9" s="6">
         <v>29</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>13</v>
       </c>
-      <c r="E9" s="7">
-        <v>14</v>
-      </c>
-      <c r="F9" s="7">
-        <v>14</v>
-      </c>
-      <c r="G9" s="7">
+      <c r="E9" s="6">
+        <v>14</v>
+      </c>
+      <c r="F9" s="6">
+        <v>14</v>
+      </c>
+      <c r="G9" s="6">
         <v>8</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6">
         <f t="shared" si="0"/>
         <v>-4</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="6">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="6">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="6">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="7" customFormat="1">
-      <c r="A10" s="6">
+    <row r="10" spans="1:14" s="6" customFormat="1">
+      <c r="A10" s="5">
         <v>41710</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>9</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>24</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>17</v>
       </c>
-      <c r="E10" s="7">
-        <v>14</v>
-      </c>
-      <c r="F10" s="7">
-        <v>14</v>
-      </c>
-      <c r="G10" s="7">
+      <c r="E10" s="6">
+        <v>14</v>
+      </c>
+      <c r="F10" s="6">
+        <v>14</v>
+      </c>
+      <c r="G10" s="6">
         <v>8</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="6">
         <f t="shared" si="0"/>
         <v>-5</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="6">
         <f t="shared" si="1"/>
         <v>58.5</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="6">
         <f t="shared" si="2"/>
         <v>17.5</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="6">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="7" customFormat="1">
-      <c r="A11" s="6">
+    <row r="11" spans="1:14" s="6" customFormat="1">
+      <c r="A11" s="5">
         <v>41711</v>
       </c>
-      <c r="B11" s="7">
-        <v>20</v>
-      </c>
-      <c r="C11" s="7">
+      <c r="B11" s="6">
+        <v>20</v>
+      </c>
+      <c r="C11" s="6">
         <v>19</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>8</v>
       </c>
-      <c r="E11" s="7">
-        <v>14</v>
-      </c>
-      <c r="F11" s="7">
-        <v>14</v>
-      </c>
-      <c r="G11" s="7">
+      <c r="E11" s="6">
+        <v>14</v>
+      </c>
+      <c r="F11" s="6">
+        <v>14</v>
+      </c>
+      <c r="G11" s="6">
         <v>8</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="6">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="6">
         <f t="shared" si="4"/>
         <v>39</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="6">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="7" customFormat="1">
-      <c r="A12" s="6">
+    <row r="12" spans="1:14" s="6" customFormat="1">
+      <c r="A12" s="5">
         <v>41712</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>17</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>23</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>8</v>
       </c>
-      <c r="E12" s="7">
-        <v>14</v>
-      </c>
-      <c r="F12" s="7">
-        <v>14</v>
-      </c>
-      <c r="G12" s="7">
+      <c r="E12" s="6">
+        <v>14</v>
+      </c>
+      <c r="F12" s="6">
+        <v>14</v>
+      </c>
+      <c r="G12" s="6">
         <v>8</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="6">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="6">
         <f t="shared" si="4"/>
         <v>19.5</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="6">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="7" customFormat="1">
-      <c r="A13" s="6">
+    <row r="13" spans="1:14" s="6" customFormat="1">
+      <c r="A13" s="5">
         <v>41715</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>17</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>31</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>15</v>
       </c>
-      <c r="E13" s="7">
-        <v>14</v>
-      </c>
-      <c r="F13" s="7">
-        <v>14</v>
-      </c>
-      <c r="G13" s="7">
+      <c r="E13" s="6">
+        <v>14</v>
+      </c>
+      <c r="F13" s="6">
+        <v>14</v>
+      </c>
+      <c r="G13" s="6">
         <v>8</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="6">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="6">
         <f t="shared" si="4"/>
         <v>19.5</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="6">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="7" customFormat="1">
-      <c r="A14" s="6">
+    <row r="14" spans="1:14" s="6" customFormat="1">
+      <c r="A14" s="5">
         <v>41716</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <v>16</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <v>16</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <v>12</v>
       </c>
-      <c r="E14" s="7">
-        <v>14</v>
-      </c>
-      <c r="F14" s="7">
-        <v>14</v>
-      </c>
-      <c r="G14" s="7">
+      <c r="E14" s="6">
+        <v>14</v>
+      </c>
+      <c r="F14" s="6">
+        <v>14</v>
+      </c>
+      <c r="G14" s="6">
         <v>8</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="6">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="6">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="6">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="7" customFormat="1">
-      <c r="A15" s="6">
+    <row r="15" spans="1:14" s="6" customFormat="1">
+      <c r="A15" s="5">
         <v>41717</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <v>13</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <v>21</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <v>15</v>
       </c>
-      <c r="E15" s="7">
-        <v>14</v>
-      </c>
-      <c r="F15" s="7">
-        <v>14</v>
-      </c>
-      <c r="G15" s="7">
+      <c r="E15" s="6">
+        <v>14</v>
+      </c>
+      <c r="F15" s="6">
+        <v>14</v>
+      </c>
+      <c r="G15" s="6">
         <v>8</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="6">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="6">
         <f t="shared" si="1"/>
         <v>84.5</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="6">
         <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M15" s="6">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="7" customFormat="1">
-      <c r="A16" s="6">
+    <row r="16" spans="1:14" s="6" customFormat="1">
+      <c r="A16" s="5">
         <v>41718</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <v>21</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <v>31</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <v>17</v>
       </c>
-      <c r="E16" s="7">
-        <v>14</v>
-      </c>
-      <c r="F16" s="7">
-        <v>14</v>
-      </c>
-      <c r="G16" s="7">
+      <c r="E16" s="6">
+        <v>14</v>
+      </c>
+      <c r="F16" s="6">
+        <v>14</v>
+      </c>
+      <c r="G16" s="6">
         <v>8</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="6">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="6">
         <f t="shared" si="4"/>
         <v>45.5</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="6">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="7" customFormat="1">
-      <c r="A17" s="6">
+    <row r="17" spans="1:13" s="6" customFormat="1">
+      <c r="A17" s="5">
         <v>41719</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="6">
         <v>19</v>
       </c>
-      <c r="C17" s="7">
-        <v>18</v>
-      </c>
-      <c r="D17" s="7">
+      <c r="C17" s="6">
+        <v>18</v>
+      </c>
+      <c r="D17" s="6">
         <v>13</v>
       </c>
-      <c r="E17" s="7">
-        <v>14</v>
-      </c>
-      <c r="F17" s="7">
-        <v>14</v>
-      </c>
-      <c r="G17" s="7">
+      <c r="E17" s="6">
+        <v>14</v>
+      </c>
+      <c r="F17" s="6">
+        <v>14</v>
+      </c>
+      <c r="G17" s="6">
         <v>8</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="6">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="6">
         <f t="shared" si="4"/>
         <v>32.5</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="6">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="7" customFormat="1">
-      <c r="A18" s="6">
+    <row r="18" spans="1:13" s="6" customFormat="1">
+      <c r="A18" s="5">
         <v>41722</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="6">
         <v>15</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <v>30</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <v>16</v>
       </c>
-      <c r="E18" s="7">
-        <v>14</v>
-      </c>
-      <c r="F18" s="7">
-        <v>14</v>
-      </c>
-      <c r="G18" s="7">
+      <c r="E18" s="6">
+        <v>14</v>
+      </c>
+      <c r="F18" s="6">
+        <v>14</v>
+      </c>
+      <c r="G18" s="6">
         <v>8</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="6">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="6">
         <f t="shared" si="4"/>
         <v>6.5</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18" s="6">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="7" customFormat="1">
-      <c r="A19" s="6">
+    <row r="19" spans="1:13" s="6" customFormat="1">
+      <c r="A19" s="5">
         <v>41723</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="6">
         <v>12</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <v>17</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <v>8</v>
       </c>
-      <c r="E19" s="7">
-        <v>14</v>
-      </c>
-      <c r="F19" s="7">
-        <v>14</v>
-      </c>
-      <c r="G19" s="7">
+      <c r="E19" s="6">
+        <v>14</v>
+      </c>
+      <c r="F19" s="6">
+        <v>14</v>
+      </c>
+      <c r="G19" s="6">
         <v>8</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="6">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="6">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="6">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="6">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="7" customFormat="1">
-      <c r="A20" s="6">
+    <row r="20" spans="1:13" s="6" customFormat="1">
+      <c r="A20" s="5">
         <v>41724</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="6">
         <v>11</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <v>24</v>
       </c>
-      <c r="D20" s="7">
-        <v>18</v>
-      </c>
-      <c r="E20" s="7">
-        <v>14</v>
-      </c>
-      <c r="F20" s="7">
-        <v>14</v>
-      </c>
-      <c r="G20" s="7">
+      <c r="D20" s="6">
+        <v>18</v>
+      </c>
+      <c r="E20" s="6">
+        <v>14</v>
+      </c>
+      <c r="F20" s="6">
+        <v>14</v>
+      </c>
+      <c r="G20" s="6">
         <v>8</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="6">
         <f t="shared" si="0"/>
         <v>-3</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="6">
         <f t="shared" si="1"/>
         <v>71.5</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L20" s="6">
         <f t="shared" si="2"/>
         <v>10.5</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M20" s="6">
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="7" customFormat="1">
-      <c r="A21" s="6">
+    <row r="21" spans="1:13" s="6" customFormat="1">
+      <c r="A21" s="5">
         <v>41725</v>
       </c>
-      <c r="B21" s="7">
-        <v>14</v>
-      </c>
-      <c r="C21" s="7">
+      <c r="B21" s="6">
+        <v>14</v>
+      </c>
+      <c r="C21" s="6">
         <v>19</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="6">
         <v>16</v>
       </c>
-      <c r="E21" s="7">
-        <v>14</v>
-      </c>
-      <c r="F21" s="7">
-        <v>14</v>
-      </c>
-      <c r="G21" s="7">
+      <c r="E21" s="6">
+        <v>14</v>
+      </c>
+      <c r="F21" s="6">
+        <v>14</v>
+      </c>
+      <c r="G21" s="6">
         <v>8</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="6">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K21" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M21" s="7">
+      <c r="M21" s="6">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="7" customFormat="1">
-      <c r="A22" s="6">
+    <row r="22" spans="1:13" s="6" customFormat="1">
+      <c r="A22" s="5">
         <v>41726</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="6">
         <v>11</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <v>17</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="6">
         <v>13</v>
       </c>
-      <c r="E22" s="7">
-        <v>14</v>
-      </c>
-      <c r="F22" s="7">
-        <v>14</v>
-      </c>
-      <c r="G22" s="7">
+      <c r="E22" s="6">
+        <v>14</v>
+      </c>
+      <c r="F22" s="6">
+        <v>14</v>
+      </c>
+      <c r="G22" s="6">
         <v>8</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="6">
         <f t="shared" si="0"/>
         <v>-3</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J22" s="6">
         <f t="shared" si="1"/>
         <v>71.5</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K22" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L22" s="7">
+      <c r="L22" s="6">
         <f t="shared" si="2"/>
         <v>10.5</v>
       </c>
-      <c r="M22" s="7">
+      <c r="M22" s="6">
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="7" customFormat="1">
-      <c r="A23" s="6">
+    <row r="23" spans="1:13" s="6" customFormat="1">
+      <c r="A23" s="5">
         <v>41729</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="6">
         <v>13</v>
       </c>
-      <c r="C23" s="7">
-        <v>20</v>
-      </c>
-      <c r="D23" s="7">
+      <c r="C23" s="6">
+        <v>20</v>
+      </c>
+      <c r="D23" s="6">
         <v>9</v>
       </c>
-      <c r="E23" s="7">
-        <v>14</v>
-      </c>
-      <c r="F23" s="7">
-        <v>14</v>
-      </c>
-      <c r="G23" s="7">
+      <c r="E23" s="6">
+        <v>14</v>
+      </c>
+      <c r="F23" s="6">
+        <v>14</v>
+      </c>
+      <c r="G23" s="6">
         <v>8</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="6">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23" s="6">
         <f t="shared" si="1"/>
         <v>84.5</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K23" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L23" s="7">
+      <c r="L23" s="6">
         <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
-      <c r="M23" s="7">
+      <c r="M23" s="6">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="7" customFormat="1">
-      <c r="A24" s="6">
+    <row r="24" spans="1:13" s="6" customFormat="1">
+      <c r="A24" s="5">
         <v>41730</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="6">
         <v>15</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="6">
         <v>17</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="6">
         <v>15</v>
       </c>
-      <c r="E24" s="7">
-        <v>14</v>
-      </c>
-      <c r="F24" s="7">
-        <v>14</v>
-      </c>
-      <c r="G24" s="7">
+      <c r="E24" s="6">
+        <v>14</v>
+      </c>
+      <c r="F24" s="6">
+        <v>14</v>
+      </c>
+      <c r="G24" s="6">
         <v>8</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J24" s="6">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="K24" s="7">
+      <c r="K24" s="6">
         <f t="shared" si="4"/>
         <v>6.5</v>
       </c>
-      <c r="L24" s="7">
+      <c r="L24" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M24" s="7">
+      <c r="M24" s="6">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="7" customFormat="1">
-      <c r="A25" s="6">
+    <row r="25" spans="1:13" s="6" customFormat="1">
+      <c r="A25" s="5">
         <v>41731</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="6">
         <v>11</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="6">
         <v>21</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="6">
         <v>16</v>
       </c>
-      <c r="E25" s="7">
-        <v>14</v>
-      </c>
-      <c r="F25" s="7">
-        <v>14</v>
-      </c>
-      <c r="G25" s="7">
+      <c r="E25" s="6">
+        <v>14</v>
+      </c>
+      <c r="F25" s="6">
+        <v>14</v>
+      </c>
+      <c r="G25" s="6">
         <v>8</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="6">
         <f t="shared" si="0"/>
         <v>-3</v>
       </c>
-      <c r="J25" s="7">
+      <c r="J25" s="6">
         <f t="shared" si="1"/>
         <v>71.5</v>
       </c>
-      <c r="K25" s="7">
+      <c r="K25" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L25" s="7">
+      <c r="L25" s="6">
         <f t="shared" si="2"/>
         <v>10.5</v>
       </c>
-      <c r="M25" s="7">
+      <c r="M25" s="6">
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="7" customFormat="1">
-      <c r="A26" s="6">
+    <row r="26" spans="1:13" s="6" customFormat="1">
+      <c r="A26" s="5">
         <v>41732</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="6">
         <v>11</v>
       </c>
-      <c r="C26" s="7">
-        <v>20</v>
-      </c>
-      <c r="D26" s="7">
+      <c r="C26" s="6">
+        <v>20</v>
+      </c>
+      <c r="D26" s="6">
         <v>19</v>
       </c>
-      <c r="E26" s="7">
-        <v>14</v>
-      </c>
-      <c r="F26" s="7">
-        <v>14</v>
-      </c>
-      <c r="G26" s="7">
+      <c r="E26" s="6">
+        <v>14</v>
+      </c>
+      <c r="F26" s="6">
+        <v>14</v>
+      </c>
+      <c r="G26" s="6">
         <v>8</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="6">
         <f t="shared" si="0"/>
         <v>-3</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J26" s="6">
         <f t="shared" si="1"/>
         <v>71.5</v>
       </c>
-      <c r="K26" s="7">
+      <c r="K26" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L26" s="7">
+      <c r="L26" s="6">
         <f t="shared" si="2"/>
         <v>10.5</v>
       </c>
-      <c r="M26" s="7">
+      <c r="M26" s="6">
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="7" customFormat="1">
-      <c r="A27" s="6">
+    <row r="27" spans="1:13" s="6" customFormat="1">
+      <c r="A27" s="5">
         <v>41733</v>
       </c>
-      <c r="B27" s="7">
-        <v>14</v>
-      </c>
-      <c r="C27" s="7">
+      <c r="B27" s="6">
+        <v>14</v>
+      </c>
+      <c r="C27" s="6">
         <v>21</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="6">
         <v>13</v>
       </c>
-      <c r="E27" s="7">
-        <v>14</v>
-      </c>
-      <c r="F27" s="7">
-        <v>14</v>
-      </c>
-      <c r="G27" s="7">
+      <c r="E27" s="6">
+        <v>14</v>
+      </c>
+      <c r="F27" s="6">
+        <v>14</v>
+      </c>
+      <c r="G27" s="6">
         <v>8</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J27" s="6">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="K27" s="7">
+      <c r="K27" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L27" s="7">
+      <c r="L27" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M27" s="7">
+      <c r="M27" s="6">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="7" customFormat="1">
-      <c r="A28" s="6">
+    <row r="28" spans="1:13" s="6" customFormat="1">
+      <c r="A28" s="5">
         <v>41736</v>
       </c>
-      <c r="B28" s="7">
-        <v>10</v>
-      </c>
-      <c r="C28" s="7">
+      <c r="B28" s="6">
+        <v>10</v>
+      </c>
+      <c r="C28" s="6">
         <v>30</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="6">
         <v>12</v>
       </c>
-      <c r="E28" s="7">
-        <v>14</v>
-      </c>
-      <c r="F28" s="7">
-        <v>14</v>
-      </c>
-      <c r="G28" s="7">
+      <c r="E28" s="6">
+        <v>14</v>
+      </c>
+      <c r="F28" s="6">
+        <v>14</v>
+      </c>
+      <c r="G28" s="6">
         <v>8</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="6">
         <f t="shared" si="0"/>
         <v>-4</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J28" s="6">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="K28" s="7">
+      <c r="K28" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L28" s="7">
+      <c r="L28" s="6">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="M28" s="7">
+      <c r="M28" s="6">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="7" customFormat="1">
-      <c r="A29" s="6">
+    <row r="29" spans="1:13" s="6" customFormat="1">
+      <c r="A29" s="5">
         <v>41737</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="6">
         <v>19</v>
       </c>
-      <c r="C29" s="7">
-        <v>18</v>
-      </c>
-      <c r="D29" s="7">
+      <c r="C29" s="6">
+        <v>18</v>
+      </c>
+      <c r="D29" s="6">
         <v>6</v>
       </c>
-      <c r="E29" s="7">
-        <v>14</v>
-      </c>
-      <c r="F29" s="7">
-        <v>14</v>
-      </c>
-      <c r="G29" s="7">
+      <c r="E29" s="6">
+        <v>14</v>
+      </c>
+      <c r="F29" s="6">
+        <v>14</v>
+      </c>
+      <c r="G29" s="6">
         <v>8</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J29" s="7">
+      <c r="J29" s="6">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="K29" s="7">
+      <c r="K29" s="6">
         <f t="shared" si="4"/>
         <v>32.5</v>
       </c>
-      <c r="L29" s="7">
+      <c r="L29" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M29" s="7">
+      <c r="M29" s="6">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="7" customFormat="1">
-      <c r="A30" s="6">
+    <row r="30" spans="1:13" s="6" customFormat="1">
+      <c r="A30" s="5">
         <v>41738</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="6">
         <v>19</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="6">
         <v>23</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="6">
         <v>9</v>
       </c>
-      <c r="E30" s="7">
-        <v>14</v>
-      </c>
-      <c r="F30" s="7">
-        <v>14</v>
-      </c>
-      <c r="G30" s="7">
+      <c r="E30" s="6">
+        <v>14</v>
+      </c>
+      <c r="F30" s="6">
+        <v>14</v>
+      </c>
+      <c r="G30" s="6">
         <v>8</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J30" s="7">
+      <c r="J30" s="6">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="K30" s="7">
+      <c r="K30" s="6">
         <f t="shared" si="4"/>
         <v>32.5</v>
       </c>
-      <c r="L30" s="7">
+      <c r="L30" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M30" s="7">
+      <c r="M30" s="6">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="7" customFormat="1">
-      <c r="A31" s="6">
+    <row r="31" spans="1:13" s="6" customFormat="1">
+      <c r="A31" s="5">
         <v>41739</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="6">
         <v>19</v>
       </c>
-      <c r="C31" s="7">
-        <v>20</v>
-      </c>
-      <c r="D31" s="7">
+      <c r="C31" s="6">
+        <v>20</v>
+      </c>
+      <c r="D31" s="6">
         <v>9</v>
       </c>
-      <c r="E31" s="7">
-        <v>14</v>
-      </c>
-      <c r="F31" s="7">
-        <v>14</v>
-      </c>
-      <c r="G31" s="7">
+      <c r="E31" s="6">
+        <v>14</v>
+      </c>
+      <c r="F31" s="6">
+        <v>14</v>
+      </c>
+      <c r="G31" s="6">
         <v>8</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J31" s="7">
+      <c r="J31" s="6">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="K31" s="7">
+      <c r="K31" s="6">
         <f t="shared" si="4"/>
         <v>32.5</v>
       </c>
-      <c r="L31" s="7">
+      <c r="L31" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M31" s="7">
+      <c r="M31" s="6">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="7" customFormat="1">
-      <c r="A32" s="6">
+    <row r="32" spans="1:13" s="6" customFormat="1">
+      <c r="A32" s="5">
         <v>41740</v>
       </c>
-      <c r="B32" s="7">
-        <v>18</v>
-      </c>
-      <c r="C32" s="7">
+      <c r="B32" s="6">
+        <v>18</v>
+      </c>
+      <c r="C32" s="6">
         <v>22</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="6">
         <v>11</v>
       </c>
-      <c r="E32" s="7">
-        <v>14</v>
-      </c>
-      <c r="F32" s="7">
-        <v>14</v>
-      </c>
-      <c r="G32" s="7">
+      <c r="E32" s="6">
+        <v>14</v>
+      </c>
+      <c r="F32" s="6">
+        <v>14</v>
+      </c>
+      <c r="G32" s="6">
         <v>8</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="J32" s="7">
+      <c r="J32" s="6">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="K32" s="7">
+      <c r="K32" s="6">
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="L32" s="7">
+      <c r="L32" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M32" s="7">
+      <c r="M32" s="6">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="7" customFormat="1">
-      <c r="A33" s="6">
+    <row r="33" spans="1:13" s="6" customFormat="1">
+      <c r="A33" s="5">
         <v>41743</v>
       </c>
-      <c r="B33" s="7">
-        <v>18</v>
-      </c>
-      <c r="C33" s="7">
+      <c r="B33" s="6">
+        <v>18</v>
+      </c>
+      <c r="C33" s="6">
         <v>17</v>
       </c>
-      <c r="D33" s="7">
-        <v>10</v>
-      </c>
-      <c r="E33" s="7">
-        <v>14</v>
-      </c>
-      <c r="F33" s="7">
-        <v>14</v>
-      </c>
-      <c r="G33" s="7">
+      <c r="D33" s="6">
+        <v>10</v>
+      </c>
+      <c r="E33" s="6">
+        <v>14</v>
+      </c>
+      <c r="F33" s="6">
+        <v>14</v>
+      </c>
+      <c r="G33" s="6">
         <v>8</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="J33" s="7">
+      <c r="J33" s="6">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="K33" s="7">
+      <c r="K33" s="6">
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="L33" s="7">
+      <c r="L33" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M33" s="7">
+      <c r="M33" s="6">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="7" customFormat="1">
-      <c r="A34" s="6">
+    <row r="34" spans="1:13" s="6" customFormat="1">
+      <c r="A34" s="5">
         <v>41744</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="6">
         <v>15</v>
       </c>
-      <c r="C34" s="7">
-        <v>18</v>
-      </c>
-      <c r="D34" s="7">
+      <c r="C34" s="6">
+        <v>18</v>
+      </c>
+      <c r="D34" s="6">
         <v>11</v>
       </c>
-      <c r="E34" s="7">
-        <v>14</v>
-      </c>
-      <c r="F34" s="7">
-        <v>14</v>
-      </c>
-      <c r="G34" s="7">
+      <c r="E34" s="6">
+        <v>14</v>
+      </c>
+      <c r="F34" s="6">
+        <v>14</v>
+      </c>
+      <c r="G34" s="6">
         <v>8</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I34" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J34" s="7">
+      <c r="J34" s="6">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="K34" s="7">
+      <c r="K34" s="6">
         <f t="shared" si="4"/>
         <v>6.5</v>
       </c>
-      <c r="L34" s="7">
+      <c r="L34" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M34" s="7">
+      <c r="M34" s="6">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:13" s="7" customFormat="1">
-      <c r="A35" s="6">
+    <row r="35" spans="1:13" s="6" customFormat="1">
+      <c r="A35" s="5">
         <v>41745</v>
       </c>
-      <c r="B35" s="7">
-        <v>14</v>
-      </c>
-      <c r="C35" s="7">
+      <c r="B35" s="6">
+        <v>14</v>
+      </c>
+      <c r="C35" s="6">
         <v>24</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="6">
         <v>13</v>
       </c>
-      <c r="E35" s="7">
-        <v>14</v>
-      </c>
-      <c r="F35" s="7">
-        <v>14</v>
-      </c>
-      <c r="G35" s="7">
+      <c r="E35" s="6">
+        <v>14</v>
+      </c>
+      <c r="F35" s="6">
+        <v>14</v>
+      </c>
+      <c r="G35" s="6">
         <v>8</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J35" s="7">
+      <c r="J35" s="6">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="K35" s="7">
+      <c r="K35" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L35" s="7">
+      <c r="L35" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M35" s="7">
+      <c r="M35" s="6">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:13" s="7" customFormat="1">
-      <c r="A36" s="6">
+    <row r="36" spans="1:13" s="6" customFormat="1">
+      <c r="A36" s="5">
         <v>41746</v>
       </c>
-      <c r="B36" s="7">
-        <v>14</v>
-      </c>
-      <c r="C36" s="7">
+      <c r="B36" s="6">
+        <v>14</v>
+      </c>
+      <c r="C36" s="6">
         <v>16</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="6">
         <v>9</v>
       </c>
-      <c r="E36" s="7">
-        <v>14</v>
-      </c>
-      <c r="F36" s="7">
-        <v>14</v>
-      </c>
-      <c r="G36" s="7">
+      <c r="E36" s="6">
+        <v>14</v>
+      </c>
+      <c r="F36" s="6">
+        <v>14</v>
+      </c>
+      <c r="G36" s="6">
         <v>8</v>
       </c>
-      <c r="I36" s="7">
+      <c r="I36" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J36" s="7">
+      <c r="J36" s="6">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="K36" s="7">
+      <c r="K36" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L36" s="7">
+      <c r="L36" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M36" s="7">
+      <c r="M36" s="6">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="7" customFormat="1">
-      <c r="A37" s="6">
+    <row r="37" spans="1:13" s="6" customFormat="1">
+      <c r="A37" s="5">
         <v>41747</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="6">
         <v>13</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="6">
         <v>16</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="6">
         <v>13</v>
       </c>
-      <c r="E37" s="7">
-        <v>14</v>
-      </c>
-      <c r="F37" s="7">
-        <v>14</v>
-      </c>
-      <c r="G37" s="7">
+      <c r="E37" s="6">
+        <v>14</v>
+      </c>
+      <c r="F37" s="6">
+        <v>14</v>
+      </c>
+      <c r="G37" s="6">
         <v>8</v>
       </c>
-      <c r="I37" s="7">
+      <c r="I37" s="6">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="J37" s="7">
+      <c r="J37" s="6">
         <f t="shared" si="1"/>
         <v>84.5</v>
       </c>
-      <c r="K37" s="7">
+      <c r="K37" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L37" s="7">
+      <c r="L37" s="6">
         <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
-      <c r="M37" s="7">
+      <c r="M37" s="6">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="7" customFormat="1">
-      <c r="A38" s="6">
+    <row r="38" spans="1:13" s="6" customFormat="1">
+      <c r="A38" s="5">
         <v>41750</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="6">
         <v>19</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="6">
         <v>32</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="6">
         <v>15</v>
       </c>
-      <c r="E38" s="7">
-        <v>14</v>
-      </c>
-      <c r="F38" s="7">
-        <v>14</v>
-      </c>
-      <c r="G38" s="7">
+      <c r="E38" s="6">
+        <v>14</v>
+      </c>
+      <c r="F38" s="6">
+        <v>14</v>
+      </c>
+      <c r="G38" s="6">
         <v>8</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I38" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J38" s="7">
+      <c r="J38" s="6">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="K38" s="7">
+      <c r="K38" s="6">
         <f t="shared" si="4"/>
         <v>32.5</v>
       </c>
-      <c r="L38" s="7">
+      <c r="L38" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M38" s="7">
+      <c r="M38" s="6">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:13" s="7" customFormat="1">
-      <c r="A39" s="6">
+    <row r="39" spans="1:13" s="6" customFormat="1">
+      <c r="A39" s="5">
         <v>41751</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="6">
         <v>15</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="6">
         <v>28</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="6">
         <v>11</v>
       </c>
-      <c r="E39" s="7">
-        <v>14</v>
-      </c>
-      <c r="F39" s="7">
-        <v>14</v>
-      </c>
-      <c r="G39" s="7">
+      <c r="E39" s="6">
+        <v>14</v>
+      </c>
+      <c r="F39" s="6">
+        <v>14</v>
+      </c>
+      <c r="G39" s="6">
         <v>8</v>
       </c>
-      <c r="I39" s="7">
+      <c r="I39" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J39" s="7">
+      <c r="J39" s="6">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="K39" s="7">
+      <c r="K39" s="6">
         <f t="shared" si="4"/>
         <v>6.5</v>
       </c>
-      <c r="L39" s="7">
+      <c r="L39" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M39" s="7">
+      <c r="M39" s="6">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:13" s="7" customFormat="1">
-      <c r="A40" s="6">
+    <row r="40" spans="1:13" s="6" customFormat="1">
+      <c r="A40" s="5">
         <v>41752</v>
       </c>
-      <c r="B40" s="7">
-        <v>20</v>
-      </c>
-      <c r="C40" s="7">
-        <v>20</v>
-      </c>
-      <c r="D40" s="7">
+      <c r="B40" s="6">
+        <v>20</v>
+      </c>
+      <c r="C40" s="6">
+        <v>20</v>
+      </c>
+      <c r="D40" s="6">
         <v>24</v>
       </c>
-      <c r="E40" s="7">
-        <v>14</v>
-      </c>
-      <c r="F40" s="7">
-        <v>14</v>
-      </c>
-      <c r="G40" s="7">
+      <c r="E40" s="6">
+        <v>14</v>
+      </c>
+      <c r="F40" s="6">
+        <v>14</v>
+      </c>
+      <c r="G40" s="6">
         <v>8</v>
       </c>
-      <c r="I40" s="7">
+      <c r="I40" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="J40" s="7">
+      <c r="J40" s="6">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="K40" s="7">
+      <c r="K40" s="6">
         <f t="shared" si="4"/>
         <v>39</v>
       </c>
-      <c r="L40" s="7">
+      <c r="L40" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M40" s="7">
+      <c r="M40" s="6">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:13" s="7" customFormat="1">
-      <c r="A41" s="6">
+    <row r="41" spans="1:13" s="6" customFormat="1">
+      <c r="A41" s="5">
         <v>41753</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="6">
         <v>12</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="6">
         <v>24</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="6">
         <v>15</v>
       </c>
-      <c r="E41" s="7">
-        <v>14</v>
-      </c>
-      <c r="F41" s="7">
-        <v>14</v>
-      </c>
-      <c r="G41" s="7">
+      <c r="E41" s="6">
+        <v>14</v>
+      </c>
+      <c r="F41" s="6">
+        <v>14</v>
+      </c>
+      <c r="G41" s="6">
         <v>8</v>
       </c>
-      <c r="I41" s="7">
+      <c r="I41" s="6">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
-      <c r="J41" s="7">
+      <c r="J41" s="6">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="K41" s="7">
+      <c r="K41" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L41" s="7">
+      <c r="L41" s="6">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="M41" s="7">
+      <c r="M41" s="6">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:13" s="7" customFormat="1">
-      <c r="A42" s="6">
+    <row r="42" spans="1:13" s="6" customFormat="1">
+      <c r="A42" s="5">
         <v>41754</v>
       </c>
-      <c r="B42" s="7">
-        <v>14</v>
-      </c>
-      <c r="C42" s="7">
-        <v>20</v>
-      </c>
-      <c r="D42" s="7">
+      <c r="B42" s="6">
+        <v>14</v>
+      </c>
+      <c r="C42" s="6">
+        <v>20</v>
+      </c>
+      <c r="D42" s="6">
         <v>13</v>
       </c>
-      <c r="E42" s="7">
-        <v>14</v>
-      </c>
-      <c r="F42" s="7">
-        <v>14</v>
-      </c>
-      <c r="G42" s="7">
+      <c r="E42" s="6">
+        <v>14</v>
+      </c>
+      <c r="F42" s="6">
+        <v>14</v>
+      </c>
+      <c r="G42" s="6">
         <v>8</v>
       </c>
-      <c r="I42" s="7">
+      <c r="I42" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J42" s="7">
+      <c r="J42" s="6">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="K42" s="7">
+      <c r="K42" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L42" s="7">
+      <c r="L42" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M42" s="7">
+      <c r="M42" s="6">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:13" s="7" customFormat="1">
-      <c r="A43" s="6">
+    <row r="43" spans="1:13" s="6" customFormat="1">
+      <c r="A43" s="5">
         <v>41757</v>
       </c>
-      <c r="B43" s="7">
-        <v>14</v>
-      </c>
-      <c r="C43" s="7">
+      <c r="B43" s="6">
+        <v>14</v>
+      </c>
+      <c r="C43" s="6">
         <v>19</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="6">
         <v>16</v>
       </c>
-      <c r="E43" s="7">
-        <v>14</v>
-      </c>
-      <c r="F43" s="7">
-        <v>14</v>
-      </c>
-      <c r="G43" s="7">
+      <c r="E43" s="6">
+        <v>14</v>
+      </c>
+      <c r="F43" s="6">
+        <v>14</v>
+      </c>
+      <c r="G43" s="6">
         <v>8</v>
       </c>
-      <c r="I43" s="7">
+      <c r="I43" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J43" s="7">
+      <c r="J43" s="6">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="K43" s="7">
+      <c r="K43" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L43" s="7">
+      <c r="L43" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M43" s="7">
+      <c r="M43" s="6">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:13" s="7" customFormat="1">
-      <c r="A44" s="6">
+    <row r="44" spans="1:13" s="6" customFormat="1">
+      <c r="A44" s="5">
         <v>41758</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44" s="6">
         <v>19</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="6">
         <v>21</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D44" s="6">
         <v>15</v>
       </c>
-      <c r="E44" s="7">
-        <v>14</v>
-      </c>
-      <c r="F44" s="7">
-        <v>14</v>
-      </c>
-      <c r="G44" s="7">
+      <c r="E44" s="6">
+        <v>14</v>
+      </c>
+      <c r="F44" s="6">
+        <v>14</v>
+      </c>
+      <c r="G44" s="6">
         <v>8</v>
       </c>
-      <c r="I44" s="7">
+      <c r="I44" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J44" s="7">
+      <c r="J44" s="6">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="K44" s="7">
+      <c r="K44" s="6">
         <f t="shared" si="4"/>
         <v>32.5</v>
       </c>
-      <c r="L44" s="7">
+      <c r="L44" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M44" s="7">
+      <c r="M44" s="6">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:13" s="7" customFormat="1">
-      <c r="A45" s="6">
+    <row r="45" spans="1:13" s="6" customFormat="1">
+      <c r="A45" s="5">
         <v>41759</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="6">
         <v>15</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="6">
         <v>17</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45" s="6">
         <v>12</v>
       </c>
-      <c r="E45" s="7">
-        <v>14</v>
-      </c>
-      <c r="F45" s="7">
-        <v>14</v>
-      </c>
-      <c r="G45" s="7">
+      <c r="E45" s="6">
+        <v>14</v>
+      </c>
+      <c r="F45" s="6">
+        <v>14</v>
+      </c>
+      <c r="G45" s="6">
         <v>8</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I45" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J45" s="7">
+      <c r="J45" s="6">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="K45" s="7">
+      <c r="K45" s="6">
         <f t="shared" si="4"/>
         <v>6.5</v>
       </c>
-      <c r="L45" s="7">
+      <c r="L45" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M45" s="7">
+      <c r="M45" s="6">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:13" s="7" customFormat="1">
-      <c r="A46" s="6">
+    <row r="46" spans="1:13" s="6" customFormat="1">
+      <c r="A46" s="5">
         <v>41760</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B46" s="6">
         <v>17</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="6">
         <v>21</v>
       </c>
-      <c r="D46" s="7">
-        <v>14</v>
-      </c>
-      <c r="E46" s="7">
-        <v>14</v>
-      </c>
-      <c r="F46" s="7">
-        <v>14</v>
-      </c>
-      <c r="G46" s="7">
+      <c r="D46" s="6">
+        <v>14</v>
+      </c>
+      <c r="E46" s="6">
+        <v>14</v>
+      </c>
+      <c r="F46" s="6">
+        <v>14</v>
+      </c>
+      <c r="G46" s="6">
         <v>8</v>
       </c>
-      <c r="I46" s="7">
+      <c r="I46" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J46" s="7">
+      <c r="J46" s="6">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="K46" s="7">
+      <c r="K46" s="6">
         <f t="shared" si="4"/>
         <v>19.5</v>
       </c>
-      <c r="L46" s="7">
+      <c r="L46" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M46" s="7">
+      <c r="M46" s="6">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:13" s="7" customFormat="1">
-      <c r="A47" s="6">
+    <row r="47" spans="1:13" s="6" customFormat="1">
+      <c r="A47" s="5">
         <v>41761</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="6">
         <v>15</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="6">
         <v>22</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D47" s="6">
         <v>9</v>
       </c>
-      <c r="E47" s="7">
-        <v>14</v>
-      </c>
-      <c r="F47" s="7">
-        <v>14</v>
-      </c>
-      <c r="G47" s="7">
+      <c r="E47" s="6">
+        <v>14</v>
+      </c>
+      <c r="F47" s="6">
+        <v>14</v>
+      </c>
+      <c r="G47" s="6">
         <v>8</v>
       </c>
-      <c r="I47" s="7">
+      <c r="I47" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J47" s="7">
+      <c r="J47" s="6">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="K47" s="7">
+      <c r="K47" s="6">
         <f t="shared" si="4"/>
         <v>6.5</v>
       </c>
-      <c r="L47" s="7">
+      <c r="L47" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M47" s="7">
+      <c r="M47" s="6">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:13" s="7" customFormat="1">
-      <c r="A48" s="6">
+    <row r="48" spans="1:13" s="6" customFormat="1">
+      <c r="A48" s="5">
         <v>41764</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B48" s="6">
         <v>15</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48" s="6">
         <v>23</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="6">
         <v>21</v>
       </c>
-      <c r="E48" s="7">
-        <v>14</v>
-      </c>
-      <c r="F48" s="7">
-        <v>14</v>
-      </c>
-      <c r="G48" s="7">
+      <c r="E48" s="6">
+        <v>14</v>
+      </c>
+      <c r="F48" s="6">
+        <v>14</v>
+      </c>
+      <c r="G48" s="6">
         <v>8</v>
       </c>
-      <c r="I48" s="7">
+      <c r="I48" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J48" s="7">
+      <c r="J48" s="6">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="K48" s="7">
+      <c r="K48" s="6">
         <f t="shared" si="4"/>
         <v>6.5</v>
       </c>
-      <c r="L48" s="7">
+      <c r="L48" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M48" s="7">
+      <c r="M48" s="6">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="7" customFormat="1">
-      <c r="A49" s="6">
+    <row r="49" spans="1:13" s="6" customFormat="1">
+      <c r="A49" s="5">
         <v>41765</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49" s="6">
         <v>21</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="6">
         <v>27</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D49" s="6">
         <v>23</v>
       </c>
-      <c r="E49" s="7">
-        <v>14</v>
-      </c>
-      <c r="F49" s="7">
-        <v>14</v>
-      </c>
-      <c r="G49" s="7">
+      <c r="E49" s="6">
+        <v>14</v>
+      </c>
+      <c r="F49" s="6">
+        <v>14</v>
+      </c>
+      <c r="G49" s="6">
         <v>8</v>
       </c>
-      <c r="I49" s="7">
+      <c r="I49" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="J49" s="7">
+      <c r="J49" s="6">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="K49" s="7">
+      <c r="K49" s="6">
         <f t="shared" si="4"/>
         <v>45.5</v>
       </c>
-      <c r="L49" s="7">
+      <c r="L49" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M49" s="7">
+      <c r="M49" s="6">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:13" s="7" customFormat="1">
-      <c r="A50" s="6">
+    <row r="50" spans="1:13" s="6" customFormat="1">
+      <c r="A50" s="5">
         <v>41766</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B50" s="6">
         <v>15</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="6">
         <v>19</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D50" s="6">
         <v>15</v>
       </c>
-      <c r="E50" s="7">
-        <v>14</v>
-      </c>
-      <c r="F50" s="7">
-        <v>14</v>
-      </c>
-      <c r="G50" s="7">
+      <c r="E50" s="6">
+        <v>14</v>
+      </c>
+      <c r="F50" s="6">
+        <v>14</v>
+      </c>
+      <c r="G50" s="6">
         <v>8</v>
       </c>
-      <c r="I50" s="7">
+      <c r="I50" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J50" s="7">
+      <c r="J50" s="6">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="K50" s="7">
+      <c r="K50" s="6">
         <f t="shared" si="4"/>
         <v>6.5</v>
       </c>
-      <c r="L50" s="7">
+      <c r="L50" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M50" s="7">
+      <c r="M50" s="6">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:13" s="7" customFormat="1">
-      <c r="A51" s="6">
+    <row r="51" spans="1:13" s="6" customFormat="1">
+      <c r="A51" s="5">
         <v>41767</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B51" s="6">
         <v>22</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51" s="6">
         <v>27</v>
       </c>
-      <c r="D51" s="7">
-        <v>14</v>
-      </c>
-      <c r="E51" s="7">
-        <v>14</v>
-      </c>
-      <c r="F51" s="7">
-        <v>14</v>
-      </c>
-      <c r="G51" s="7">
+      <c r="D51" s="6">
+        <v>14</v>
+      </c>
+      <c r="E51" s="6">
+        <v>14</v>
+      </c>
+      <c r="F51" s="6">
+        <v>14</v>
+      </c>
+      <c r="G51" s="6">
         <v>8</v>
       </c>
-      <c r="I51" s="7">
+      <c r="I51" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J51" s="7">
+      <c r="J51" s="6">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="K51" s="7">
+      <c r="K51" s="6">
         <f t="shared" si="4"/>
         <v>52</v>
       </c>
-      <c r="L51" s="7">
+      <c r="L51" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M51" s="7">
+      <c r="M51" s="6">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:13" s="7" customFormat="1">
-      <c r="A52" s="6">
+    <row r="52" spans="1:13" s="6" customFormat="1">
+      <c r="A52" s="5">
         <v>41768</v>
       </c>
-      <c r="B52" s="7">
+      <c r="B52" s="6">
         <v>9</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C52" s="6">
         <v>22</v>
       </c>
-      <c r="D52" s="7">
-        <v>10</v>
-      </c>
-      <c r="E52" s="7">
-        <v>14</v>
-      </c>
-      <c r="F52" s="7">
-        <v>14</v>
-      </c>
-      <c r="G52" s="7">
+      <c r="D52" s="6">
+        <v>10</v>
+      </c>
+      <c r="E52" s="6">
+        <v>14</v>
+      </c>
+      <c r="F52" s="6">
+        <v>14</v>
+      </c>
+      <c r="G52" s="6">
         <v>8</v>
       </c>
-      <c r="I52" s="7">
+      <c r="I52" s="6">
         <f t="shared" si="0"/>
         <v>-5</v>
       </c>
-      <c r="J52" s="7">
+      <c r="J52" s="6">
         <f t="shared" si="1"/>
         <v>58.5</v>
       </c>
-      <c r="K52" s="7">
+      <c r="K52" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L52" s="7">
+      <c r="L52" s="6">
         <f t="shared" si="2"/>
         <v>17.5</v>
       </c>
-      <c r="M52" s="7">
+      <c r="M52" s="6">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:13" s="7" customFormat="1">
-      <c r="A53" s="6">
+    <row r="53" spans="1:13" s="6" customFormat="1">
+      <c r="A53" s="5">
         <v>41771</v>
       </c>
-      <c r="B53" s="7">
+      <c r="B53" s="6">
         <v>11</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C53" s="6">
         <v>34</v>
       </c>
-      <c r="D53" s="7">
+      <c r="D53" s="6">
         <v>7</v>
       </c>
-      <c r="E53" s="7">
-        <v>18</v>
-      </c>
-      <c r="F53" s="7">
-        <v>20</v>
-      </c>
-      <c r="G53" s="7">
-        <v>10</v>
-      </c>
-      <c r="I53" s="7">
+      <c r="E53" s="6">
+        <v>18</v>
+      </c>
+      <c r="F53" s="6">
+        <v>20</v>
+      </c>
+      <c r="G53" s="6">
+        <v>10</v>
+      </c>
+      <c r="I53" s="6">
         <f t="shared" si="0"/>
         <v>-7</v>
       </c>
-      <c r="J53" s="7">
+      <c r="J53" s="6">
         <f t="shared" si="1"/>
         <v>71.5</v>
       </c>
-      <c r="K53" s="7">
+      <c r="K53" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L53" s="7">
+      <c r="L53" s="6">
         <f t="shared" si="2"/>
         <v>24.5</v>
       </c>
-      <c r="M53" s="7">
+      <c r="M53" s="6">
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
     </row>
-    <row r="54" spans="1:13" s="7" customFormat="1">
-      <c r="A54" s="6">
+    <row r="54" spans="1:13" s="6" customFormat="1">
+      <c r="A54" s="5">
         <v>41772</v>
       </c>
-      <c r="B54" s="7">
+      <c r="B54" s="6">
         <v>16</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C54" s="6">
         <v>23</v>
       </c>
-      <c r="D54" s="7">
+      <c r="D54" s="6">
         <v>12</v>
       </c>
-      <c r="E54" s="7">
-        <v>18</v>
-      </c>
-      <c r="F54" s="7">
-        <v>20</v>
-      </c>
-      <c r="G54" s="7">
-        <v>10</v>
-      </c>
-      <c r="I54" s="7">
+      <c r="E54" s="6">
+        <v>18</v>
+      </c>
+      <c r="F54" s="6">
+        <v>20</v>
+      </c>
+      <c r="G54" s="6">
+        <v>10</v>
+      </c>
+      <c r="I54" s="6">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
-      <c r="J54" s="7">
+      <c r="J54" s="6">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
-      <c r="K54" s="7">
+      <c r="K54" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L54" s="7">
+      <c r="L54" s="6">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="M54" s="7">
+      <c r="M54" s="6">
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="1:13" s="7" customFormat="1">
-      <c r="A55" s="6">
+    <row r="55" spans="1:13" s="6" customFormat="1">
+      <c r="A55" s="5">
         <v>41773</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B55" s="6">
         <v>17</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C55" s="6">
         <v>21</v>
       </c>
-      <c r="D55" s="7">
+      <c r="D55" s="6">
         <v>6</v>
       </c>
-      <c r="E55" s="7">
-        <v>18</v>
-      </c>
-      <c r="F55" s="7">
-        <v>20</v>
-      </c>
-      <c r="G55" s="7">
-        <v>10</v>
-      </c>
-      <c r="I55" s="7">
+      <c r="E55" s="6">
+        <v>18</v>
+      </c>
+      <c r="F55" s="6">
+        <v>20</v>
+      </c>
+      <c r="G55" s="6">
+        <v>10</v>
+      </c>
+      <c r="I55" s="6">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="J55" s="7">
+      <c r="J55" s="6">
         <f t="shared" si="1"/>
         <v>110.5</v>
       </c>
-      <c r="K55" s="7">
+      <c r="K55" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L55" s="7">
+      <c r="L55" s="6">
         <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
-      <c r="M55" s="7">
+      <c r="M55" s="6">
         <f t="shared" si="3"/>
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="1:13" s="7" customFormat="1">
-      <c r="A56" s="6">
+    <row r="56" spans="1:13" s="6" customFormat="1">
+      <c r="A56" s="5">
         <v>41774</v>
       </c>
-      <c r="B56" s="7">
+      <c r="B56" s="6">
         <v>13</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C56" s="6">
         <v>17</v>
       </c>
-      <c r="D56" s="7">
-        <v>10</v>
-      </c>
-      <c r="E56" s="7">
-        <v>18</v>
-      </c>
-      <c r="F56" s="7">
-        <v>20</v>
-      </c>
-      <c r="G56" s="7">
-        <v>10</v>
-      </c>
-      <c r="I56" s="7">
+      <c r="D56" s="6">
+        <v>10</v>
+      </c>
+      <c r="E56" s="6">
+        <v>18</v>
+      </c>
+      <c r="F56" s="6">
+        <v>20</v>
+      </c>
+      <c r="G56" s="6">
+        <v>10</v>
+      </c>
+      <c r="I56" s="6">
         <f t="shared" si="0"/>
         <v>-5</v>
       </c>
-      <c r="J56" s="7">
+      <c r="J56" s="6">
         <f t="shared" si="1"/>
         <v>84.5</v>
       </c>
-      <c r="K56" s="7">
+      <c r="K56" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L56" s="7">
+      <c r="L56" s="6">
         <f t="shared" si="2"/>
         <v>17.5</v>
       </c>
-      <c r="M56" s="7">
+      <c r="M56" s="6">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:13" s="7" customFormat="1">
-      <c r="A57" s="6">
+    <row r="57" spans="1:13" s="6" customFormat="1">
+      <c r="A57" s="5">
         <v>41775</v>
       </c>
-      <c r="B57" s="7">
+      <c r="B57" s="6">
         <v>24</v>
       </c>
-      <c r="C57" s="7">
+      <c r="C57" s="6">
         <v>24</v>
       </c>
-      <c r="D57" s="7">
+      <c r="D57" s="6">
         <v>13</v>
       </c>
-      <c r="E57" s="7">
-        <v>18</v>
-      </c>
-      <c r="F57" s="7">
-        <v>20</v>
-      </c>
-      <c r="G57" s="7">
-        <v>10</v>
-      </c>
-      <c r="I57" s="7">
+      <c r="E57" s="6">
+        <v>18</v>
+      </c>
+      <c r="F57" s="6">
+        <v>20</v>
+      </c>
+      <c r="G57" s="6">
+        <v>10</v>
+      </c>
+      <c r="I57" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="J57" s="7">
+      <c r="J57" s="6">
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
-      <c r="K57" s="7">
+      <c r="K57" s="6">
         <f t="shared" si="4"/>
         <v>39</v>
       </c>
-      <c r="L57" s="7">
+      <c r="L57" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M57" s="7">
+      <c r="M57" s="6">
         <f t="shared" si="3"/>
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:13" s="7" customFormat="1">
-      <c r="A58" s="6">
+    <row r="58" spans="1:13" s="6" customFormat="1">
+      <c r="A58" s="5">
         <v>41778</v>
       </c>
-      <c r="B58" s="7">
-        <v>10</v>
-      </c>
-      <c r="C58" s="7">
+      <c r="B58" s="6">
+        <v>10</v>
+      </c>
+      <c r="C58" s="6">
         <v>27</v>
       </c>
-      <c r="D58" s="7">
+      <c r="D58" s="6">
         <v>9</v>
       </c>
-      <c r="E58" s="7">
-        <v>18</v>
-      </c>
-      <c r="F58" s="7">
-        <v>20</v>
-      </c>
-      <c r="G58" s="7">
-        <v>10</v>
-      </c>
-      <c r="I58" s="7">
+      <c r="E58" s="6">
+        <v>18</v>
+      </c>
+      <c r="F58" s="6">
+        <v>20</v>
+      </c>
+      <c r="G58" s="6">
+        <v>10</v>
+      </c>
+      <c r="I58" s="6">
         <f t="shared" si="0"/>
         <v>-8</v>
       </c>
-      <c r="J58" s="7">
+      <c r="J58" s="6">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="K58" s="7">
+      <c r="K58" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L58" s="7">
+      <c r="L58" s="6">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="M58" s="7">
+      <c r="M58" s="6">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:13" s="7" customFormat="1">
-      <c r="A59" s="6">
+    <row r="59" spans="1:13" s="6" customFormat="1">
+      <c r="A59" s="5">
         <v>41779</v>
       </c>
-      <c r="B59" s="7">
+      <c r="B59" s="6">
         <v>17</v>
       </c>
-      <c r="C59" s="7">
+      <c r="C59" s="6">
         <v>25</v>
       </c>
-      <c r="D59" s="7">
-        <v>14</v>
-      </c>
-      <c r="E59" s="7">
-        <v>18</v>
-      </c>
-      <c r="F59" s="7">
-        <v>20</v>
-      </c>
-      <c r="G59" s="7">
-        <v>10</v>
-      </c>
-      <c r="I59" s="7">
+      <c r="D59" s="6">
+        <v>14</v>
+      </c>
+      <c r="E59" s="6">
+        <v>18</v>
+      </c>
+      <c r="F59" s="6">
+        <v>20</v>
+      </c>
+      <c r="G59" s="6">
+        <v>10</v>
+      </c>
+      <c r="I59" s="6">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="J59" s="7">
+      <c r="J59" s="6">
         <f t="shared" si="1"/>
         <v>110.5</v>
       </c>
-      <c r="K59" s="7">
+      <c r="K59" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L59" s="7">
+      <c r="L59" s="6">
         <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
-      <c r="M59" s="7">
+      <c r="M59" s="6">
         <f t="shared" si="3"/>
         <v>51</v>
       </c>
     </row>
-    <row r="60" spans="1:13" s="7" customFormat="1">
-      <c r="A60" s="6">
+    <row r="60" spans="1:13" s="6" customFormat="1">
+      <c r="A60" s="5">
         <v>41780</v>
       </c>
-      <c r="B60" s="7">
+      <c r="B60" s="6">
         <v>17</v>
       </c>
-      <c r="C60" s="7">
-        <v>20</v>
-      </c>
-      <c r="D60" s="7">
+      <c r="C60" s="6">
+        <v>20</v>
+      </c>
+      <c r="D60" s="6">
         <v>16</v>
       </c>
-      <c r="E60" s="7">
-        <v>18</v>
-      </c>
-      <c r="F60" s="7">
-        <v>20</v>
-      </c>
-      <c r="G60" s="7">
-        <v>10</v>
-      </c>
-      <c r="I60" s="7">
+      <c r="E60" s="6">
+        <v>18</v>
+      </c>
+      <c r="F60" s="6">
+        <v>20</v>
+      </c>
+      <c r="G60" s="6">
+        <v>10</v>
+      </c>
+      <c r="I60" s="6">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="J60" s="7">
+      <c r="J60" s="6">
         <f t="shared" si="1"/>
         <v>110.5</v>
       </c>
-      <c r="K60" s="7">
+      <c r="K60" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L60" s="7">
+      <c r="L60" s="6">
         <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
-      <c r="M60" s="7">
+      <c r="M60" s="6">
         <f t="shared" si="3"/>
         <v>51</v>
       </c>
     </row>
-    <row r="61" spans="1:13" s="7" customFormat="1">
-      <c r="A61" s="6">
+    <row r="61" spans="1:13" s="6" customFormat="1">
+      <c r="A61" s="5">
         <v>41781</v>
       </c>
-      <c r="B61" s="7">
+      <c r="B61" s="6">
         <v>16</v>
       </c>
-      <c r="C61" s="7">
+      <c r="C61" s="6">
         <v>22</v>
       </c>
-      <c r="D61" s="7">
+      <c r="D61" s="6">
         <v>16</v>
       </c>
-      <c r="E61" s="7">
-        <v>18</v>
-      </c>
-      <c r="F61" s="7">
-        <v>20</v>
-      </c>
-      <c r="G61" s="7">
-        <v>10</v>
-      </c>
-      <c r="I61" s="7">
+      <c r="E61" s="6">
+        <v>18</v>
+      </c>
+      <c r="F61" s="6">
+        <v>20</v>
+      </c>
+      <c r="G61" s="6">
+        <v>10</v>
+      </c>
+      <c r="I61" s="6">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
-      <c r="J61" s="7">
+      <c r="J61" s="6">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
-      <c r="K61" s="7">
+      <c r="K61" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L61" s="7">
+      <c r="L61" s="6">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="M61" s="7">
+      <c r="M61" s="6">
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
     </row>
-    <row r="62" spans="1:13" s="7" customFormat="1">
-      <c r="A62" s="6">
+    <row r="62" spans="1:13" s="6" customFormat="1">
+      <c r="A62" s="5">
         <v>41782</v>
       </c>
-      <c r="B62" s="7">
+      <c r="B62" s="6">
         <v>19</v>
       </c>
-      <c r="C62" s="7">
-        <v>18</v>
-      </c>
-      <c r="D62" s="7">
-        <v>10</v>
-      </c>
-      <c r="E62" s="7">
-        <v>18</v>
-      </c>
-      <c r="F62" s="7">
-        <v>20</v>
-      </c>
-      <c r="G62" s="7">
-        <v>10</v>
-      </c>
-      <c r="I62" s="7">
+      <c r="C62" s="6">
+        <v>18</v>
+      </c>
+      <c r="D62" s="6">
+        <v>10</v>
+      </c>
+      <c r="E62" s="6">
+        <v>18</v>
+      </c>
+      <c r="F62" s="6">
+        <v>20</v>
+      </c>
+      <c r="G62" s="6">
+        <v>10</v>
+      </c>
+      <c r="I62" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J62" s="7">
+      <c r="J62" s="6">
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
-      <c r="K62" s="7">
+      <c r="K62" s="6">
         <f t="shared" si="4"/>
         <v>6.5</v>
       </c>
-      <c r="L62" s="7">
+      <c r="L62" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M62" s="7">
+      <c r="M62" s="6">
         <f t="shared" si="3"/>
         <v>54</v>
       </c>
     </row>
-    <row r="63" spans="1:13" s="7" customFormat="1">
-      <c r="A63" s="6">
+    <row r="63" spans="1:13" s="6" customFormat="1">
+      <c r="A63" s="5">
         <v>41785</v>
       </c>
-      <c r="B63" s="7">
+      <c r="B63" s="6">
         <v>24</v>
       </c>
-      <c r="C63" s="7">
+      <c r="C63" s="6">
         <v>27</v>
       </c>
-      <c r="D63" s="7">
-        <v>14</v>
-      </c>
-      <c r="E63" s="7">
-        <v>18</v>
-      </c>
-      <c r="F63" s="7">
-        <v>20</v>
-      </c>
-      <c r="G63" s="7">
-        <v>10</v>
-      </c>
-      <c r="I63" s="7">
+      <c r="D63" s="6">
+        <v>14</v>
+      </c>
+      <c r="E63" s="6">
+        <v>18</v>
+      </c>
+      <c r="F63" s="6">
+        <v>20</v>
+      </c>
+      <c r="G63" s="6">
+        <v>10</v>
+      </c>
+      <c r="I63" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="J63" s="7">
+      <c r="J63" s="6">
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
-      <c r="K63" s="7">
+      <c r="K63" s="6">
         <f t="shared" si="4"/>
         <v>39</v>
       </c>
-      <c r="L63" s="7">
+      <c r="L63" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M63" s="7">
+      <c r="M63" s="6">
         <f t="shared" si="3"/>
         <v>54</v>
       </c>
     </row>
-    <row r="64" spans="1:13" s="7" customFormat="1">
-      <c r="A64" s="6">
+    <row r="64" spans="1:13" s="6" customFormat="1">
+      <c r="A64" s="5">
         <v>41786</v>
       </c>
-      <c r="B64" s="7">
-        <v>14</v>
-      </c>
-      <c r="C64" s="7">
+      <c r="B64" s="6">
+        <v>14</v>
+      </c>
+      <c r="C64" s="6">
         <v>25</v>
       </c>
-      <c r="D64" s="7">
-        <v>10</v>
-      </c>
-      <c r="E64" s="7">
-        <v>18</v>
-      </c>
-      <c r="F64" s="7">
-        <v>20</v>
-      </c>
-      <c r="G64" s="7">
-        <v>10</v>
-      </c>
-      <c r="I64" s="7">
+      <c r="D64" s="6">
+        <v>10</v>
+      </c>
+      <c r="E64" s="6">
+        <v>18</v>
+      </c>
+      <c r="F64" s="6">
+        <v>20</v>
+      </c>
+      <c r="G64" s="6">
+        <v>10</v>
+      </c>
+      <c r="I64" s="6">
         <f t="shared" si="0"/>
         <v>-4</v>
       </c>
-      <c r="J64" s="7">
+      <c r="J64" s="6">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="K64" s="7">
+      <c r="K64" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L64" s="7">
+      <c r="L64" s="6">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="M64" s="7">
+      <c r="M64" s="6">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
     </row>
-    <row r="65" spans="1:13" s="7" customFormat="1">
-      <c r="A65" s="6">
+    <row r="65" spans="1:13" s="6" customFormat="1">
+      <c r="A65" s="5">
         <v>41787</v>
       </c>
-      <c r="B65" s="7">
+      <c r="B65" s="6">
         <v>6</v>
       </c>
-      <c r="C65" s="7">
+      <c r="C65" s="6">
         <v>16</v>
       </c>
-      <c r="D65" s="7">
-        <v>14</v>
-      </c>
-      <c r="E65" s="7">
-        <v>18</v>
-      </c>
-      <c r="F65" s="7">
-        <v>20</v>
-      </c>
-      <c r="G65" s="7">
-        <v>10</v>
-      </c>
-      <c r="I65" s="7">
+      <c r="D65" s="6">
+        <v>14</v>
+      </c>
+      <c r="E65" s="6">
+        <v>18</v>
+      </c>
+      <c r="F65" s="6">
+        <v>20</v>
+      </c>
+      <c r="G65" s="6">
+        <v>10</v>
+      </c>
+      <c r="I65" s="6">
         <f t="shared" si="0"/>
         <v>-12</v>
       </c>
-      <c r="J65" s="7">
+      <c r="J65" s="6">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="K65" s="7">
+      <c r="K65" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L65" s="7">
+      <c r="L65" s="6">
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="M65" s="7">
+      <c r="M65" s="6">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:13" s="7" customFormat="1">
-      <c r="A66" s="6">
+    <row r="66" spans="1:13" s="6" customFormat="1">
+      <c r="A66" s="5">
         <v>41788</v>
       </c>
-      <c r="B66" s="7">
+      <c r="B66" s="6">
         <v>13</v>
       </c>
-      <c r="C66" s="7">
+      <c r="C66" s="6">
         <v>21</v>
       </c>
-      <c r="D66" s="7">
+      <c r="D66" s="6">
         <v>12</v>
       </c>
-      <c r="E66" s="7">
-        <v>18</v>
-      </c>
-      <c r="F66" s="7">
-        <v>20</v>
-      </c>
-      <c r="G66" s="7">
-        <v>10</v>
-      </c>
-      <c r="I66" s="7">
+      <c r="E66" s="6">
+        <v>18</v>
+      </c>
+      <c r="F66" s="6">
+        <v>20</v>
+      </c>
+      <c r="G66" s="6">
+        <v>10</v>
+      </c>
+      <c r="I66" s="6">
         <f t="shared" si="0"/>
         <v>-5</v>
       </c>
-      <c r="J66" s="7">
+      <c r="J66" s="6">
         <f t="shared" si="1"/>
         <v>84.5</v>
       </c>
-      <c r="K66" s="7">
+      <c r="K66" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L66" s="7">
+      <c r="L66" s="6">
         <f t="shared" si="2"/>
         <v>17.5</v>
       </c>
-      <c r="M66" s="7">
+      <c r="M66" s="6">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:13" s="7" customFormat="1">
-      <c r="A67" s="6">
+    <row r="67" spans="1:13" s="6" customFormat="1">
+      <c r="A67" s="5">
         <v>41789</v>
       </c>
-      <c r="B67" s="7">
+      <c r="B67" s="6">
         <v>13</v>
       </c>
-      <c r="C67" s="7">
+      <c r="C67" s="6">
         <v>23</v>
       </c>
-      <c r="D67" s="7">
+      <c r="D67" s="6">
         <v>5</v>
       </c>
-      <c r="E67" s="7">
-        <v>18</v>
-      </c>
-      <c r="F67" s="7">
-        <v>20</v>
-      </c>
-      <c r="G67" s="7">
-        <v>10</v>
-      </c>
-      <c r="I67" s="7">
+      <c r="E67" s="6">
+        <v>18</v>
+      </c>
+      <c r="F67" s="6">
+        <v>20</v>
+      </c>
+      <c r="G67" s="6">
+        <v>10</v>
+      </c>
+      <c r="I67" s="6">
         <f t="shared" si="0"/>
         <v>-5</v>
       </c>
-      <c r="J67" s="7">
+      <c r="J67" s="6">
         <f t="shared" si="1"/>
         <v>84.5</v>
       </c>
-      <c r="K67" s="7">
+      <c r="K67" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L67" s="7">
+      <c r="L67" s="6">
         <f t="shared" si="2"/>
         <v>17.5</v>
       </c>
-      <c r="M67" s="7">
+      <c r="M67" s="6">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:13" s="7" customFormat="1">
-      <c r="A68" s="6">
+    <row r="68" spans="1:13" s="6" customFormat="1">
+      <c r="A68" s="5">
         <v>41792</v>
       </c>
-      <c r="B68" s="7">
+      <c r="B68" s="6">
         <v>15</v>
       </c>
-      <c r="C68" s="7">
-        <v>18</v>
-      </c>
-      <c r="D68" s="7">
-        <v>18</v>
-      </c>
-      <c r="E68" s="7">
-        <v>18</v>
-      </c>
-      <c r="F68" s="7">
-        <v>20</v>
-      </c>
-      <c r="G68" s="7">
-        <v>10</v>
-      </c>
-      <c r="I68" s="7">
+      <c r="C68" s="6">
+        <v>18</v>
+      </c>
+      <c r="D68" s="6">
+        <v>18</v>
+      </c>
+      <c r="E68" s="6">
+        <v>18</v>
+      </c>
+      <c r="F68" s="6">
+        <v>20</v>
+      </c>
+      <c r="G68" s="6">
+        <v>10</v>
+      </c>
+      <c r="I68" s="6">
         <f t="shared" ref="I68:I131" si="5">B68-E68</f>
         <v>-3</v>
       </c>
-      <c r="J68" s="7">
+      <c r="J68" s="6">
         <f t="shared" ref="J68:J131" si="6">IF(I68&lt;=0,B68*6.5,E68*6.5)</f>
         <v>97.5</v>
       </c>
-      <c r="K68" s="7">
+      <c r="K68" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L68" s="7">
+      <c r="L68" s="6">
         <f t="shared" ref="L68:L131" si="7">IF(I68&gt;0,0,(E68-B68)*3.5)</f>
         <v>10.5</v>
       </c>
-      <c r="M68" s="7">
+      <c r="M68" s="6">
         <f t="shared" ref="M68:M131" si="8">IF(I68&lt;=0,B68*3,E68*3)</f>
         <v>45</v>
       </c>
     </row>
-    <row r="69" spans="1:13" s="7" customFormat="1">
-      <c r="A69" s="6">
+    <row r="69" spans="1:13" s="6" customFormat="1">
+      <c r="A69" s="5">
         <v>41793</v>
       </c>
-      <c r="B69" s="7">
+      <c r="B69" s="6">
         <v>13</v>
       </c>
-      <c r="C69" s="7">
+      <c r="C69" s="6">
         <v>26</v>
       </c>
-      <c r="D69" s="7">
-        <v>10</v>
-      </c>
-      <c r="E69" s="7">
-        <v>18</v>
-      </c>
-      <c r="F69" s="7">
-        <v>20</v>
-      </c>
-      <c r="G69" s="7">
-        <v>10</v>
-      </c>
-      <c r="I69" s="7">
+      <c r="D69" s="6">
+        <v>10</v>
+      </c>
+      <c r="E69" s="6">
+        <v>18</v>
+      </c>
+      <c r="F69" s="6">
+        <v>20</v>
+      </c>
+      <c r="G69" s="6">
+        <v>10</v>
+      </c>
+      <c r="I69" s="6">
         <f t="shared" si="5"/>
         <v>-5</v>
       </c>
-      <c r="J69" s="7">
+      <c r="J69" s="6">
         <f t="shared" si="6"/>
         <v>84.5</v>
       </c>
-      <c r="K69" s="7">
+      <c r="K69" s="6">
         <f t="shared" ref="K69:K132" si="9">IF(I69&lt;=0,0,(B69-E69)*6.5)</f>
         <v>0</v>
       </c>
-      <c r="L69" s="7">
+      <c r="L69" s="6">
         <f t="shared" si="7"/>
         <v>17.5</v>
       </c>
-      <c r="M69" s="7">
+      <c r="M69" s="6">
         <f t="shared" si="8"/>
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="1:13" s="7" customFormat="1">
-      <c r="A70" s="6">
+    <row r="70" spans="1:13" s="6" customFormat="1">
+      <c r="A70" s="5">
         <v>41794</v>
       </c>
-      <c r="B70" s="7">
+      <c r="B70" s="6">
         <v>16</v>
       </c>
-      <c r="C70" s="7">
+      <c r="C70" s="6">
         <v>26</v>
       </c>
-      <c r="D70" s="7">
+      <c r="D70" s="6">
         <v>12</v>
       </c>
-      <c r="E70" s="7">
-        <v>18</v>
-      </c>
-      <c r="F70" s="7">
-        <v>20</v>
-      </c>
-      <c r="G70" s="7">
-        <v>10</v>
-      </c>
-      <c r="I70" s="7">
+      <c r="E70" s="6">
+        <v>18</v>
+      </c>
+      <c r="F70" s="6">
+        <v>20</v>
+      </c>
+      <c r="G70" s="6">
+        <v>10</v>
+      </c>
+      <c r="I70" s="6">
         <f t="shared" si="5"/>
         <v>-2</v>
       </c>
-      <c r="J70" s="7">
+      <c r="J70" s="6">
         <f t="shared" si="6"/>
         <v>104</v>
       </c>
-      <c r="K70" s="7">
+      <c r="K70" s="6">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L70" s="7">
+      <c r="L70" s="6">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="M70" s="7">
+      <c r="M70" s="6">
         <f t="shared" si="8"/>
         <v>48</v>
       </c>
     </row>
-    <row r="71" spans="1:13" s="7" customFormat="1">
-      <c r="A71" s="6">
+    <row r="71" spans="1:13" s="6" customFormat="1">
+      <c r="A71" s="5">
         <v>41795</v>
       </c>
-      <c r="B71" s="7">
+      <c r="B71" s="6">
         <v>15</v>
       </c>
-      <c r="C71" s="7">
+      <c r="C71" s="6">
         <v>25</v>
       </c>
-      <c r="D71" s="7">
-        <v>10</v>
-      </c>
-      <c r="E71" s="7">
-        <v>18</v>
-      </c>
-      <c r="F71" s="7">
-        <v>20</v>
-      </c>
-      <c r="G71" s="7">
-        <v>10</v>
-      </c>
-      <c r="I71" s="7">
+      <c r="D71" s="6">
+        <v>10</v>
+      </c>
+      <c r="E71" s="6">
+        <v>18</v>
+      </c>
+      <c r="F71" s="6">
+        <v>20</v>
+      </c>
+      <c r="G71" s="6">
+        <v>10</v>
+      </c>
+      <c r="I71" s="6">
         <f t="shared" si="5"/>
         <v>-3</v>
       </c>
-      <c r="J71" s="7">
+      <c r="J71" s="6">
         <f t="shared" si="6"/>
         <v>97.5</v>
       </c>
-      <c r="K71" s="7">
+      <c r="K71" s="6">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L71" s="7">
+      <c r="L71" s="6">
         <f t="shared" si="7"/>
         <v>10.5</v>
       </c>
-      <c r="M71" s="7">
+      <c r="M71" s="6">
         <f t="shared" si="8"/>
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="1:13" s="7" customFormat="1">
-      <c r="A72" s="6">
+    <row r="72" spans="1:13" s="6" customFormat="1">
+      <c r="A72" s="5">
         <v>41796</v>
       </c>
-      <c r="B72" s="7">
+      <c r="B72" s="6">
         <v>16</v>
       </c>
-      <c r="C72" s="7">
+      <c r="C72" s="6">
         <v>21</v>
       </c>
-      <c r="D72" s="7">
+      <c r="D72" s="6">
         <v>12</v>
       </c>
-      <c r="E72" s="7">
-        <v>18</v>
-      </c>
-      <c r="F72" s="7">
-        <v>20</v>
-      </c>
-      <c r="G72" s="7">
-        <v>10</v>
-      </c>
-      <c r="I72" s="7">
+      <c r="E72" s="6">
+        <v>18</v>
+      </c>
+      <c r="F72" s="6">
+        <v>20</v>
+      </c>
+      <c r="G72" s="6">
+        <v>10</v>
+      </c>
+      <c r="I72" s="6">
         <f t="shared" si="5"/>
         <v>-2</v>
       </c>
-      <c r="J72" s="7">
+      <c r="J72" s="6">
         <f t="shared" si="6"/>
         <v>104</v>
       </c>
-      <c r="K72" s="7">
+      <c r="K72" s="6">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L72" s="7">
+      <c r="L72" s="6">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="M72" s="7">
+      <c r="M72" s="6">
         <f t="shared" si="8"/>
         <v>48</v>
       </c>
     </row>
-    <row r="73" spans="1:13" s="7" customFormat="1">
-      <c r="A73" s="6">
+    <row r="73" spans="1:13" s="6" customFormat="1">
+      <c r="A73" s="5">
         <v>41799</v>
       </c>
-      <c r="B73" s="7">
+      <c r="B73" s="6">
         <v>17</v>
       </c>
-      <c r="C73" s="7">
+      <c r="C73" s="6">
         <v>37</v>
       </c>
-      <c r="D73" s="7">
+      <c r="D73" s="6">
         <v>8</v>
       </c>
-      <c r="E73" s="7">
-        <v>18</v>
-      </c>
-      <c r="F73" s="7">
-        <v>20</v>
-      </c>
-      <c r="G73" s="7">
-        <v>10</v>
-      </c>
-      <c r="I73" s="7">
+      <c r="E73" s="6">
+        <v>18</v>
+      </c>
+      <c r="F73" s="6">
+        <v>20</v>
+      </c>
+      <c r="G73" s="6">
+        <v>10</v>
+      </c>
+      <c r="I73" s="6">
         <f t="shared" si="5"/>
         <v>-1</v>
       </c>
-      <c r="J73" s="7">
+      <c r="J73" s="6">
         <f t="shared" si="6"/>
         <v>110.5</v>
       </c>
-      <c r="K73" s="7">
+      <c r="K73" s="6">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L73" s="7">
+      <c r="L73" s="6">
         <f t="shared" si="7"/>
         <v>3.5</v>
       </c>
-      <c r="M73" s="7">
+      <c r="M73" s="6">
         <f t="shared" si="8"/>
         <v>51</v>
       </c>
     </row>
-    <row r="74" spans="1:13" s="7" customFormat="1">
-      <c r="A74" s="6">
+    <row r="74" spans="1:13" s="6" customFormat="1">
+      <c r="A74" s="5">
         <v>41800</v>
       </c>
-      <c r="B74" s="7">
-        <v>14</v>
-      </c>
-      <c r="C74" s="7">
+      <c r="B74" s="6">
+        <v>14</v>
+      </c>
+      <c r="C74" s="6">
         <v>29</v>
       </c>
-      <c r="D74" s="7">
+      <c r="D74" s="6">
         <v>19</v>
       </c>
-      <c r="E74" s="7">
-        <v>18</v>
-      </c>
-      <c r="F74" s="7">
-        <v>20</v>
-      </c>
-      <c r="G74" s="7">
-        <v>10</v>
-      </c>
-      <c r="I74" s="7">
+      <c r="E74" s="6">
+        <v>18</v>
+      </c>
+      <c r="F74" s="6">
+        <v>20</v>
+      </c>
+      <c r="G74" s="6">
+        <v>10</v>
+      </c>
+      <c r="I74" s="6">
         <f t="shared" si="5"/>
         <v>-4</v>
       </c>
-      <c r="J74" s="7">
+      <c r="J74" s="6">
         <f t="shared" si="6"/>
         <v>91</v>
       </c>
-      <c r="K74" s="7">
+      <c r="K74" s="6">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L74" s="7">
+      <c r="L74" s="6">
         <f t="shared" si="7"/>
         <v>14</v>
       </c>
-      <c r="M74" s="7">
+      <c r="M74" s="6">
         <f t="shared" si="8"/>
         <v>42</v>
       </c>
     </row>
-    <row r="75" spans="1:13" s="7" customFormat="1">
-      <c r="A75" s="6">
+    <row r="75" spans="1:13" s="6" customFormat="1">
+      <c r="A75" s="5">
         <v>41801</v>
       </c>
-      <c r="B75" s="7">
-        <v>18</v>
-      </c>
-      <c r="C75" s="7">
+      <c r="B75" s="6">
+        <v>18</v>
+      </c>
+      <c r="C75" s="6">
         <v>16</v>
       </c>
-      <c r="D75" s="7">
+      <c r="D75" s="6">
         <v>12</v>
       </c>
-      <c r="E75" s="7">
-        <v>18</v>
-      </c>
-      <c r="F75" s="7">
-        <v>20</v>
-      </c>
-      <c r="G75" s="7">
-        <v>10</v>
-      </c>
-      <c r="I75" s="7">
+      <c r="E75" s="6">
+        <v>18</v>
+      </c>
+      <c r="F75" s="6">
+        <v>20</v>
+      </c>
+      <c r="G75" s="6">
+        <v>10</v>
+      </c>
+      <c r="I75" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J75" s="7">
+      <c r="J75" s="6">
         <f t="shared" si="6"/>
         <v>117</v>
       </c>
-      <c r="K75" s="7">
+      <c r="K75" s="6">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L75" s="7">
+      <c r="L75" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M75" s="7">
+      <c r="M75" s="6">
         <f t="shared" si="8"/>
         <v>54</v>
       </c>
     </row>
-    <row r="76" spans="1:13" s="7" customFormat="1">
-      <c r="A76" s="6">
+    <row r="76" spans="1:13" s="6" customFormat="1">
+      <c r="A76" s="5">
         <v>41802</v>
       </c>
-      <c r="B76" s="7">
+      <c r="B76" s="6">
         <v>15</v>
       </c>
-      <c r="C76" s="7">
+      <c r="C76" s="6">
         <v>26</v>
       </c>
-      <c r="D76" s="7">
-        <v>14</v>
-      </c>
-      <c r="E76" s="7">
-        <v>18</v>
-      </c>
-      <c r="F76" s="7">
-        <v>20</v>
-      </c>
-      <c r="G76" s="7">
-        <v>10</v>
-      </c>
-      <c r="I76" s="7">
+      <c r="D76" s="6">
+        <v>14</v>
+      </c>
+      <c r="E76" s="6">
+        <v>18</v>
+      </c>
+      <c r="F76" s="6">
+        <v>20</v>
+      </c>
+      <c r="G76" s="6">
+        <v>10</v>
+      </c>
+      <c r="I76" s="6">
         <f t="shared" si="5"/>
         <v>-3</v>
       </c>
-      <c r="J76" s="7">
+      <c r="J76" s="6">
         <f t="shared" si="6"/>
         <v>97.5</v>
       </c>
-      <c r="K76" s="7">
+      <c r="K76" s="6">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L76" s="7">
+      <c r="L76" s="6">
         <f t="shared" si="7"/>
         <v>10.5</v>
       </c>
-      <c r="M76" s="7">
+      <c r="M76" s="6">
         <f t="shared" si="8"/>
         <v>45</v>
       </c>
     </row>
-    <row r="77" spans="1:13" s="7" customFormat="1">
-      <c r="A77" s="6">
+    <row r="77" spans="1:13" s="6" customFormat="1">
+      <c r="A77" s="5">
         <v>41803</v>
       </c>
-      <c r="B77" s="7">
+      <c r="B77" s="6">
         <v>17</v>
       </c>
-      <c r="C77" s="7">
+      <c r="C77" s="6">
         <v>15</v>
       </c>
-      <c r="D77" s="7">
-        <v>14</v>
-      </c>
-      <c r="E77" s="7">
-        <v>18</v>
-      </c>
-      <c r="F77" s="7">
-        <v>20</v>
-      </c>
-      <c r="G77" s="7">
-        <v>10</v>
-      </c>
-      <c r="I77" s="7">
+      <c r="D77" s="6">
+        <v>14</v>
+      </c>
+      <c r="E77" s="6">
+        <v>18</v>
+      </c>
+      <c r="F77" s="6">
+        <v>20</v>
+      </c>
+      <c r="G77" s="6">
+        <v>10</v>
+      </c>
+      <c r="I77" s="6">
         <f t="shared" si="5"/>
         <v>-1</v>
       </c>
-      <c r="J77" s="7">
+      <c r="J77" s="6">
         <f t="shared" si="6"/>
         <v>110.5</v>
       </c>
-      <c r="K77" s="7">
+      <c r="K77" s="6">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L77" s="7">
+      <c r="L77" s="6">
         <f t="shared" si="7"/>
         <v>3.5</v>
       </c>
-      <c r="M77" s="7">
+      <c r="M77" s="6">
         <f t="shared" si="8"/>
         <v>51</v>
       </c>
     </row>
-    <row r="78" spans="1:13" s="7" customFormat="1">
-      <c r="A78" s="6">
+    <row r="78" spans="1:13" s="6" customFormat="1">
+      <c r="A78" s="5">
         <v>41806</v>
       </c>
-      <c r="B78" s="7">
-        <v>20</v>
-      </c>
-      <c r="C78" s="7">
+      <c r="B78" s="6">
+        <v>20</v>
+      </c>
+      <c r="C78" s="6">
         <v>15</v>
       </c>
-      <c r="D78" s="7">
+      <c r="D78" s="6">
         <v>17</v>
       </c>
-      <c r="E78" s="7">
-        <v>18</v>
-      </c>
-      <c r="F78" s="7">
-        <v>20</v>
-      </c>
-      <c r="G78" s="7">
-        <v>10</v>
-      </c>
-      <c r="I78" s="7">
+      <c r="E78" s="6">
+        <v>18</v>
+      </c>
+      <c r="F78" s="6">
+        <v>20</v>
+      </c>
+      <c r="G78" s="6">
+        <v>10</v>
+      </c>
+      <c r="I78" s="6">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="J78" s="7">
+      <c r="J78" s="6">
         <f t="shared" si="6"/>
         <v>117</v>
       </c>
-      <c r="K78" s="7">
+      <c r="K78" s="6">
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
-      <c r="L78" s="7">
+      <c r="L78" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M78" s="7">
+      <c r="M78" s="6">
         <f t="shared" si="8"/>
         <v>54</v>
       </c>
     </row>
-    <row r="79" spans="1:13" s="7" customFormat="1">
-      <c r="A79" s="6">
+    <row r="79" spans="1:13" s="6" customFormat="1">
+      <c r="A79" s="5">
         <v>41807</v>
       </c>
-      <c r="B79" s="7">
+      <c r="B79" s="6">
         <v>17</v>
       </c>
-      <c r="C79" s="7">
-        <v>14</v>
-      </c>
-      <c r="D79" s="7">
+      <c r="C79" s="6">
+        <v>14</v>
+      </c>
+      <c r="D79" s="6">
         <v>9</v>
       </c>
-      <c r="E79" s="7">
-        <v>18</v>
-      </c>
-      <c r="F79" s="7">
-        <v>20</v>
-      </c>
-      <c r="G79" s="7">
-        <v>10</v>
-      </c>
-      <c r="I79" s="7">
+      <c r="E79" s="6">
+        <v>18</v>
+      </c>
+      <c r="F79" s="6">
+        <v>20</v>
+      </c>
+      <c r="G79" s="6">
+        <v>10</v>
+      </c>
+      <c r="I79" s="6">
         <f t="shared" si="5"/>
         <v>-1</v>
       </c>
-      <c r="J79" s="7">
+      <c r="J79" s="6">
         <f t="shared" si="6"/>
         <v>110.5</v>
       </c>
-      <c r="K79" s="7">
+      <c r="K79" s="6">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L79" s="7">
+      <c r="L79" s="6">
         <f t="shared" si="7"/>
         <v>3.5</v>
       </c>
-      <c r="M79" s="7">
+      <c r="M79" s="6">
         <f t="shared" si="8"/>
         <v>51</v>
       </c>
     </row>
-    <row r="80" spans="1:13" s="7" customFormat="1">
-      <c r="A80" s="6">
+    <row r="80" spans="1:13" s="6" customFormat="1">
+      <c r="A80" s="5">
         <v>41808</v>
       </c>
-      <c r="B80" s="7">
-        <v>14</v>
-      </c>
-      <c r="C80" s="7">
-        <v>20</v>
-      </c>
-      <c r="D80" s="7">
+      <c r="B80" s="6">
+        <v>14</v>
+      </c>
+      <c r="C80" s="6">
+        <v>20</v>
+      </c>
+      <c r="D80" s="6">
         <v>13</v>
       </c>
-      <c r="E80" s="7">
-        <v>18</v>
-      </c>
-      <c r="F80" s="7">
-        <v>20</v>
-      </c>
-      <c r="G80" s="7">
-        <v>10</v>
-      </c>
-      <c r="I80" s="7">
+      <c r="E80" s="6">
+        <v>18</v>
+      </c>
+      <c r="F80" s="6">
+        <v>20</v>
+      </c>
+      <c r="G80" s="6">
+        <v>10</v>
+      </c>
+      <c r="I80" s="6">
         <f t="shared" si="5"/>
         <v>-4</v>
       </c>
-      <c r="J80" s="7">
+      <c r="J80" s="6">
         <f t="shared" si="6"/>
         <v>91</v>
       </c>
-      <c r="K80" s="7">
+      <c r="K80" s="6">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L80" s="7">
+      <c r="L80" s="6">
         <f t="shared" si="7"/>
         <v>14</v>
       </c>
-      <c r="M80" s="7">
+      <c r="M80" s="6">
         <f t="shared" si="8"/>
         <v>42</v>
       </c>
     </row>
-    <row r="81" spans="1:13" s="7" customFormat="1">
-      <c r="A81" s="6">
+    <row r="81" spans="1:13" s="6" customFormat="1">
+      <c r="A81" s="5">
         <v>41809</v>
       </c>
-      <c r="B81" s="7">
-        <v>20</v>
-      </c>
-      <c r="C81" s="7">
+      <c r="B81" s="6">
+        <v>20</v>
+      </c>
+      <c r="C81" s="6">
         <v>19</v>
       </c>
-      <c r="D81" s="7">
-        <v>14</v>
-      </c>
-      <c r="E81" s="7">
-        <v>18</v>
-      </c>
-      <c r="F81" s="7">
-        <v>20</v>
-      </c>
-      <c r="G81" s="7">
-        <v>10</v>
-      </c>
-      <c r="I81" s="7">
+      <c r="D81" s="6">
+        <v>14</v>
+      </c>
+      <c r="E81" s="6">
+        <v>18</v>
+      </c>
+      <c r="F81" s="6">
+        <v>20</v>
+      </c>
+      <c r="G81" s="6">
+        <v>10</v>
+      </c>
+      <c r="I81" s="6">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="J81" s="7">
+      <c r="J81" s="6">
         <f t="shared" si="6"/>
         <v>117</v>
       </c>
-      <c r="K81" s="7">
+      <c r="K81" s="6">
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
-      <c r="L81" s="7">
+      <c r="L81" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M81" s="7">
+      <c r="M81" s="6">
         <f t="shared" si="8"/>
         <v>54</v>
       </c>
     </row>
-    <row r="82" spans="1:13" s="7" customFormat="1">
-      <c r="A82" s="6">
+    <row r="82" spans="1:13" s="6" customFormat="1">
+      <c r="A82" s="5">
         <v>41810</v>
       </c>
-      <c r="B82" s="7">
+      <c r="B82" s="6">
         <v>19</v>
       </c>
-      <c r="C82" s="7">
+      <c r="C82" s="6">
         <v>17</v>
       </c>
-      <c r="D82" s="7">
+      <c r="D82" s="6">
         <v>13</v>
       </c>
-      <c r="E82" s="7">
-        <v>18</v>
-      </c>
-      <c r="F82" s="7">
-        <v>20</v>
-      </c>
-      <c r="G82" s="7">
-        <v>10</v>
-      </c>
-      <c r="I82" s="7">
+      <c r="E82" s="6">
+        <v>18</v>
+      </c>
+      <c r="F82" s="6">
+        <v>20</v>
+      </c>
+      <c r="G82" s="6">
+        <v>10</v>
+      </c>
+      <c r="I82" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="J82" s="7">
+      <c r="J82" s="6">
         <f t="shared" si="6"/>
         <v>117</v>
       </c>
-      <c r="K82" s="7">
+      <c r="K82" s="6">
         <f t="shared" si="9"/>
         <v>6.5</v>
       </c>
-      <c r="L82" s="7">
+      <c r="L82" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M82" s="7">
+      <c r="M82" s="6">
         <f t="shared" si="8"/>
         <v>54</v>
       </c>
     </row>
-    <row r="83" spans="1:13" s="7" customFormat="1">
-      <c r="A83" s="6">
+    <row r="83" spans="1:13" s="6" customFormat="1">
+      <c r="A83" s="5">
         <v>41813</v>
       </c>
-      <c r="B83" s="7">
-        <v>18</v>
-      </c>
-      <c r="C83" s="7">
+      <c r="B83" s="6">
+        <v>18</v>
+      </c>
+      <c r="C83" s="6">
         <v>29</v>
       </c>
-      <c r="D83" s="7">
+      <c r="D83" s="6">
         <v>15</v>
       </c>
-      <c r="E83" s="7">
-        <v>18</v>
-      </c>
-      <c r="F83" s="7">
-        <v>20</v>
-      </c>
-      <c r="G83" s="7">
-        <v>10</v>
-      </c>
-      <c r="I83" s="7">
+      <c r="E83" s="6">
+        <v>18</v>
+      </c>
+      <c r="F83" s="6">
+        <v>20</v>
+      </c>
+      <c r="G83" s="6">
+        <v>10</v>
+      </c>
+      <c r="I83" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J83" s="7">
+      <c r="J83" s="6">
         <f t="shared" si="6"/>
         <v>117</v>
       </c>
-      <c r="K83" s="7">
+      <c r="K83" s="6">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L83" s="7">
+      <c r="L83" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M83" s="7">
+      <c r="M83" s="6">
         <f t="shared" si="8"/>
         <v>54</v>
       </c>
     </row>
-    <row r="84" spans="1:13" s="7" customFormat="1">
-      <c r="A84" s="6">
+    <row r="84" spans="1:13" s="6" customFormat="1">
+      <c r="A84" s="5">
         <v>41814</v>
       </c>
-      <c r="B84" s="7">
+      <c r="B84" s="6">
         <v>16</v>
       </c>
-      <c r="C84" s="7">
+      <c r="C84" s="6">
         <v>21</v>
       </c>
-      <c r="D84" s="7">
+      <c r="D84" s="6">
         <v>12</v>
       </c>
-      <c r="E84" s="7">
-        <v>18</v>
-      </c>
-      <c r="F84" s="7">
-        <v>20</v>
-      </c>
-      <c r="G84" s="7">
-        <v>10</v>
-      </c>
-      <c r="I84" s="7">
+      <c r="E84" s="6">
+        <v>18</v>
+      </c>
+      <c r="F84" s="6">
+        <v>20</v>
+      </c>
+      <c r="G84" s="6">
+        <v>10</v>
+      </c>
+      <c r="I84" s="6">
         <f t="shared" si="5"/>
         <v>-2</v>
       </c>
-      <c r="J84" s="7">
+      <c r="J84" s="6">
         <f t="shared" si="6"/>
         <v>104</v>
       </c>
-      <c r="K84" s="7">
+      <c r="K84" s="6">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L84" s="7">
+      <c r="L84" s="6">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="M84" s="7">
+      <c r="M84" s="6">
         <f t="shared" si="8"/>
         <v>48</v>
       </c>
     </row>
-    <row r="85" spans="1:13" s="7" customFormat="1">
-      <c r="A85" s="6">
+    <row r="85" spans="1:13" s="6" customFormat="1">
+      <c r="A85" s="5">
         <v>41815</v>
       </c>
-      <c r="B85" s="7">
+      <c r="B85" s="6">
         <v>13</v>
       </c>
-      <c r="C85" s="7">
+      <c r="C85" s="6">
         <v>27</v>
       </c>
-      <c r="D85" s="7">
+      <c r="D85" s="6">
         <v>11</v>
       </c>
-      <c r="E85" s="7">
-        <v>18</v>
-      </c>
-      <c r="F85" s="7">
-        <v>20</v>
-      </c>
-      <c r="G85" s="7">
-        <v>10</v>
-      </c>
-      <c r="I85" s="7">
+      <c r="E85" s="6">
+        <v>18</v>
+      </c>
+      <c r="F85" s="6">
+        <v>20</v>
+      </c>
+      <c r="G85" s="6">
+        <v>10</v>
+      </c>
+      <c r="I85" s="6">
         <f t="shared" si="5"/>
         <v>-5</v>
       </c>
-      <c r="J85" s="7">
+      <c r="J85" s="6">
         <f t="shared" si="6"/>
         <v>84.5</v>
       </c>
-      <c r="K85" s="7">
+      <c r="K85" s="6">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L85" s="7">
+      <c r="L85" s="6">
         <f t="shared" si="7"/>
         <v>17.5</v>
       </c>
-      <c r="M85" s="7">
+      <c r="M85" s="6">
         <f t="shared" si="8"/>
         <v>39</v>
       </c>
     </row>
-    <row r="86" spans="1:13" s="7" customFormat="1">
-      <c r="A86" s="6">
+    <row r="86" spans="1:13" s="6" customFormat="1">
+      <c r="A86" s="5">
         <v>41816</v>
       </c>
-      <c r="B86" s="7">
+      <c r="B86" s="6">
         <v>21</v>
       </c>
-      <c r="C86" s="7">
+      <c r="C86" s="6">
         <v>24</v>
       </c>
-      <c r="D86" s="7">
+      <c r="D86" s="6">
         <v>21</v>
       </c>
-      <c r="E86" s="7">
-        <v>18</v>
-      </c>
-      <c r="F86" s="7">
-        <v>20</v>
-      </c>
-      <c r="G86" s="7">
-        <v>10</v>
-      </c>
-      <c r="I86" s="7">
+      <c r="E86" s="6">
+        <v>18</v>
+      </c>
+      <c r="F86" s="6">
+        <v>20</v>
+      </c>
+      <c r="G86" s="6">
+        <v>10</v>
+      </c>
+      <c r="I86" s="6">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="J86" s="7">
+      <c r="J86" s="6">
         <f t="shared" si="6"/>
         <v>117</v>
       </c>
-      <c r="K86" s="7">
+      <c r="K86" s="6">
         <f t="shared" si="9"/>
         <v>19.5</v>
       </c>
-      <c r="L86" s="7">
+      <c r="L86" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M86" s="7">
+      <c r="M86" s="6">
         <f t="shared" si="8"/>
         <v>54</v>
       </c>
     </row>
-    <row r="87" spans="1:13" s="7" customFormat="1">
-      <c r="A87" s="6">
+    <row r="87" spans="1:13" s="6" customFormat="1">
+      <c r="A87" s="5">
         <v>41817</v>
       </c>
-      <c r="B87" s="7">
-        <v>14</v>
-      </c>
-      <c r="C87" s="7">
+      <c r="B87" s="6">
+        <v>14</v>
+      </c>
+      <c r="C87" s="6">
         <v>21</v>
       </c>
-      <c r="D87" s="7">
+      <c r="D87" s="6">
         <v>13</v>
       </c>
-      <c r="E87" s="7">
-        <v>18</v>
-      </c>
-      <c r="F87" s="7">
-        <v>20</v>
-      </c>
-      <c r="G87" s="7">
-        <v>10</v>
-      </c>
-      <c r="I87" s="7">
+      <c r="E87" s="6">
+        <v>18</v>
+      </c>
+      <c r="F87" s="6">
+        <v>20</v>
+      </c>
+      <c r="G87" s="6">
+        <v>10</v>
+      </c>
+      <c r="I87" s="6">
         <f t="shared" si="5"/>
         <v>-4</v>
       </c>
-      <c r="J87" s="7">
+      <c r="J87" s="6">
         <f t="shared" si="6"/>
         <v>91</v>
       </c>
-      <c r="K87" s="7">
+      <c r="K87" s="6">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L87" s="7">
+      <c r="L87" s="6">
         <f t="shared" si="7"/>
         <v>14</v>
       </c>
-      <c r="M87" s="7">
+      <c r="M87" s="6">
         <f t="shared" si="8"/>
         <v>42</v>
       </c>
     </row>
-    <row r="88" spans="1:13" s="7" customFormat="1">
-      <c r="A88" s="6">
+    <row r="88" spans="1:13" s="6" customFormat="1">
+      <c r="A88" s="5">
         <v>41820</v>
       </c>
-      <c r="B88" s="7">
+      <c r="B88" s="6">
         <v>17</v>
       </c>
-      <c r="C88" s="7">
-        <v>14</v>
-      </c>
-      <c r="D88" s="7">
-        <v>14</v>
-      </c>
-      <c r="E88" s="7">
-        <v>18</v>
-      </c>
-      <c r="F88" s="7">
-        <v>20</v>
-      </c>
-      <c r="G88" s="7">
-        <v>10</v>
-      </c>
-      <c r="I88" s="7">
+      <c r="C88" s="6">
+        <v>14</v>
+      </c>
+      <c r="D88" s="6">
+        <v>14</v>
+      </c>
+      <c r="E88" s="6">
+        <v>18</v>
+      </c>
+      <c r="F88" s="6">
+        <v>20</v>
+      </c>
+      <c r="G88" s="6">
+        <v>10</v>
+      </c>
+      <c r="I88" s="6">
         <f t="shared" si="5"/>
         <v>-1</v>
       </c>
-      <c r="J88" s="7">
+      <c r="J88" s="6">
         <f t="shared" si="6"/>
         <v>110.5</v>
       </c>
-      <c r="K88" s="7">
+      <c r="K88" s="6">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L88" s="7">
+      <c r="L88" s="6">
         <f t="shared" si="7"/>
         <v>3.5</v>
       </c>
-      <c r="M88" s="7">
+      <c r="M88" s="6">
         <f t="shared" si="8"/>
         <v>51</v>
       </c>
     </row>
-    <row r="89" spans="1:13" s="7" customFormat="1">
-      <c r="A89" s="6">
+    <row r="89" spans="1:13" s="6" customFormat="1">
+      <c r="A89" s="5">
         <v>41821</v>
       </c>
-      <c r="B89" s="7">
+      <c r="B89" s="6">
         <v>15</v>
       </c>
-      <c r="C89" s="7">
-        <v>20</v>
-      </c>
-      <c r="D89" s="7">
+      <c r="C89" s="6">
+        <v>20</v>
+      </c>
+      <c r="D89" s="6">
         <v>8</v>
       </c>
-      <c r="E89" s="7">
-        <v>18</v>
-      </c>
-      <c r="F89" s="7">
-        <v>20</v>
-      </c>
-      <c r="G89" s="7">
-        <v>10</v>
-      </c>
-      <c r="I89" s="7">
+      <c r="E89" s="6">
+        <v>18</v>
+      </c>
+      <c r="F89" s="6">
+        <v>20</v>
+      </c>
+      <c r="G89" s="6">
+        <v>10</v>
+      </c>
+      <c r="I89" s="6">
         <f t="shared" si="5"/>
         <v>-3</v>
       </c>
-      <c r="J89" s="7">
+      <c r="J89" s="6">
         <f t="shared" si="6"/>
         <v>97.5</v>
       </c>
-      <c r="K89" s="7">
+      <c r="K89" s="6">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L89" s="7">
+      <c r="L89" s="6">
         <f t="shared" si="7"/>
         <v>10.5</v>
       </c>
-      <c r="M89" s="7">
+      <c r="M89" s="6">
         <f t="shared" si="8"/>
         <v>45</v>
       </c>
     </row>
-    <row r="90" spans="1:13" s="7" customFormat="1">
-      <c r="A90" s="6">
+    <row r="90" spans="1:13" s="6" customFormat="1">
+      <c r="A90" s="5">
         <v>41822</v>
       </c>
-      <c r="B90" s="7">
+      <c r="B90" s="6">
         <v>17</v>
       </c>
-      <c r="C90" s="7">
+      <c r="C90" s="6">
         <v>13</v>
       </c>
-      <c r="D90" s="7">
-        <v>14</v>
-      </c>
-      <c r="E90" s="7">
-        <v>18</v>
-      </c>
-      <c r="F90" s="7">
-        <v>20</v>
-      </c>
-      <c r="G90" s="7">
-        <v>10</v>
-      </c>
-      <c r="I90" s="7">
+      <c r="D90" s="6">
+        <v>14</v>
+      </c>
+      <c r="E90" s="6">
+        <v>18</v>
+      </c>
+      <c r="F90" s="6">
+        <v>20</v>
+      </c>
+      <c r="G90" s="6">
+        <v>10</v>
+      </c>
+      <c r="I90" s="6">
         <f t="shared" si="5"/>
         <v>-1</v>
       </c>
-      <c r="J90" s="7">
+      <c r="J90" s="6">
         <f t="shared" si="6"/>
         <v>110.5</v>
       </c>
-      <c r="K90" s="7">
+      <c r="K90" s="6">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L90" s="7">
+      <c r="L90" s="6">
         <f t="shared" si="7"/>
         <v>3.5</v>
       </c>
-      <c r="M90" s="7">
+      <c r="M90" s="6">
         <f t="shared" si="8"/>
         <v>51</v>
       </c>
     </row>
-    <row r="91" spans="1:13" s="7" customFormat="1">
-      <c r="A91" s="6">
+    <row r="91" spans="1:13" s="6" customFormat="1">
+      <c r="A91" s="5">
         <v>41823</v>
       </c>
-      <c r="B91" s="7">
+      <c r="B91" s="6">
         <v>16</v>
       </c>
-      <c r="C91" s="7">
+      <c r="C91" s="6">
         <v>28</v>
       </c>
-      <c r="D91" s="7">
+      <c r="D91" s="6">
         <v>13</v>
       </c>
-      <c r="E91" s="7">
-        <v>18</v>
-      </c>
-      <c r="F91" s="7">
-        <v>20</v>
-      </c>
-      <c r="G91" s="7">
-        <v>10</v>
-      </c>
-      <c r="I91" s="7">
+      <c r="E91" s="6">
+        <v>18</v>
+      </c>
+      <c r="F91" s="6">
+        <v>20</v>
+      </c>
+      <c r="G91" s="6">
+        <v>10</v>
+      </c>
+      <c r="I91" s="6">
         <f t="shared" si="5"/>
         <v>-2</v>
       </c>
-      <c r="J91" s="7">
+      <c r="J91" s="6">
         <f t="shared" si="6"/>
         <v>104</v>
       </c>
-      <c r="K91" s="7">
+      <c r="K91" s="6">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L91" s="7">
+      <c r="L91" s="6">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="M91" s="7">
+      <c r="M91" s="6">
         <f t="shared" si="8"/>
         <v>48</v>
       </c>
     </row>
-    <row r="92" spans="1:13" s="7" customFormat="1">
-      <c r="A92" s="6">
+    <row r="92" spans="1:13" s="6" customFormat="1">
+      <c r="A92" s="5">
         <v>41824</v>
       </c>
-      <c r="B92" s="7">
+      <c r="B92" s="6">
         <v>23</v>
       </c>
-      <c r="C92" s="7">
+      <c r="C92" s="6">
         <v>32</v>
       </c>
-      <c r="D92" s="7">
+      <c r="D92" s="6">
         <v>17</v>
       </c>
-      <c r="E92" s="7">
-        <v>18</v>
-      </c>
-      <c r="F92" s="7">
-        <v>20</v>
-      </c>
-      <c r="G92" s="7">
-        <v>10</v>
-      </c>
-      <c r="I92" s="7">
+      <c r="E92" s="6">
+        <v>18</v>
+      </c>
+      <c r="F92" s="6">
+        <v>20</v>
+      </c>
+      <c r="G92" s="6">
+        <v>10</v>
+      </c>
+      <c r="I92" s="6">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="J92" s="7">
+      <c r="J92" s="6">
         <f t="shared" si="6"/>
         <v>117</v>
       </c>
-      <c r="K92" s="7">
+      <c r="K92" s="6">
         <f t="shared" si="9"/>
         <v>32.5</v>
       </c>
-      <c r="L92" s="7">
+      <c r="L92" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M92" s="7">
+      <c r="M92" s="6">
         <f t="shared" si="8"/>
         <v>54</v>
       </c>
     </row>
-    <row r="93" spans="1:13" s="7" customFormat="1">
-      <c r="A93" s="6">
+    <row r="93" spans="1:13" s="6" customFormat="1">
+      <c r="A93" s="5">
         <v>41827</v>
       </c>
-      <c r="B93" s="7">
+      <c r="B93" s="6">
         <v>16</v>
       </c>
-      <c r="C93" s="7">
+      <c r="C93" s="6">
         <v>29</v>
       </c>
-      <c r="D93" s="7">
-        <v>10</v>
-      </c>
-      <c r="E93" s="7">
-        <v>18</v>
-      </c>
-      <c r="F93" s="7">
-        <v>20</v>
-      </c>
-      <c r="G93" s="7">
-        <v>10</v>
-      </c>
-      <c r="I93" s="7">
+      <c r="D93" s="6">
+        <v>10</v>
+      </c>
+      <c r="E93" s="6">
+        <v>18</v>
+      </c>
+      <c r="F93" s="6">
+        <v>20</v>
+      </c>
+      <c r="G93" s="6">
+        <v>10</v>
+      </c>
+      <c r="I93" s="6">
         <f t="shared" si="5"/>
         <v>-2</v>
       </c>
-      <c r="J93" s="7">
+      <c r="J93" s="6">
         <f t="shared" si="6"/>
         <v>104</v>
       </c>
-      <c r="K93" s="7">
+      <c r="K93" s="6">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L93" s="7">
+      <c r="L93" s="6">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="M93" s="7">
+      <c r="M93" s="6">
         <f t="shared" si="8"/>
         <v>48</v>
       </c>
     </row>
-    <row r="94" spans="1:13" s="7" customFormat="1">
-      <c r="A94" s="6">
+    <row r="94" spans="1:13" s="6" customFormat="1">
+      <c r="A94" s="5">
         <v>41828</v>
       </c>
-      <c r="B94" s="7">
-        <v>20</v>
-      </c>
-      <c r="C94" s="7">
+      <c r="B94" s="6">
+        <v>20</v>
+      </c>
+      <c r="C94" s="6">
         <v>21</v>
       </c>
-      <c r="D94" s="7">
+      <c r="D94" s="6">
         <v>15</v>
       </c>
-      <c r="E94" s="7">
-        <v>18</v>
-      </c>
-      <c r="F94" s="7">
-        <v>20</v>
-      </c>
-      <c r="G94" s="7">
-        <v>10</v>
-      </c>
-      <c r="I94" s="7">
+      <c r="E94" s="6">
+        <v>18</v>
+      </c>
+      <c r="F94" s="6">
+        <v>20</v>
+      </c>
+      <c r="G94" s="6">
+        <v>10</v>
+      </c>
+      <c r="I94" s="6">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="J94" s="7">
+      <c r="J94" s="6">
         <f t="shared" si="6"/>
         <v>117</v>
       </c>
-      <c r="K94" s="7">
+      <c r="K94" s="6">
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
-      <c r="L94" s="7">
+      <c r="L94" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M94" s="7">
+      <c r="M94" s="6">
         <f t="shared" si="8"/>
         <v>54</v>
       </c>
     </row>
-    <row r="95" spans="1:13" s="7" customFormat="1">
-      <c r="A95" s="6">
+    <row r="95" spans="1:13" s="6" customFormat="1">
+      <c r="A95" s="5">
         <v>41829</v>
       </c>
-      <c r="B95" s="7">
+      <c r="B95" s="6">
         <v>13</v>
       </c>
-      <c r="C95" s="7">
+      <c r="C95" s="6">
         <v>13</v>
       </c>
-      <c r="D95" s="7">
+      <c r="D95" s="6">
         <v>15</v>
       </c>
-      <c r="E95" s="7">
-        <v>18</v>
-      </c>
-      <c r="F95" s="7">
-        <v>20</v>
-      </c>
-      <c r="G95" s="7">
-        <v>10</v>
-      </c>
-      <c r="I95" s="7">
+      <c r="E95" s="6">
+        <v>18</v>
+      </c>
+      <c r="F95" s="6">
+        <v>20</v>
+      </c>
+      <c r="G95" s="6">
+        <v>10</v>
+      </c>
+      <c r="I95" s="6">
         <f t="shared" si="5"/>
         <v>-5</v>
       </c>
-      <c r="J95" s="7">
+      <c r="J95" s="6">
         <f t="shared" si="6"/>
         <v>84.5</v>
       </c>
-      <c r="K95" s="7">
+      <c r="K95" s="6">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L95" s="7">
+      <c r="L95" s="6">
         <f t="shared" si="7"/>
         <v>17.5</v>
       </c>
-      <c r="M95" s="7">
+      <c r="M95" s="6">
         <f t="shared" si="8"/>
         <v>39</v>
       </c>
     </row>
-    <row r="96" spans="1:13" s="7" customFormat="1">
-      <c r="A96" s="6">
+    <row r="96" spans="1:13" s="6" customFormat="1">
+      <c r="A96" s="5">
         <v>41830</v>
       </c>
-      <c r="B96" s="7">
+      <c r="B96" s="6">
         <v>15</v>
       </c>
-      <c r="C96" s="7">
+      <c r="C96" s="6">
         <v>26</v>
       </c>
-      <c r="D96" s="7">
+      <c r="D96" s="6">
         <v>12</v>
       </c>
-      <c r="E96" s="7">
-        <v>18</v>
-      </c>
-      <c r="F96" s="7">
-        <v>20</v>
-      </c>
-      <c r="G96" s="7">
-        <v>10</v>
-      </c>
-      <c r="I96" s="7">
+      <c r="E96" s="6">
+        <v>18</v>
+      </c>
+      <c r="F96" s="6">
+        <v>20</v>
+      </c>
+      <c r="G96" s="6">
+        <v>10</v>
+      </c>
+      <c r="I96" s="6">
         <f t="shared" si="5"/>
         <v>-3</v>
       </c>
-      <c r="J96" s="7">
+      <c r="J96" s="6">
         <f t="shared" si="6"/>
         <v>97.5</v>
       </c>
-      <c r="K96" s="7">
+      <c r="K96" s="6">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L96" s="7">
+      <c r="L96" s="6">
         <f t="shared" si="7"/>
         <v>10.5</v>
       </c>
-      <c r="M96" s="7">
+      <c r="M96" s="6">
         <f t="shared" si="8"/>
         <v>45</v>
       </c>
     </row>
-    <row r="97" spans="1:13" s="7" customFormat="1">
-      <c r="A97" s="6">
+    <row r="97" spans="1:13" s="6" customFormat="1">
+      <c r="A97" s="5">
         <v>41831</v>
       </c>
-      <c r="B97" s="7">
+      <c r="B97" s="6">
         <v>12</v>
       </c>
-      <c r="C97" s="7">
+      <c r="C97" s="6">
         <v>19</v>
       </c>
-      <c r="D97" s="7">
+      <c r="D97" s="6">
         <v>8</v>
       </c>
-      <c r="E97" s="7">
-        <v>18</v>
-      </c>
-      <c r="F97" s="7">
-        <v>20</v>
-      </c>
-      <c r="G97" s="7">
-        <v>10</v>
-      </c>
-      <c r="I97" s="7">
+      <c r="E97" s="6">
+        <v>18</v>
+      </c>
+      <c r="F97" s="6">
+        <v>20</v>
+      </c>
+      <c r="G97" s="6">
+        <v>10</v>
+      </c>
+      <c r="I97" s="6">
         <f t="shared" si="5"/>
         <v>-6</v>
       </c>
-      <c r="J97" s="7">
+      <c r="J97" s="6">
         <f t="shared" si="6"/>
         <v>78</v>
       </c>
-      <c r="K97" s="7">
+      <c r="K97" s="6">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L97" s="7">
+      <c r="L97" s="6">
         <f t="shared" si="7"/>
         <v>21</v>
       </c>
-      <c r="M97" s="7">
+      <c r="M97" s="6">
         <f t="shared" si="8"/>
         <v>36</v>
       </c>
     </row>
-    <row r="98" spans="1:13" s="7" customFormat="1">
-      <c r="A98" s="6">
+    <row r="98" spans="1:13" s="6" customFormat="1">
+      <c r="A98" s="5">
         <v>41834</v>
       </c>
-      <c r="B98" s="7">
-        <v>18</v>
-      </c>
-      <c r="C98" s="7">
+      <c r="B98" s="6">
+        <v>18</v>
+      </c>
+      <c r="C98" s="6">
         <v>26</v>
       </c>
-      <c r="D98" s="7">
+      <c r="D98" s="6">
         <v>12</v>
       </c>
-      <c r="E98" s="7">
-        <v>18</v>
-      </c>
-      <c r="F98" s="7">
-        <v>20</v>
-      </c>
-      <c r="G98" s="7">
-        <v>10</v>
-      </c>
-      <c r="I98" s="7">
+      <c r="E98" s="6">
+        <v>18</v>
+      </c>
+      <c r="F98" s="6">
+        <v>20</v>
+      </c>
+      <c r="G98" s="6">
+        <v>10</v>
+      </c>
+      <c r="I98" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J98" s="7">
+      <c r="J98" s="6">
         <f t="shared" si="6"/>
         <v>117</v>
       </c>
-      <c r="K98" s="7">
+      <c r="K98" s="6">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L98" s="7">
+      <c r="L98" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M98" s="7">
+      <c r="M98" s="6">
         <f t="shared" si="8"/>
         <v>54</v>
       </c>
     </row>
-    <row r="99" spans="1:13" s="7" customFormat="1">
-      <c r="A99" s="6">
+    <row r="99" spans="1:13" s="6" customFormat="1">
+      <c r="A99" s="5">
         <v>41835</v>
       </c>
-      <c r="B99" s="7">
+      <c r="B99" s="6">
         <v>15</v>
       </c>
-      <c r="C99" s="7">
+      <c r="C99" s="6">
         <v>25</v>
       </c>
-      <c r="D99" s="7">
-        <v>14</v>
-      </c>
-      <c r="E99" s="7">
-        <v>18</v>
-      </c>
-      <c r="F99" s="7">
-        <v>20</v>
-      </c>
-      <c r="G99" s="7">
-        <v>10</v>
-      </c>
-      <c r="I99" s="7">
+      <c r="D99" s="6">
+        <v>14</v>
+      </c>
+      <c r="E99" s="6">
+        <v>18</v>
+      </c>
+      <c r="F99" s="6">
+        <v>20</v>
+      </c>
+      <c r="G99" s="6">
+        <v>10</v>
+      </c>
+      <c r="I99" s="6">
         <f t="shared" si="5"/>
         <v>-3</v>
       </c>
-      <c r="J99" s="7">
+      <c r="J99" s="6">
         <f t="shared" si="6"/>
         <v>97.5</v>
       </c>
-      <c r="K99" s="7">
+      <c r="K99" s="6">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L99" s="7">
+      <c r="L99" s="6">
         <f t="shared" si="7"/>
         <v>10.5</v>
       </c>
-      <c r="M99" s="7">
+      <c r="M99" s="6">
         <f t="shared" si="8"/>
         <v>45</v>
       </c>
     </row>
-    <row r="100" spans="1:13" s="7" customFormat="1">
-      <c r="A100" s="6">
+    <row r="100" spans="1:13" s="6" customFormat="1">
+      <c r="A100" s="5">
         <v>41836</v>
       </c>
-      <c r="B100" s="7">
+      <c r="B100" s="6">
         <v>21</v>
       </c>
-      <c r="C100" s="7">
+      <c r="C100" s="6">
         <v>15</v>
       </c>
-      <c r="D100" s="7">
-        <v>14</v>
-      </c>
-      <c r="E100" s="7">
-        <v>18</v>
-      </c>
-      <c r="F100" s="7">
-        <v>20</v>
-      </c>
-      <c r="G100" s="7">
-        <v>10</v>
-      </c>
-      <c r="I100" s="7">
+      <c r="D100" s="6">
+        <v>14</v>
+      </c>
+      <c r="E100" s="6">
+        <v>18</v>
+      </c>
+      <c r="F100" s="6">
+        <v>20</v>
+      </c>
+      <c r="G100" s="6">
+        <v>10</v>
+      </c>
+      <c r="I100" s="6">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="J100" s="7">
+      <c r="J100" s="6">
         <f t="shared" si="6"/>
         <v>117</v>
       </c>
-      <c r="K100" s="7">
+      <c r="K100" s="6">
         <f t="shared" si="9"/>
         <v>19.5</v>
       </c>
-      <c r="L100" s="7">
+      <c r="L100" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M100" s="7">
+      <c r="M100" s="6">
         <f t="shared" si="8"/>
         <v>54</v>
       </c>
     </row>
-    <row r="101" spans="1:13" s="7" customFormat="1">
-      <c r="A101" s="6">
+    <row r="101" spans="1:13" s="6" customFormat="1">
+      <c r="A101" s="5">
         <v>41837</v>
       </c>
-      <c r="B101" s="7">
+      <c r="B101" s="6">
         <v>23</v>
       </c>
-      <c r="C101" s="7">
-        <v>20</v>
-      </c>
-      <c r="D101" s="7">
+      <c r="C101" s="6">
+        <v>20</v>
+      </c>
+      <c r="D101" s="6">
         <v>9</v>
       </c>
-      <c r="E101" s="7">
-        <v>18</v>
-      </c>
-      <c r="F101" s="7">
-        <v>20</v>
-      </c>
-      <c r="G101" s="7">
-        <v>10</v>
-      </c>
-      <c r="I101" s="7">
+      <c r="E101" s="6">
+        <v>18</v>
+      </c>
+      <c r="F101" s="6">
+        <v>20</v>
+      </c>
+      <c r="G101" s="6">
+        <v>10</v>
+      </c>
+      <c r="I101" s="6">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="J101" s="7">
+      <c r="J101" s="6">
         <f t="shared" si="6"/>
         <v>117</v>
       </c>
-      <c r="K101" s="7">
+      <c r="K101" s="6">
         <f t="shared" si="9"/>
         <v>32.5</v>
       </c>
-      <c r="L101" s="7">
+      <c r="L101" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M101" s="7">
+      <c r="M101" s="6">
         <f t="shared" si="8"/>
         <v>54</v>
       </c>
     </row>
-    <row r="102" spans="1:13" s="7" customFormat="1">
-      <c r="A102" s="6">
+    <row r="102" spans="1:13" s="6" customFormat="1">
+      <c r="A102" s="5">
         <v>41838</v>
       </c>
-      <c r="B102" s="7">
+      <c r="B102" s="6">
         <v>17</v>
       </c>
-      <c r="C102" s="7">
-        <v>18</v>
-      </c>
-      <c r="D102" s="7">
+      <c r="C102" s="6">
+        <v>18</v>
+      </c>
+      <c r="D102" s="6">
         <v>13</v>
       </c>
-      <c r="E102" s="7">
-        <v>18</v>
-      </c>
-      <c r="F102" s="7">
-        <v>20</v>
-      </c>
-      <c r="G102" s="7">
-        <v>10</v>
-      </c>
-      <c r="I102" s="7">
+      <c r="E102" s="6">
+        <v>18</v>
+      </c>
+      <c r="F102" s="6">
+        <v>20</v>
+      </c>
+      <c r="G102" s="6">
+        <v>10</v>
+      </c>
+      <c r="I102" s="6">
         <f t="shared" si="5"/>
         <v>-1</v>
       </c>
-      <c r="J102" s="7">
+      <c r="J102" s="6">
         <f t="shared" si="6"/>
         <v>110.5</v>
       </c>
-      <c r="K102" s="7">
+      <c r="K102" s="6">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L102" s="7">
+      <c r="L102" s="6">
         <f t="shared" si="7"/>
         <v>3.5</v>
       </c>
-      <c r="M102" s="7">
+      <c r="M102" s="6">
         <f t="shared" si="8"/>
         <v>51</v>
       </c>
     </row>
-    <row r="103" spans="1:13" s="7" customFormat="1">
-      <c r="A103" s="6">
+    <row r="103" spans="1:13" s="6" customFormat="1">
+      <c r="A103" s="5">
         <v>41841</v>
       </c>
-      <c r="B103" s="7">
-        <v>14</v>
-      </c>
-      <c r="C103" s="7">
+      <c r="B103" s="6">
+        <v>14</v>
+      </c>
+      <c r="C103" s="6">
         <v>22</v>
       </c>
-      <c r="D103" s="7">
+      <c r="D103" s="6">
         <v>9</v>
       </c>
-      <c r="E103" s="7">
+      <c r="E103" s="6">
         <v>15</v>
       </c>
-      <c r="F103" s="7">
-        <v>18</v>
-      </c>
-      <c r="G103" s="7">
+      <c r="F103" s="6">
+        <v>18</v>
+      </c>
+      <c r="G103" s="6">
         <v>11</v>
       </c>
-      <c r="I103" s="7">
+      <c r="I103" s="6">
         <f t="shared" si="5"/>
         <v>-1</v>
       </c>
-      <c r="J103" s="7">
+      <c r="J103" s="6">
         <f t="shared" si="6"/>
         <v>91</v>
       </c>
-      <c r="K103" s="7">
+      <c r="K103" s="6">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L103" s="7">
+      <c r="L103" s="6">
         <f t="shared" si="7"/>
         <v>3.5</v>
       </c>
-      <c r="M103" s="7">
+      <c r="M103" s="6">
         <f t="shared" si="8"/>
         <v>42</v>
       </c>
     </row>
-    <row r="104" spans="1:13" s="7" customFormat="1">
-      <c r="A104" s="6">
+    <row r="104" spans="1:13" s="6" customFormat="1">
+      <c r="A104" s="5">
         <v>41842</v>
       </c>
-      <c r="B104" s="7">
+      <c r="B104" s="6">
         <v>16</v>
       </c>
-      <c r="C104" s="7">
+      <c r="C104" s="6">
         <v>24</v>
       </c>
-      <c r="D104" s="7">
+      <c r="D104" s="6">
         <v>16</v>
       </c>
-      <c r="E104" s="7">
+      <c r="E104" s="6">
         <v>15</v>
       </c>
-      <c r="F104" s="7">
-        <v>18</v>
-      </c>
-      <c r="G104" s="7">
+      <c r="F104" s="6">
+        <v>18</v>
+      </c>
+      <c r="G104" s="6">
         <v>11</v>
       </c>
-      <c r="I104" s="7">
+      <c r="I104" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="J104" s="7">
+      <c r="J104" s="6">
         <f t="shared" si="6"/>
         <v>97.5</v>
       </c>
-      <c r="K104" s="7">
+      <c r="K104" s="6">
         <f t="shared" si="9"/>
         <v>6.5</v>
       </c>
-      <c r="L104" s="7">
+      <c r="L104" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M104" s="7">
+      <c r="M104" s="6">
         <f t="shared" si="8"/>
         <v>45</v>
       </c>
     </row>
-    <row r="105" spans="1:13" s="7" customFormat="1">
-      <c r="A105" s="6">
+    <row r="105" spans="1:13" s="6" customFormat="1">
+      <c r="A105" s="5">
         <v>41843</v>
       </c>
-      <c r="B105" s="7">
+      <c r="B105" s="6">
         <v>21</v>
       </c>
-      <c r="C105" s="7">
+      <c r="C105" s="6">
         <v>22</v>
       </c>
-      <c r="D105" s="7">
+      <c r="D105" s="6">
         <v>4</v>
       </c>
-      <c r="E105" s="7">
+      <c r="E105" s="6">
         <v>15</v>
       </c>
-      <c r="F105" s="7">
-        <v>18</v>
-      </c>
-      <c r="G105" s="7">
+      <c r="F105" s="6">
+        <v>18</v>
+      </c>
+      <c r="G105" s="6">
         <v>11</v>
       </c>
-      <c r="I105" s="7">
+      <c r="I105" s="6">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="J105" s="7">
+      <c r="J105" s="6">
         <f t="shared" si="6"/>
         <v>97.5</v>
       </c>
-      <c r="K105" s="7">
+      <c r="K105" s="6">
         <f t="shared" si="9"/>
         <v>39</v>
       </c>
-      <c r="L105" s="7">
+      <c r="L105" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M105" s="7">
+      <c r="M105" s="6">
         <f t="shared" si="8"/>
         <v>45</v>
       </c>
     </row>
-    <row r="106" spans="1:13" s="7" customFormat="1">
-      <c r="A106" s="6">
+    <row r="106" spans="1:13" s="6" customFormat="1">
+      <c r="A106" s="5">
         <v>41844</v>
       </c>
-      <c r="B106" s="7">
+      <c r="B106" s="6">
         <v>15</v>
       </c>
-      <c r="C106" s="7">
-        <v>14</v>
-      </c>
-      <c r="D106" s="7">
-        <v>14</v>
-      </c>
-      <c r="E106" s="7">
+      <c r="C106" s="6">
+        <v>14</v>
+      </c>
+      <c r="D106" s="6">
+        <v>14</v>
+      </c>
+      <c r="E106" s="6">
         <v>15</v>
       </c>
-      <c r="F106" s="7">
-        <v>18</v>
-      </c>
-      <c r="G106" s="7">
+      <c r="F106" s="6">
+        <v>18</v>
+      </c>
+      <c r="G106" s="6">
         <v>11</v>
       </c>
-      <c r="I106" s="7">
+      <c r="I106" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J106" s="7">
+      <c r="J106" s="6">
         <f t="shared" si="6"/>
         <v>97.5</v>
       </c>
-      <c r="K106" s="7">
+      <c r="K106" s="6">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L106" s="7">
+      <c r="L106" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M106" s="7">
+      <c r="M106" s="6">
         <f t="shared" si="8"/>
         <v>45</v>
       </c>
     </row>
-    <row r="107" spans="1:13" s="7" customFormat="1">
-      <c r="A107" s="6">
+    <row r="107" spans="1:13" s="6" customFormat="1">
+      <c r="A107" s="5">
         <v>41845</v>
       </c>
-      <c r="B107" s="7">
+      <c r="B107" s="6">
         <v>9</v>
       </c>
-      <c r="C107" s="7">
-        <v>18</v>
-      </c>
-      <c r="D107" s="7">
-        <v>18</v>
-      </c>
-      <c r="E107" s="7">
+      <c r="C107" s="6">
+        <v>18</v>
+      </c>
+      <c r="D107" s="6">
+        <v>18</v>
+      </c>
+      <c r="E107" s="6">
         <v>15</v>
       </c>
-      <c r="F107" s="7">
-        <v>18</v>
-      </c>
-      <c r="G107" s="7">
+      <c r="F107" s="6">
+        <v>18</v>
+      </c>
+      <c r="G107" s="6">
         <v>11</v>
       </c>
-      <c r="I107" s="7">
+      <c r="I107" s="6">
         <f t="shared" si="5"/>
         <v>-6</v>
       </c>
-      <c r="J107" s="7">
+      <c r="J107" s="6">
         <f t="shared" si="6"/>
         <v>58.5</v>
       </c>
-      <c r="K107" s="7">
+      <c r="K107" s="6">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L107" s="7">
+      <c r="L107" s="6">
         <f t="shared" si="7"/>
         <v>21</v>
       </c>
-      <c r="M107" s="7">
+      <c r="M107" s="6">
         <f t="shared" si="8"/>
         <v>27</v>
       </c>
     </row>
-    <row r="108" spans="1:13" s="7" customFormat="1">
-      <c r="A108" s="6">
+    <row r="108" spans="1:13" s="6" customFormat="1">
+      <c r="A108" s="5">
         <v>41848</v>
       </c>
-      <c r="B108" s="7">
+      <c r="B108" s="6">
         <v>12</v>
       </c>
-      <c r="C108" s="7">
-        <v>20</v>
-      </c>
-      <c r="D108" s="7">
+      <c r="C108" s="6">
+        <v>20</v>
+      </c>
+      <c r="D108" s="6">
         <v>9</v>
       </c>
-      <c r="E108" s="7">
+      <c r="E108" s="6">
         <v>15</v>
       </c>
-      <c r="F108" s="7">
-        <v>18</v>
-      </c>
-      <c r="G108" s="7">
+      <c r="F108" s="6">
+        <v>18</v>
+      </c>
+      <c r="G108" s="6">
         <v>11</v>
       </c>
-      <c r="I108" s="7">
+      <c r="I108" s="6">
         <f t="shared" si="5"/>
         <v>-3</v>
       </c>
-      <c r="J108" s="7">
+      <c r="J108" s="6">
         <f t="shared" si="6"/>
         <v>78</v>
       </c>
-      <c r="K108" s="7">
+      <c r="K108" s="6">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L108" s="7">
+      <c r="L108" s="6">
         <f t="shared" si="7"/>
         <v>10.5</v>
       </c>
-      <c r="M108" s="7">
+      <c r="M108" s="6">
         <f t="shared" si="8"/>
         <v>36</v>
       </c>
     </row>
-    <row r="109" spans="1:13" s="7" customFormat="1">
-      <c r="A109" s="6">
+    <row r="109" spans="1:13" s="6" customFormat="1">
+      <c r="A109" s="5">
         <v>41849</v>
       </c>
-      <c r="B109" s="7">
+      <c r="B109" s="6">
         <v>19</v>
       </c>
-      <c r="C109" s="7">
+      <c r="C109" s="6">
         <v>22</v>
       </c>
-      <c r="D109" s="7">
+      <c r="D109" s="6">
         <v>12</v>
       </c>
-      <c r="E109" s="7">
+      <c r="E109" s="6">
         <v>15</v>
       </c>
-      <c r="F109" s="7">
-        <v>18</v>
-      </c>
-      <c r="G109" s="7">
+      <c r="F109" s="6">
+        <v>18</v>
+      </c>
+      <c r="G109" s="6">
         <v>11</v>
       </c>
-      <c r="I109" s="7">
+      <c r="I109" s="6">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="J109" s="7">
+      <c r="J109" s="6">
         <f t="shared" si="6"/>
         <v>97.5</v>
       </c>
-      <c r="K109" s="7">
+      <c r="K109" s="6">
         <f t="shared" si="9"/>
         <v>26</v>
       </c>
-      <c r="L109" s="7">
+      <c r="L109" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M109" s="7">
+      <c r="M109" s="6">
         <f t="shared" si="8"/>
         <v>45</v>
       </c>
     </row>
-    <row r="110" spans="1:13" s="7" customFormat="1">
-      <c r="A110" s="6">
+    <row r="110" spans="1:13" s="6" customFormat="1">
+      <c r="A110" s="5">
         <v>41850</v>
       </c>
-      <c r="B110" s="7">
+      <c r="B110" s="6">
         <v>17</v>
       </c>
-      <c r="C110" s="7">
+      <c r="C110" s="6">
         <v>22</v>
       </c>
-      <c r="D110" s="7">
-        <v>10</v>
-      </c>
-      <c r="E110" s="7">
+      <c r="D110" s="6">
+        <v>10</v>
+      </c>
+      <c r="E110" s="6">
         <v>15</v>
       </c>
-      <c r="F110" s="7">
-        <v>18</v>
-      </c>
-      <c r="G110" s="7">
+      <c r="F110" s="6">
+        <v>18</v>
+      </c>
+      <c r="G110" s="6">
         <v>11</v>
       </c>
-      <c r="I110" s="7">
+      <c r="I110" s="6">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="J110" s="7">
+      <c r="J110" s="6">
         <f t="shared" si="6"/>
         <v>97.5</v>
       </c>
-      <c r="K110" s="7">
+      <c r="K110" s="6">
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
-      <c r="L110" s="7">
+      <c r="L110" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M110" s="7">
+      <c r="M110" s="6">
         <f t="shared" si="8"/>
         <v>45</v>
       </c>
     </row>
-    <row r="111" spans="1:13" s="7" customFormat="1">
-      <c r="A111" s="6">
+    <row r="111" spans="1:13" s="6" customFormat="1">
+      <c r="A111" s="5">
         <v>41851</v>
       </c>
-      <c r="B111" s="7">
+      <c r="B111" s="6">
         <v>17</v>
       </c>
-      <c r="C111" s="7">
+      <c r="C111" s="6">
         <v>23</v>
       </c>
-      <c r="D111" s="7">
+      <c r="D111" s="6">
         <v>15</v>
       </c>
-      <c r="E111" s="7">
+      <c r="E111" s="6">
         <v>15</v>
       </c>
-      <c r="F111" s="7">
-        <v>18</v>
-      </c>
-      <c r="G111" s="7">
+      <c r="F111" s="6">
+        <v>18</v>
+      </c>
+      <c r="G111" s="6">
         <v>11</v>
       </c>
-      <c r="I111" s="7">
+      <c r="I111" s="6">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="J111" s="7">
+      <c r="J111" s="6">
         <f t="shared" si="6"/>
         <v>97.5</v>
       </c>
-      <c r="K111" s="7">
+      <c r="K111" s="6">
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
-      <c r="L111" s="7">
+      <c r="L111" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M111" s="7">
+      <c r="M111" s="6">
         <f t="shared" si="8"/>
         <v>45</v>
       </c>
     </row>
-    <row r="112" spans="1:13" s="7" customFormat="1">
-      <c r="A112" s="6">
+    <row r="112" spans="1:13" s="6" customFormat="1">
+      <c r="A112" s="5">
         <v>41852</v>
       </c>
-      <c r="B112" s="7">
-        <v>18</v>
-      </c>
-      <c r="C112" s="7">
+      <c r="B112" s="6">
+        <v>18</v>
+      </c>
+      <c r="C112" s="6">
         <v>29</v>
       </c>
-      <c r="D112" s="7">
+      <c r="D112" s="6">
         <v>13</v>
       </c>
-      <c r="E112" s="7">
+      <c r="E112" s="6">
         <v>15</v>
       </c>
-      <c r="F112" s="7">
-        <v>18</v>
-      </c>
-      <c r="G112" s="7">
+      <c r="F112" s="6">
+        <v>18</v>
+      </c>
+      <c r="G112" s="6">
         <v>11</v>
       </c>
-      <c r="I112" s="7">
+      <c r="I112" s="6">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="J112" s="7">
+      <c r="J112" s="6">
         <f t="shared" si="6"/>
         <v>97.5</v>
       </c>
-      <c r="K112" s="7">
+      <c r="K112" s="6">
         <f t="shared" si="9"/>
         <v>19.5</v>
       </c>
-      <c r="L112" s="7">
+      <c r="L112" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M112" s="7">
+      <c r="M112" s="6">
         <f t="shared" si="8"/>
         <v>45</v>
       </c>
     </row>
-    <row r="113" spans="1:13" s="7" customFormat="1">
-      <c r="A113" s="6">
+    <row r="113" spans="1:13" s="6" customFormat="1">
+      <c r="A113" s="5">
         <v>41855</v>
       </c>
-      <c r="B113" s="7">
+      <c r="B113" s="6">
         <v>23</v>
       </c>
-      <c r="C113" s="7">
-        <v>20</v>
-      </c>
-      <c r="D113" s="7">
+      <c r="C113" s="6">
+        <v>20</v>
+      </c>
+      <c r="D113" s="6">
         <v>15</v>
       </c>
-      <c r="E113" s="7">
+      <c r="E113" s="6">
         <v>15</v>
       </c>
-      <c r="F113" s="7">
-        <v>18</v>
-      </c>
-      <c r="G113" s="7">
+      <c r="F113" s="6">
+        <v>18</v>
+      </c>
+      <c r="G113" s="6">
         <v>11</v>
       </c>
-      <c r="I113" s="7">
+      <c r="I113" s="6">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="J113" s="7">
+      <c r="J113" s="6">
         <f t="shared" si="6"/>
         <v>97.5</v>
       </c>
-      <c r="K113" s="7">
+      <c r="K113" s="6">
         <f t="shared" si="9"/>
         <v>52</v>
       </c>
-      <c r="L113" s="7">
+      <c r="L113" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M113" s="7">
+      <c r="M113" s="6">
         <f t="shared" si="8"/>
         <v>45</v>
       </c>
     </row>
-    <row r="114" spans="1:13" s="7" customFormat="1">
-      <c r="A114" s="6">
+    <row r="114" spans="1:13" s="6" customFormat="1">
+      <c r="A114" s="5">
         <v>41856</v>
       </c>
-      <c r="B114" s="7">
-        <v>18</v>
-      </c>
-      <c r="C114" s="7">
+      <c r="B114" s="6">
+        <v>18</v>
+      </c>
+      <c r="C114" s="6">
         <v>22</v>
       </c>
-      <c r="D114" s="7">
+      <c r="D114" s="6">
         <v>11</v>
       </c>
-      <c r="E114" s="7">
+      <c r="E114" s="6">
         <v>15</v>
       </c>
-      <c r="F114" s="7">
-        <v>18</v>
-      </c>
-      <c r="G114" s="7">
+      <c r="F114" s="6">
+        <v>18</v>
+      </c>
+      <c r="G114" s="6">
         <v>11</v>
       </c>
-      <c r="I114" s="7">
+      <c r="I114" s="6">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="J114" s="7">
+      <c r="J114" s="6">
         <f t="shared" si="6"/>
         <v>97.5</v>
       </c>
-      <c r="K114" s="7">
+      <c r="K114" s="6">
         <f t="shared" si="9"/>
         <v>19.5</v>
       </c>
-      <c r="L114" s="7">
+      <c r="L114" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M114" s="7">
+      <c r="M114" s="6">
         <f t="shared" si="8"/>
         <v>45</v>
       </c>
     </row>
-    <row r="115" spans="1:13" s="7" customFormat="1">
-      <c r="A115" s="6">
+    <row r="115" spans="1:13" s="6" customFormat="1">
+      <c r="A115" s="5">
         <v>41857</v>
       </c>
-      <c r="B115" s="7">
+      <c r="B115" s="6">
         <v>12</v>
       </c>
-      <c r="C115" s="7">
+      <c r="C115" s="6">
         <v>27</v>
       </c>
-      <c r="D115" s="7">
+      <c r="D115" s="6">
         <v>16</v>
       </c>
-      <c r="E115" s="7">
+      <c r="E115" s="6">
         <v>15</v>
       </c>
-      <c r="F115" s="7">
-        <v>18</v>
-      </c>
-      <c r="G115" s="7">
+      <c r="F115" s="6">
+        <v>18</v>
+      </c>
+      <c r="G115" s="6">
         <v>11</v>
       </c>
-      <c r="I115" s="7">
+      <c r="I115" s="6">
         <f t="shared" si="5"/>
         <v>-3</v>
       </c>
-      <c r="J115" s="7">
+      <c r="J115" s="6">
         <f t="shared" si="6"/>
         <v>78</v>
       </c>
-      <c r="K115" s="7">
+      <c r="K115" s="6">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L115" s="7">
+      <c r="L115" s="6">
         <f t="shared" si="7"/>
         <v>10.5</v>
       </c>
-      <c r="M115" s="7">
+      <c r="M115" s="6">
         <f t="shared" si="8"/>
         <v>36</v>
       </c>
     </row>
-    <row r="116" spans="1:13" s="7" customFormat="1">
-      <c r="A116" s="6">
+    <row r="116" spans="1:13" s="6" customFormat="1">
+      <c r="A116" s="5">
         <v>41858</v>
       </c>
-      <c r="B116" s="7">
+      <c r="B116" s="6">
         <v>16</v>
       </c>
-      <c r="C116" s="7">
+      <c r="C116" s="6">
         <v>26</v>
       </c>
-      <c r="D116" s="7">
+      <c r="D116" s="6">
         <v>13</v>
       </c>
-      <c r="E116" s="7">
+      <c r="E116" s="6">
         <v>15</v>
       </c>
-      <c r="F116" s="7">
-        <v>18</v>
-      </c>
-      <c r="G116" s="7">
+      <c r="F116" s="6">
+        <v>18</v>
+      </c>
+      <c r="G116" s="6">
         <v>11</v>
       </c>
-      <c r="I116" s="7">
+      <c r="I116" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="J116" s="7">
+      <c r="J116" s="6">
         <f t="shared" si="6"/>
         <v>97.5</v>
       </c>
-      <c r="K116" s="7">
+      <c r="K116" s="6">
         <f t="shared" si="9"/>
         <v>6.5</v>
       </c>
-      <c r="L116" s="7">
+      <c r="L116" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M116" s="7">
+      <c r="M116" s="6">
         <f t="shared" si="8"/>
         <v>45</v>
       </c>
     </row>
-    <row r="117" spans="1:13" s="7" customFormat="1">
-      <c r="A117" s="6">
+    <row r="117" spans="1:13" s="6" customFormat="1">
+      <c r="A117" s="5">
         <v>41859</v>
       </c>
-      <c r="B117" s="7">
+      <c r="B117" s="6">
         <v>12</v>
       </c>
-      <c r="C117" s="7">
+      <c r="C117" s="6">
         <v>27</v>
       </c>
-      <c r="D117" s="7">
+      <c r="D117" s="6">
         <v>13</v>
       </c>
-      <c r="E117" s="7">
+      <c r="E117" s="6">
         <v>15</v>
       </c>
-      <c r="F117" s="7">
-        <v>18</v>
-      </c>
-      <c r="G117" s="7">
+      <c r="F117" s="6">
+        <v>18</v>
+      </c>
+      <c r="G117" s="6">
         <v>11</v>
       </c>
-      <c r="I117" s="7">
+      <c r="I117" s="6">
         <f t="shared" si="5"/>
         <v>-3</v>
       </c>
-      <c r="J117" s="7">
+      <c r="J117" s="6">
         <f t="shared" si="6"/>
         <v>78</v>
       </c>
-      <c r="K117" s="7">
+      <c r="K117" s="6">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L117" s="7">
+      <c r="L117" s="6">
         <f t="shared" si="7"/>
         <v>10.5</v>
       </c>
-      <c r="M117" s="7">
+      <c r="M117" s="6">
         <f t="shared" si="8"/>
         <v>36</v>
       </c>
     </row>
-    <row r="118" spans="1:13" s="7" customFormat="1">
-      <c r="A118" s="6">
+    <row r="118" spans="1:13" s="6" customFormat="1">
+      <c r="A118" s="5">
         <v>41862</v>
       </c>
-      <c r="B118" s="7">
-        <v>20</v>
-      </c>
-      <c r="C118" s="7">
+      <c r="B118" s="6">
+        <v>20</v>
+      </c>
+      <c r="C118" s="6">
         <v>19</v>
       </c>
-      <c r="D118" s="7">
+      <c r="D118" s="6">
         <v>13</v>
       </c>
-      <c r="E118" s="7">
+      <c r="E118" s="6">
         <v>15</v>
       </c>
-      <c r="F118" s="7">
-        <v>18</v>
-      </c>
-      <c r="G118" s="7">
+      <c r="F118" s="6">
+        <v>18</v>
+      </c>
+      <c r="G118" s="6">
         <v>11</v>
       </c>
-      <c r="I118" s="7">
+      <c r="I118" s="6">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="J118" s="7">
+      <c r="J118" s="6">
         <f t="shared" si="6"/>
         <v>97.5</v>
       </c>
-      <c r="K118" s="7">
+      <c r="K118" s="6">
         <f t="shared" si="9"/>
         <v>32.5</v>
       </c>
-      <c r="L118" s="7">
+      <c r="L118" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M118" s="7">
+      <c r="M118" s="6">
         <f t="shared" si="8"/>
         <v>45</v>
       </c>
     </row>
-    <row r="119" spans="1:13" s="7" customFormat="1">
-      <c r="A119" s="6">
+    <row r="119" spans="1:13" s="6" customFormat="1">
+      <c r="A119" s="5">
         <v>41863</v>
       </c>
-      <c r="B119" s="7">
-        <v>20</v>
-      </c>
-      <c r="C119" s="7">
+      <c r="B119" s="6">
+        <v>20</v>
+      </c>
+      <c r="C119" s="6">
         <v>22</v>
       </c>
-      <c r="D119" s="7">
+      <c r="D119" s="6">
         <v>17</v>
       </c>
-      <c r="E119" s="7">
+      <c r="E119" s="6">
         <v>15</v>
       </c>
-      <c r="F119" s="7">
-        <v>18</v>
-      </c>
-      <c r="G119" s="7">
+      <c r="F119" s="6">
+        <v>18</v>
+      </c>
+      <c r="G119" s="6">
         <v>11</v>
       </c>
-      <c r="I119" s="7">
+      <c r="I119" s="6">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="J119" s="7">
+      <c r="J119" s="6">
         <f t="shared" si="6"/>
         <v>97.5</v>
       </c>
-      <c r="K119" s="7">
+      <c r="K119" s="6">
         <f t="shared" si="9"/>
         <v>32.5</v>
       </c>
-      <c r="L119" s="7">
+      <c r="L119" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M119" s="7">
+      <c r="M119" s="6">
         <f t="shared" si="8"/>
         <v>45</v>
       </c>
     </row>
-    <row r="120" spans="1:13" s="7" customFormat="1">
-      <c r="A120" s="6">
+    <row r="120" spans="1:13" s="6" customFormat="1">
+      <c r="A120" s="5">
         <v>41864</v>
       </c>
-      <c r="B120" s="7">
+      <c r="B120" s="6">
         <v>22</v>
       </c>
-      <c r="C120" s="7">
+      <c r="C120" s="6">
         <v>30</v>
       </c>
-      <c r="D120" s="7">
-        <v>20</v>
-      </c>
-      <c r="E120" s="7">
+      <c r="D120" s="6">
+        <v>20</v>
+      </c>
+      <c r="E120" s="6">
         <v>15</v>
       </c>
-      <c r="F120" s="7">
-        <v>18</v>
-      </c>
-      <c r="G120" s="7">
+      <c r="F120" s="6">
+        <v>18</v>
+      </c>
+      <c r="G120" s="6">
         <v>11</v>
       </c>
-      <c r="I120" s="7">
+      <c r="I120" s="6">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="J120" s="7">
+      <c r="J120" s="6">
         <f t="shared" si="6"/>
         <v>97.5</v>
       </c>
-      <c r="K120" s="7">
+      <c r="K120" s="6">
         <f t="shared" si="9"/>
         <v>45.5</v>
       </c>
-      <c r="L120" s="7">
+      <c r="L120" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M120" s="7">
+      <c r="M120" s="6">
         <f t="shared" si="8"/>
         <v>45</v>
       </c>
     </row>
-    <row r="121" spans="1:13" s="7" customFormat="1">
-      <c r="A121" s="6">
+    <row r="121" spans="1:13" s="6" customFormat="1">
+      <c r="A121" s="5">
         <v>41865</v>
       </c>
-      <c r="B121" s="7">
+      <c r="B121" s="6">
         <v>16</v>
       </c>
-      <c r="C121" s="7">
+      <c r="C121" s="6">
         <v>27</v>
       </c>
-      <c r="D121" s="7">
+      <c r="D121" s="6">
         <v>11</v>
       </c>
-      <c r="E121" s="7">
+      <c r="E121" s="6">
         <v>15</v>
       </c>
-      <c r="F121" s="7">
-        <v>18</v>
-      </c>
-      <c r="G121" s="7">
+      <c r="F121" s="6">
+        <v>18</v>
+      </c>
+      <c r="G121" s="6">
         <v>11</v>
       </c>
-      <c r="I121" s="7">
+      <c r="I121" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="J121" s="7">
+      <c r="J121" s="6">
         <f t="shared" si="6"/>
         <v>97.5</v>
       </c>
-      <c r="K121" s="7">
+      <c r="K121" s="6">
         <f t="shared" si="9"/>
         <v>6.5</v>
       </c>
-      <c r="L121" s="7">
+      <c r="L121" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M121" s="7">
+      <c r="M121" s="6">
         <f t="shared" si="8"/>
         <v>45</v>
       </c>
     </row>
-    <row r="122" spans="1:13" s="7" customFormat="1">
-      <c r="A122" s="6">
+    <row r="122" spans="1:13" s="6" customFormat="1">
+      <c r="A122" s="5">
         <v>41866</v>
       </c>
-      <c r="B122" s="7">
-        <v>14</v>
-      </c>
-      <c r="C122" s="7">
-        <v>18</v>
-      </c>
-      <c r="D122" s="7">
+      <c r="B122" s="6">
+        <v>14</v>
+      </c>
+      <c r="C122" s="6">
+        <v>18</v>
+      </c>
+      <c r="D122" s="6">
         <v>16</v>
       </c>
-      <c r="E122" s="7">
+      <c r="E122" s="6">
         <v>15</v>
       </c>
-      <c r="F122" s="7">
-        <v>18</v>
-      </c>
-      <c r="G122" s="7">
+      <c r="F122" s="6">
+        <v>18</v>
+      </c>
+      <c r="G122" s="6">
         <v>11</v>
       </c>
-      <c r="I122" s="7">
+      <c r="I122" s="6">
         <f t="shared" si="5"/>
         <v>-1</v>
       </c>
-      <c r="J122" s="7">
+      <c r="J122" s="6">
         <f t="shared" si="6"/>
         <v>91</v>
       </c>
-      <c r="K122" s="7">
+      <c r="K122" s="6">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L122" s="7">
+      <c r="L122" s="6">
         <f t="shared" si="7"/>
         <v>3.5</v>
       </c>
-      <c r="M122" s="7">
+      <c r="M122" s="6">
         <f t="shared" si="8"/>
         <v>42</v>
       </c>
     </row>
-    <row r="123" spans="1:13" s="7" customFormat="1">
-      <c r="A123" s="6">
+    <row r="123" spans="1:13" s="6" customFormat="1">
+      <c r="A123" s="5">
         <v>41869</v>
       </c>
-      <c r="B123" s="7">
+      <c r="B123" s="6">
         <v>16</v>
       </c>
-      <c r="C123" s="7">
+      <c r="C123" s="6">
         <v>19</v>
       </c>
-      <c r="D123" s="7">
+      <c r="D123" s="6">
         <v>11</v>
       </c>
-      <c r="E123" s="7">
+      <c r="E123" s="6">
         <v>15</v>
       </c>
-      <c r="F123" s="7">
-        <v>18</v>
-      </c>
-      <c r="G123" s="7">
+      <c r="F123" s="6">
+        <v>18</v>
+      </c>
+      <c r="G123" s="6">
         <v>11</v>
       </c>
-      <c r="I123" s="7">
+      <c r="I123" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="J123" s="7">
+      <c r="J123" s="6">
         <f t="shared" si="6"/>
         <v>97.5</v>
       </c>
-      <c r="K123" s="7">
+      <c r="K123" s="6">
         <f t="shared" si="9"/>
         <v>6.5</v>
       </c>
-      <c r="L123" s="7">
+      <c r="L123" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M123" s="7">
+      <c r="M123" s="6">
         <f t="shared" si="8"/>
         <v>45</v>
       </c>
     </row>
-    <row r="124" spans="1:13" s="7" customFormat="1">
-      <c r="A124" s="6">
+    <row r="124" spans="1:13" s="6" customFormat="1">
+      <c r="A124" s="5">
         <v>41870</v>
       </c>
-      <c r="B124" s="7">
+      <c r="B124" s="6">
         <v>25</v>
       </c>
-      <c r="C124" s="7">
+      <c r="C124" s="6">
         <v>17</v>
       </c>
-      <c r="D124" s="7">
-        <v>14</v>
-      </c>
-      <c r="E124" s="7">
+      <c r="D124" s="6">
+        <v>14</v>
+      </c>
+      <c r="E124" s="6">
         <v>15</v>
       </c>
-      <c r="F124" s="7">
-        <v>18</v>
-      </c>
-      <c r="G124" s="7">
+      <c r="F124" s="6">
+        <v>18</v>
+      </c>
+      <c r="G124" s="6">
         <v>11</v>
       </c>
-      <c r="I124" s="7">
+      <c r="I124" s="6">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="J124" s="7">
+      <c r="J124" s="6">
         <f t="shared" si="6"/>
         <v>97.5</v>
       </c>
-      <c r="K124" s="7">
+      <c r="K124" s="6">
         <f t="shared" si="9"/>
         <v>65</v>
       </c>
-      <c r="L124" s="7">
+      <c r="L124" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M124" s="7">
+      <c r="M124" s="6">
         <f t="shared" si="8"/>
         <v>45</v>
       </c>
     </row>
-    <row r="125" spans="1:13" s="7" customFormat="1">
-      <c r="A125" s="6">
+    <row r="125" spans="1:13" s="6" customFormat="1">
+      <c r="A125" s="5">
         <v>41871</v>
       </c>
-      <c r="B125" s="7">
+      <c r="B125" s="6">
         <v>23</v>
       </c>
-      <c r="C125" s="7">
-        <v>20</v>
-      </c>
-      <c r="D125" s="7">
+      <c r="C125" s="6">
+        <v>20</v>
+      </c>
+      <c r="D125" s="6">
         <v>11</v>
       </c>
-      <c r="E125" s="7">
+      <c r="E125" s="6">
         <v>15</v>
       </c>
-      <c r="F125" s="7">
-        <v>18</v>
-      </c>
-      <c r="G125" s="7">
+      <c r="F125" s="6">
+        <v>18</v>
+      </c>
+      <c r="G125" s="6">
         <v>11</v>
       </c>
-      <c r="I125" s="7">
+      <c r="I125" s="6">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="J125" s="7">
+      <c r="J125" s="6">
         <f t="shared" si="6"/>
         <v>97.5</v>
       </c>
-      <c r="K125" s="7">
+      <c r="K125" s="6">
         <f t="shared" si="9"/>
         <v>52</v>
       </c>
-      <c r="L125" s="7">
+      <c r="L125" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M125" s="7">
+      <c r="M125" s="6">
         <f t="shared" si="8"/>
         <v>45</v>
       </c>
     </row>
-    <row r="126" spans="1:13" s="7" customFormat="1">
-      <c r="A126" s="6">
+    <row r="126" spans="1:13" s="6" customFormat="1">
+      <c r="A126" s="5">
         <v>41872</v>
       </c>
-      <c r="B126" s="7">
-        <v>10</v>
-      </c>
-      <c r="C126" s="7">
+      <c r="B126" s="6">
+        <v>10</v>
+      </c>
+      <c r="C126" s="6">
         <v>15</v>
       </c>
-      <c r="D126" s="7">
+      <c r="D126" s="6">
         <v>9</v>
       </c>
-      <c r="E126" s="7">
+      <c r="E126" s="6">
         <v>15</v>
       </c>
-      <c r="F126" s="7">
-        <v>18</v>
-      </c>
-      <c r="G126" s="7">
+      <c r="F126" s="6">
+        <v>18</v>
+      </c>
+      <c r="G126" s="6">
         <v>11</v>
       </c>
-      <c r="I126" s="7">
+      <c r="I126" s="6">
         <f t="shared" si="5"/>
         <v>-5</v>
       </c>
-      <c r="J126" s="7">
+      <c r="J126" s="6">
         <f t="shared" si="6"/>
         <v>65</v>
       </c>
-      <c r="K126" s="7">
+      <c r="K126" s="6">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L126" s="7">
+      <c r="L126" s="6">
         <f t="shared" si="7"/>
         <v>17.5</v>
       </c>
-      <c r="M126" s="7">
+      <c r="M126" s="6">
         <f t="shared" si="8"/>
         <v>30</v>
       </c>
     </row>
-    <row r="127" spans="1:13" s="7" customFormat="1">
-      <c r="A127" s="6">
+    <row r="127" spans="1:13" s="6" customFormat="1">
+      <c r="A127" s="5">
         <v>41873</v>
       </c>
-      <c r="B127" s="7">
+      <c r="B127" s="6">
         <v>11</v>
       </c>
-      <c r="C127" s="7">
+      <c r="C127" s="6">
         <v>22</v>
       </c>
-      <c r="D127" s="7">
-        <v>10</v>
-      </c>
-      <c r="E127" s="7">
+      <c r="D127" s="6">
+        <v>10</v>
+      </c>
+      <c r="E127" s="6">
         <v>15</v>
       </c>
-      <c r="F127" s="7">
-        <v>18</v>
-      </c>
-      <c r="G127" s="7">
+      <c r="F127" s="6">
+        <v>18</v>
+      </c>
+      <c r="G127" s="6">
         <v>11</v>
       </c>
-      <c r="I127" s="7">
+      <c r="I127" s="6">
         <f t="shared" si="5"/>
         <v>-4</v>
       </c>
-      <c r="J127" s="7">
+      <c r="J127" s="6">
         <f t="shared" si="6"/>
         <v>71.5</v>
       </c>
-      <c r="K127" s="7">
+      <c r="K127" s="6">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L127" s="7">
+      <c r="L127" s="6">
         <f t="shared" si="7"/>
         <v>14</v>
       </c>
-      <c r="M127" s="7">
+      <c r="M127" s="6">
         <f t="shared" si="8"/>
         <v>33</v>
       </c>
     </row>
-    <row r="128" spans="1:13" s="7" customFormat="1">
-      <c r="A128" s="6">
+    <row r="128" spans="1:13" s="6" customFormat="1">
+      <c r="A128" s="5">
         <v>41876</v>
       </c>
-      <c r="B128" s="7">
+      <c r="B128" s="6">
         <v>25</v>
       </c>
-      <c r="C128" s="7">
+      <c r="C128" s="6">
         <v>27</v>
       </c>
-      <c r="D128" s="7">
+      <c r="D128" s="6">
         <v>19</v>
       </c>
-      <c r="E128" s="7">
+      <c r="E128" s="6">
         <v>15</v>
       </c>
-      <c r="F128" s="7">
-        <v>18</v>
-      </c>
-      <c r="G128" s="7">
+      <c r="F128" s="6">
+        <v>18</v>
+      </c>
+      <c r="G128" s="6">
         <v>11</v>
       </c>
-      <c r="I128" s="7">
+      <c r="I128" s="6">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="J128" s="7">
+      <c r="J128" s="6">
         <f t="shared" si="6"/>
         <v>97.5</v>
       </c>
-      <c r="K128" s="7">
+      <c r="K128" s="6">
         <f t="shared" si="9"/>
         <v>65</v>
       </c>
-      <c r="L128" s="7">
+      <c r="L128" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M128" s="7">
+      <c r="M128" s="6">
         <f t="shared" si="8"/>
         <v>45</v>
       </c>
     </row>
-    <row r="129" spans="1:13" s="7" customFormat="1">
-      <c r="A129" s="6">
+    <row r="129" spans="1:13" s="6" customFormat="1">
+      <c r="A129" s="5">
         <v>41877</v>
       </c>
-      <c r="B129" s="7">
+      <c r="B129" s="6">
         <v>6</v>
       </c>
-      <c r="C129" s="7">
+      <c r="C129" s="6">
         <v>31</v>
       </c>
-      <c r="D129" s="7">
+      <c r="D129" s="6">
         <v>13</v>
       </c>
-      <c r="E129" s="7">
+      <c r="E129" s="6">
         <v>15</v>
       </c>
-      <c r="F129" s="7">
-        <v>18</v>
-      </c>
-      <c r="G129" s="7">
+      <c r="F129" s="6">
+        <v>18</v>
+      </c>
+      <c r="G129" s="6">
         <v>11</v>
       </c>
-      <c r="I129" s="7">
+      <c r="I129" s="6">
         <f t="shared" si="5"/>
         <v>-9</v>
       </c>
-      <c r="J129" s="7">
+      <c r="J129" s="6">
         <f t="shared" si="6"/>
         <v>39</v>
       </c>
-      <c r="K129" s="7">
+      <c r="K129" s="6">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L129" s="7">
+      <c r="L129" s="6">
         <f t="shared" si="7"/>
         <v>31.5</v>
       </c>
-      <c r="M129" s="7">
+      <c r="M129" s="6">
         <f t="shared" si="8"/>
         <v>18</v>
       </c>
     </row>
-    <row r="130" spans="1:13" s="7" customFormat="1">
-      <c r="A130" s="6">
+    <row r="130" spans="1:13" s="6" customFormat="1">
+      <c r="A130" s="5">
         <v>41878</v>
       </c>
-      <c r="B130" s="7">
+      <c r="B130" s="6">
         <v>17</v>
       </c>
-      <c r="C130" s="7">
+      <c r="C130" s="6">
         <v>28</v>
       </c>
-      <c r="D130" s="7">
+      <c r="D130" s="6">
         <v>17</v>
       </c>
-      <c r="E130" s="7">
+      <c r="E130" s="6">
         <v>15</v>
       </c>
-      <c r="F130" s="7">
-        <v>18</v>
-      </c>
-      <c r="G130" s="7">
+      <c r="F130" s="6">
+        <v>18</v>
+      </c>
+      <c r="G130" s="6">
         <v>11</v>
       </c>
-      <c r="I130" s="7">
+      <c r="I130" s="6">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="J130" s="7">
+      <c r="J130" s="6">
         <f t="shared" si="6"/>
         <v>97.5</v>
       </c>
-      <c r="K130" s="7">
+      <c r="K130" s="6">
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
-      <c r="L130" s="7">
+      <c r="L130" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M130" s="7">
+      <c r="M130" s="6">
         <f t="shared" si="8"/>
         <v>45</v>
       </c>
     </row>
-    <row r="131" spans="1:13" s="7" customFormat="1">
-      <c r="A131" s="6">
+    <row r="131" spans="1:13" s="6" customFormat="1">
+      <c r="A131" s="5">
         <v>41879</v>
       </c>
-      <c r="B131" s="7">
+      <c r="B131" s="6">
         <v>11</v>
       </c>
-      <c r="C131" s="7">
+      <c r="C131" s="6">
         <v>25</v>
       </c>
-      <c r="D131" s="7">
-        <v>20</v>
-      </c>
-      <c r="E131" s="7">
+      <c r="D131" s="6">
+        <v>20</v>
+      </c>
+      <c r="E131" s="6">
         <v>15</v>
       </c>
-      <c r="F131" s="7">
-        <v>18</v>
-      </c>
-      <c r="G131" s="7">
+      <c r="F131" s="6">
+        <v>18</v>
+      </c>
+      <c r="G131" s="6">
         <v>11</v>
       </c>
-      <c r="I131" s="7">
+      <c r="I131" s="6">
         <f t="shared" si="5"/>
         <v>-4</v>
       </c>
-      <c r="J131" s="7">
+      <c r="J131" s="6">
         <f t="shared" si="6"/>
         <v>71.5</v>
       </c>
-      <c r="K131" s="7">
+      <c r="K131" s="6">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L131" s="7">
+      <c r="L131" s="6">
         <f t="shared" si="7"/>
         <v>14</v>
       </c>
-      <c r="M131" s="7">
+      <c r="M131" s="6">
         <f t="shared" si="8"/>
         <v>33</v>
       </c>
     </row>
-    <row r="132" spans="1:13" s="7" customFormat="1">
-      <c r="A132" s="6">
+    <row r="132" spans="1:13" s="6" customFormat="1">
+      <c r="A132" s="5">
         <v>41880</v>
       </c>
-      <c r="B132" s="7">
+      <c r="B132" s="6">
         <v>15</v>
       </c>
-      <c r="C132" s="7">
+      <c r="C132" s="6">
         <v>13</v>
       </c>
-      <c r="D132" s="7">
+      <c r="D132" s="6">
         <v>11</v>
       </c>
-      <c r="E132" s="7">
+      <c r="E132" s="6">
         <v>15</v>
       </c>
-      <c r="F132" s="7">
-        <v>18</v>
-      </c>
-      <c r="G132" s="7">
+      <c r="F132" s="6">
+        <v>18</v>
+      </c>
+      <c r="G132" s="6">
         <v>11</v>
       </c>
-      <c r="I132" s="7">
+      <c r="I132" s="6">
         <f t="shared" ref="I132" si="10">B132-E132</f>
         <v>0</v>
       </c>
-      <c r="J132" s="7">
+      <c r="J132" s="6">
         <f t="shared" ref="J132" si="11">IF(I132&lt;=0,B132*6.5,E132*6.5)</f>
         <v>97.5</v>
       </c>
-      <c r="K132" s="7">
+      <c r="K132" s="6">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L132" s="7">
+      <c r="L132" s="6">
         <f t="shared" ref="L132" si="12">IF(I132&gt;0,0,(E132-B132)*3.5)</f>
         <v>0</v>
       </c>
-      <c r="M132" s="7">
+      <c r="M132" s="6">
         <f t="shared" ref="M132" si="13">IF(I132&lt;=0,B132*3,E132*3)</f>
         <v>45</v>
       </c>
     </row>
-    <row r="133" spans="1:13" s="7" customFormat="1">
-      <c r="B133" s="7">
+    <row r="133" spans="1:13" s="6" customFormat="1">
+      <c r="B133" s="6">
         <f>AVERAGE(B3:B132)</f>
         <v>15.946153846153846</v>
       </c>
-      <c r="I133" s="7">
+      <c r="I133" s="6">
         <f>AVERAGE(I3:I132)</f>
         <v>0.17692307692307693</v>
       </c>
-      <c r="K133" s="7">
+      <c r="K133" s="6">
         <f>SUM(K3:K132)*(6.5)</f>
         <v>9506.25</v>
       </c>
-      <c r="L133" s="7">
+      <c r="L133" s="6">
         <f>SUM(L3:L132)*3.5</f>
         <v>2474.5</v>
       </c>
-      <c r="M133" s="7">
+      <c r="M133" s="6">
         <f>SUM(M3:M132)</f>
-        <v>5544</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" s="7" customFormat="1"/>
-    <row r="135" spans="1:13" s="7" customFormat="1"/>
-    <row r="136" spans="1:13" s="7" customFormat="1"/>
-    <row r="137" spans="1:13" s="7" customFormat="1"/>
-    <row r="138" spans="1:13" s="7" customFormat="1"/>
-    <row r="139" spans="1:13" s="7" customFormat="1"/>
-    <row r="140" spans="1:13" s="7" customFormat="1"/>
-    <row r="141" spans="1:13" s="7" customFormat="1"/>
-    <row r="142" spans="1:13" s="7" customFormat="1"/>
-    <row r="143" spans="1:13" s="7" customFormat="1"/>
-    <row r="144" spans="1:13" s="7" customFormat="1"/>
-    <row r="145" s="7" customFormat="1"/>
-    <row r="146" s="7" customFormat="1"/>
-    <row r="147" s="7" customFormat="1"/>
-    <row r="148" s="7" customFormat="1"/>
-    <row r="149" s="7" customFormat="1"/>
-    <row r="150" s="7" customFormat="1"/>
-    <row r="151" s="7" customFormat="1"/>
-    <row r="152" s="7" customFormat="1"/>
-    <row r="153" s="7" customFormat="1"/>
-    <row r="154" s="7" customFormat="1"/>
-    <row r="155" s="7" customFormat="1"/>
-    <row r="156" s="7" customFormat="1"/>
-    <row r="157" s="7" customFormat="1"/>
-    <row r="158" s="7" customFormat="1"/>
-    <row r="159" s="7" customFormat="1"/>
-    <row r="160" s="7" customFormat="1"/>
-    <row r="161" s="7" customFormat="1"/>
-    <row r="162" s="7" customFormat="1"/>
-    <row r="163" s="7" customFormat="1"/>
-    <row r="164" s="7" customFormat="1"/>
-    <row r="165" s="7" customFormat="1"/>
-    <row r="166" s="7" customFormat="1"/>
-    <row r="167" s="7" customFormat="1"/>
-    <row r="168" s="7" customFormat="1"/>
-    <row r="169" s="7" customFormat="1"/>
-    <row r="170" s="7" customFormat="1"/>
-    <row r="171" s="7" customFormat="1"/>
-    <row r="172" s="7" customFormat="1"/>
+        <v>5586</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" s="6" customFormat="1"/>
+    <row r="135" spans="1:13" s="6" customFormat="1"/>
+    <row r="136" spans="1:13" s="6" customFormat="1"/>
+    <row r="137" spans="1:13" s="6" customFormat="1"/>
+    <row r="138" spans="1:13" s="6" customFormat="1"/>
+    <row r="139" spans="1:13" s="6" customFormat="1"/>
+    <row r="140" spans="1:13" s="6" customFormat="1"/>
+    <row r="141" spans="1:13" s="6" customFormat="1"/>
+    <row r="142" spans="1:13" s="6" customFormat="1"/>
+    <row r="143" spans="1:13" s="6" customFormat="1"/>
+    <row r="144" spans="1:13" s="6" customFormat="1"/>
+    <row r="145" s="6" customFormat="1"/>
+    <row r="146" s="6" customFormat="1"/>
+    <row r="147" s="6" customFormat="1"/>
+    <row r="148" s="6" customFormat="1"/>
+    <row r="149" s="6" customFormat="1"/>
+    <row r="150" s="6" customFormat="1"/>
+    <row r="151" s="6" customFormat="1"/>
+    <row r="152" s="6" customFormat="1"/>
+    <row r="153" s="6" customFormat="1"/>
+    <row r="154" s="6" customFormat="1"/>
+    <row r="155" s="6" customFormat="1"/>
+    <row r="156" s="6" customFormat="1"/>
+    <row r="157" s="6" customFormat="1"/>
+    <row r="158" s="6" customFormat="1"/>
+    <row r="159" s="6" customFormat="1"/>
+    <row r="160" s="6" customFormat="1"/>
+    <row r="161" s="6" customFormat="1"/>
+    <row r="162" s="6" customFormat="1"/>
+    <row r="163" s="6" customFormat="1"/>
+    <row r="164" s="6" customFormat="1"/>
+    <row r="165" s="6" customFormat="1"/>
+    <row r="166" s="6" customFormat="1"/>
+    <row r="167" s="6" customFormat="1"/>
+    <row r="168" s="6" customFormat="1"/>
+    <row r="169" s="6" customFormat="1"/>
+    <row r="170" s="6" customFormat="1"/>
+    <row r="171" s="6" customFormat="1"/>
+    <row r="172" s="6" customFormat="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I1:M1"/>

--- a/inventory_balance_V2.xlsx
+++ b/inventory_balance_V2.xlsx
@@ -118,8 +118,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -135,9 +141,15 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -470,7 +482,7 @@
   <dimension ref="A1:N172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -573,8 +585,8 @@
         <v>3.5</v>
       </c>
       <c r="M3" s="2">
-        <f>IF(I3&lt;=0,(B3*6.5)-(E3-B3)*3.5,E3*3)</f>
-        <v>81</v>
+        <f>IF(J3&gt;=0,B3*3,F3*3-(F3-B3)*3.5)</f>
+        <v>39</v>
       </c>
       <c r="N3">
         <f>COUNTA(M3:M132)</f>
@@ -620,9 +632,9 @@
         <f t="shared" ref="L4:L67" si="2">IF(I4&gt;0,0,(E4-B4)*3.5)</f>
         <v>0</v>
       </c>
-      <c r="M4" s="4">
-        <f t="shared" ref="M4:M67" si="3">IF(I4&lt;=0,B4*3,E4*3)</f>
-        <v>42</v>
+      <c r="M4" s="2">
+        <f t="shared" ref="M4:M67" si="3">IF(J4&gt;=0,B4*3,F4*3-(F4-B4)*3.5)</f>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="6" customFormat="1">
@@ -663,7 +675,7 @@
         <f t="shared" si="2"/>
         <v>17.5</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="2">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
@@ -706,9 +718,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="2">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="6" customFormat="1">
@@ -749,9 +761,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="2">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="6" customFormat="1">
@@ -792,9 +804,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="2">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="6" customFormat="1">
@@ -835,7 +847,7 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="2">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
@@ -878,7 +890,7 @@
         <f t="shared" si="2"/>
         <v>17.5</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="2">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
@@ -921,9 +933,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="2">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="6" customFormat="1">
@@ -964,9 +976,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="2">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="6" customFormat="1">
@@ -1007,9 +1019,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="2">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="6" customFormat="1">
@@ -1050,9 +1062,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="2">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="6" customFormat="1">
@@ -1093,7 +1105,7 @@
         <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="2">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
@@ -1136,9 +1148,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="2">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:13" s="6" customFormat="1">
@@ -1179,9 +1191,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="2">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="6" customFormat="1">
@@ -1222,9 +1234,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="2">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="6" customFormat="1">
@@ -1265,7 +1277,7 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="2">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
@@ -1308,7 +1320,7 @@
         <f t="shared" si="2"/>
         <v>10.5</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="2">
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
@@ -1351,7 +1363,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="2">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
@@ -1394,7 +1406,7 @@
         <f t="shared" si="2"/>
         <v>10.5</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="2">
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
@@ -1437,7 +1449,7 @@
         <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
-      <c r="M23" s="6">
+      <c r="M23" s="2">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
@@ -1480,9 +1492,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M24" s="6">
+      <c r="M24" s="2">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="6" customFormat="1">
@@ -1523,7 +1535,7 @@
         <f t="shared" si="2"/>
         <v>10.5</v>
       </c>
-      <c r="M25" s="6">
+      <c r="M25" s="2">
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
@@ -1566,7 +1578,7 @@
         <f t="shared" si="2"/>
         <v>10.5</v>
       </c>
-      <c r="M26" s="6">
+      <c r="M26" s="2">
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
@@ -1609,7 +1621,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M27" s="6">
+      <c r="M27" s="2">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
@@ -1652,7 +1664,7 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="M28" s="6">
+      <c r="M28" s="2">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
@@ -1695,9 +1707,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M29" s="6">
+      <c r="M29" s="2">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:13" s="6" customFormat="1">
@@ -1738,9 +1750,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M30" s="6">
+      <c r="M30" s="2">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:13" s="6" customFormat="1">
@@ -1781,9 +1793,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M31" s="6">
+      <c r="M31" s="2">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:13" s="6" customFormat="1">
@@ -1824,9 +1836,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M32" s="6">
+      <c r="M32" s="2">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:13" s="6" customFormat="1">
@@ -1867,9 +1879,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M33" s="6">
+      <c r="M33" s="2">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:13" s="6" customFormat="1">
@@ -1910,9 +1922,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M34" s="6">
+      <c r="M34" s="2">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:13" s="6" customFormat="1">
@@ -1953,7 +1965,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M35" s="6">
+      <c r="M35" s="2">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
@@ -1996,7 +2008,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M36" s="6">
+      <c r="M36" s="2">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
@@ -2039,7 +2051,7 @@
         <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
-      <c r="M37" s="6">
+      <c r="M37" s="2">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
@@ -2082,9 +2094,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M38" s="6">
+      <c r="M38" s="2">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:13" s="6" customFormat="1">
@@ -2125,9 +2137,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M39" s="6">
+      <c r="M39" s="2">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:13" s="6" customFormat="1">
@@ -2168,9 +2180,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M40" s="6">
+      <c r="M40" s="2">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:13" s="6" customFormat="1">
@@ -2211,7 +2223,7 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="M41" s="6">
+      <c r="M41" s="2">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
@@ -2254,7 +2266,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M42" s="6">
+      <c r="M42" s="2">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
@@ -2297,7 +2309,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M43" s="6">
+      <c r="M43" s="2">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
@@ -2340,9 +2352,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M44" s="6">
+      <c r="M44" s="2">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:13" s="6" customFormat="1">
@@ -2383,9 +2395,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M45" s="6">
+      <c r="M45" s="2">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:13" s="6" customFormat="1">
@@ -2426,9 +2438,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M46" s="6">
+      <c r="M46" s="2">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:13" s="6" customFormat="1">
@@ -2469,9 +2481,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M47" s="6">
+      <c r="M47" s="2">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:13" s="6" customFormat="1">
@@ -2512,9 +2524,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M48" s="6">
+      <c r="M48" s="2">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:13" s="6" customFormat="1">
@@ -2555,9 +2567,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M49" s="6">
+      <c r="M49" s="2">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:13" s="6" customFormat="1">
@@ -2598,9 +2610,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M50" s="6">
+      <c r="M50" s="2">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:13" s="6" customFormat="1">
@@ -2641,9 +2653,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M51" s="6">
+      <c r="M51" s="2">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:13" s="6" customFormat="1">
@@ -2684,7 +2696,7 @@
         <f t="shared" si="2"/>
         <v>17.5</v>
       </c>
-      <c r="M52" s="6">
+      <c r="M52" s="2">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
@@ -2727,7 +2739,7 @@
         <f t="shared" si="2"/>
         <v>24.5</v>
       </c>
-      <c r="M53" s="6">
+      <c r="M53" s="2">
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
@@ -2770,7 +2782,7 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="M54" s="6">
+      <c r="M54" s="2">
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
@@ -2813,7 +2825,7 @@
         <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
-      <c r="M55" s="6">
+      <c r="M55" s="2">
         <f t="shared" si="3"/>
         <v>51</v>
       </c>
@@ -2856,7 +2868,7 @@
         <f t="shared" si="2"/>
         <v>17.5</v>
       </c>
-      <c r="M56" s="6">
+      <c r="M56" s="2">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
@@ -2899,9 +2911,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M57" s="6">
+      <c r="M57" s="2">
         <f t="shared" si="3"/>
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:13" s="6" customFormat="1">
@@ -2942,7 +2954,7 @@
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="M58" s="6">
+      <c r="M58" s="2">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
@@ -2985,7 +2997,7 @@
         <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
-      <c r="M59" s="6">
+      <c r="M59" s="2">
         <f t="shared" si="3"/>
         <v>51</v>
       </c>
@@ -3028,7 +3040,7 @@
         <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
-      <c r="M60" s="6">
+      <c r="M60" s="2">
         <f t="shared" si="3"/>
         <v>51</v>
       </c>
@@ -3071,7 +3083,7 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="M61" s="6">
+      <c r="M61" s="2">
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
@@ -3114,9 +3126,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M62" s="6">
+      <c r="M62" s="2">
         <f t="shared" si="3"/>
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="63" spans="1:13" s="6" customFormat="1">
@@ -3157,9 +3169,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M63" s="6">
+      <c r="M63" s="2">
         <f t="shared" si="3"/>
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64" spans="1:13" s="6" customFormat="1">
@@ -3200,7 +3212,7 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="M64" s="6">
+      <c r="M64" s="2">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
@@ -3243,7 +3255,7 @@
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="M65" s="6">
+      <c r="M65" s="2">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
@@ -3286,7 +3298,7 @@
         <f t="shared" si="2"/>
         <v>17.5</v>
       </c>
-      <c r="M66" s="6">
+      <c r="M66" s="2">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
@@ -3329,7 +3341,7 @@
         <f t="shared" si="2"/>
         <v>17.5</v>
       </c>
-      <c r="M67" s="6">
+      <c r="M67" s="2">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
@@ -3372,8 +3384,8 @@
         <f t="shared" ref="L68:L131" si="7">IF(I68&gt;0,0,(E68-B68)*3.5)</f>
         <v>10.5</v>
       </c>
-      <c r="M68" s="6">
-        <f t="shared" ref="M68:M131" si="8">IF(I68&lt;=0,B68*3,E68*3)</f>
+      <c r="M68" s="2">
+        <f t="shared" ref="M68:M131" si="8">IF(J68&gt;=0,B68*3,F68*3-(F68-B68)*3.5)</f>
         <v>45</v>
       </c>
     </row>
@@ -3415,7 +3427,7 @@
         <f t="shared" si="7"/>
         <v>17.5</v>
       </c>
-      <c r="M69" s="6">
+      <c r="M69" s="2">
         <f t="shared" si="8"/>
         <v>39</v>
       </c>
@@ -3458,7 +3470,7 @@
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="M70" s="6">
+      <c r="M70" s="2">
         <f t="shared" si="8"/>
         <v>48</v>
       </c>
@@ -3501,7 +3513,7 @@
         <f t="shared" si="7"/>
         <v>10.5</v>
       </c>
-      <c r="M71" s="6">
+      <c r="M71" s="2">
         <f t="shared" si="8"/>
         <v>45</v>
       </c>
@@ -3544,7 +3556,7 @@
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="M72" s="6">
+      <c r="M72" s="2">
         <f t="shared" si="8"/>
         <v>48</v>
       </c>
@@ -3587,7 +3599,7 @@
         <f t="shared" si="7"/>
         <v>3.5</v>
       </c>
-      <c r="M73" s="6">
+      <c r="M73" s="2">
         <f t="shared" si="8"/>
         <v>51</v>
       </c>
@@ -3630,7 +3642,7 @@
         <f t="shared" si="7"/>
         <v>14</v>
       </c>
-      <c r="M74" s="6">
+      <c r="M74" s="2">
         <f t="shared" si="8"/>
         <v>42</v>
       </c>
@@ -3673,7 +3685,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M75" s="6">
+      <c r="M75" s="2">
         <f t="shared" si="8"/>
         <v>54</v>
       </c>
@@ -3716,7 +3728,7 @@
         <f t="shared" si="7"/>
         <v>10.5</v>
       </c>
-      <c r="M76" s="6">
+      <c r="M76" s="2">
         <f t="shared" si="8"/>
         <v>45</v>
       </c>
@@ -3759,7 +3771,7 @@
         <f t="shared" si="7"/>
         <v>3.5</v>
       </c>
-      <c r="M77" s="6">
+      <c r="M77" s="2">
         <f t="shared" si="8"/>
         <v>51</v>
       </c>
@@ -3802,9 +3814,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M78" s="6">
+      <c r="M78" s="2">
         <f t="shared" si="8"/>
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79" spans="1:13" s="6" customFormat="1">
@@ -3845,7 +3857,7 @@
         <f t="shared" si="7"/>
         <v>3.5</v>
       </c>
-      <c r="M79" s="6">
+      <c r="M79" s="2">
         <f t="shared" si="8"/>
         <v>51</v>
       </c>
@@ -3888,7 +3900,7 @@
         <f t="shared" si="7"/>
         <v>14</v>
       </c>
-      <c r="M80" s="6">
+      <c r="M80" s="2">
         <f t="shared" si="8"/>
         <v>42</v>
       </c>
@@ -3931,9 +3943,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M81" s="6">
+      <c r="M81" s="2">
         <f t="shared" si="8"/>
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="82" spans="1:13" s="6" customFormat="1">
@@ -3974,9 +3986,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M82" s="6">
+      <c r="M82" s="2">
         <f t="shared" si="8"/>
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="83" spans="1:13" s="6" customFormat="1">
@@ -4017,7 +4029,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M83" s="6">
+      <c r="M83" s="2">
         <f t="shared" si="8"/>
         <v>54</v>
       </c>
@@ -4060,7 +4072,7 @@
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="M84" s="6">
+      <c r="M84" s="2">
         <f t="shared" si="8"/>
         <v>48</v>
       </c>
@@ -4103,7 +4115,7 @@
         <f t="shared" si="7"/>
         <v>17.5</v>
       </c>
-      <c r="M85" s="6">
+      <c r="M85" s="2">
         <f t="shared" si="8"/>
         <v>39</v>
       </c>
@@ -4146,9 +4158,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M86" s="6">
+      <c r="M86" s="2">
         <f t="shared" si="8"/>
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="87" spans="1:13" s="6" customFormat="1">
@@ -4189,7 +4201,7 @@
         <f t="shared" si="7"/>
         <v>14</v>
       </c>
-      <c r="M87" s="6">
+      <c r="M87" s="2">
         <f t="shared" si="8"/>
         <v>42</v>
       </c>
@@ -4232,7 +4244,7 @@
         <f t="shared" si="7"/>
         <v>3.5</v>
       </c>
-      <c r="M88" s="6">
+      <c r="M88" s="2">
         <f t="shared" si="8"/>
         <v>51</v>
       </c>
@@ -4275,7 +4287,7 @@
         <f t="shared" si="7"/>
         <v>10.5</v>
       </c>
-      <c r="M89" s="6">
+      <c r="M89" s="2">
         <f t="shared" si="8"/>
         <v>45</v>
       </c>
@@ -4318,7 +4330,7 @@
         <f t="shared" si="7"/>
         <v>3.5</v>
       </c>
-      <c r="M90" s="6">
+      <c r="M90" s="2">
         <f t="shared" si="8"/>
         <v>51</v>
       </c>
@@ -4361,7 +4373,7 @@
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="M91" s="6">
+      <c r="M91" s="2">
         <f t="shared" si="8"/>
         <v>48</v>
       </c>
@@ -4404,9 +4416,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M92" s="6">
+      <c r="M92" s="2">
         <f t="shared" si="8"/>
-        <v>54</v>
+        <v>69</v>
       </c>
     </row>
     <row r="93" spans="1:13" s="6" customFormat="1">
@@ -4447,7 +4459,7 @@
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="M93" s="6">
+      <c r="M93" s="2">
         <f t="shared" si="8"/>
         <v>48</v>
       </c>
@@ -4490,9 +4502,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M94" s="6">
+      <c r="M94" s="2">
         <f t="shared" si="8"/>
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="95" spans="1:13" s="6" customFormat="1">
@@ -4533,7 +4545,7 @@
         <f t="shared" si="7"/>
         <v>17.5</v>
       </c>
-      <c r="M95" s="6">
+      <c r="M95" s="2">
         <f t="shared" si="8"/>
         <v>39</v>
       </c>
@@ -4576,7 +4588,7 @@
         <f t="shared" si="7"/>
         <v>10.5</v>
       </c>
-      <c r="M96" s="6">
+      <c r="M96" s="2">
         <f t="shared" si="8"/>
         <v>45</v>
       </c>
@@ -4619,7 +4631,7 @@
         <f t="shared" si="7"/>
         <v>21</v>
       </c>
-      <c r="M97" s="6">
+      <c r="M97" s="2">
         <f t="shared" si="8"/>
         <v>36</v>
       </c>
@@ -4662,7 +4674,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M98" s="6">
+      <c r="M98" s="2">
         <f t="shared" si="8"/>
         <v>54</v>
       </c>
@@ -4705,7 +4717,7 @@
         <f t="shared" si="7"/>
         <v>10.5</v>
       </c>
-      <c r="M99" s="6">
+      <c r="M99" s="2">
         <f t="shared" si="8"/>
         <v>45</v>
       </c>
@@ -4748,9 +4760,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M100" s="6">
+      <c r="M100" s="2">
         <f t="shared" si="8"/>
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="101" spans="1:13" s="6" customFormat="1">
@@ -4791,9 +4803,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M101" s="6">
+      <c r="M101" s="2">
         <f t="shared" si="8"/>
-        <v>54</v>
+        <v>69</v>
       </c>
     </row>
     <row r="102" spans="1:13" s="6" customFormat="1">
@@ -4834,7 +4846,7 @@
         <f t="shared" si="7"/>
         <v>3.5</v>
       </c>
-      <c r="M102" s="6">
+      <c r="M102" s="2">
         <f t="shared" si="8"/>
         <v>51</v>
       </c>
@@ -4877,7 +4889,7 @@
         <f t="shared" si="7"/>
         <v>3.5</v>
       </c>
-      <c r="M103" s="6">
+      <c r="M103" s="2">
         <f t="shared" si="8"/>
         <v>42</v>
       </c>
@@ -4920,9 +4932,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M104" s="6">
+      <c r="M104" s="2">
         <f t="shared" si="8"/>
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="105" spans="1:13" s="6" customFormat="1">
@@ -4963,9 +4975,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M105" s="6">
+      <c r="M105" s="2">
         <f t="shared" si="8"/>
-        <v>45</v>
+        <v>63</v>
       </c>
     </row>
     <row r="106" spans="1:13" s="6" customFormat="1">
@@ -5006,7 +5018,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M106" s="6">
+      <c r="M106" s="2">
         <f t="shared" si="8"/>
         <v>45</v>
       </c>
@@ -5049,7 +5061,7 @@
         <f t="shared" si="7"/>
         <v>21</v>
       </c>
-      <c r="M107" s="6">
+      <c r="M107" s="2">
         <f t="shared" si="8"/>
         <v>27</v>
       </c>
@@ -5092,7 +5104,7 @@
         <f t="shared" si="7"/>
         <v>10.5</v>
       </c>
-      <c r="M108" s="6">
+      <c r="M108" s="2">
         <f t="shared" si="8"/>
         <v>36</v>
       </c>
@@ -5135,9 +5147,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M109" s="6">
+      <c r="M109" s="2">
         <f t="shared" si="8"/>
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="110" spans="1:13" s="6" customFormat="1">
@@ -5178,9 +5190,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M110" s="6">
+      <c r="M110" s="2">
         <f t="shared" si="8"/>
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="111" spans="1:13" s="6" customFormat="1">
@@ -5221,9 +5233,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M111" s="6">
+      <c r="M111" s="2">
         <f t="shared" si="8"/>
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="112" spans="1:13" s="6" customFormat="1">
@@ -5264,9 +5276,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M112" s="6">
+      <c r="M112" s="2">
         <f t="shared" si="8"/>
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="113" spans="1:13" s="6" customFormat="1">
@@ -5307,9 +5319,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M113" s="6">
+      <c r="M113" s="2">
         <f t="shared" si="8"/>
-        <v>45</v>
+        <v>69</v>
       </c>
     </row>
     <row r="114" spans="1:13" s="6" customFormat="1">
@@ -5350,9 +5362,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M114" s="6">
+      <c r="M114" s="2">
         <f t="shared" si="8"/>
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="115" spans="1:13" s="6" customFormat="1">
@@ -5393,7 +5405,7 @@
         <f t="shared" si="7"/>
         <v>10.5</v>
       </c>
-      <c r="M115" s="6">
+      <c r="M115" s="2">
         <f t="shared" si="8"/>
         <v>36</v>
       </c>
@@ -5436,9 +5448,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M116" s="6">
+      <c r="M116" s="2">
         <f t="shared" si="8"/>
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="117" spans="1:13" s="6" customFormat="1">
@@ -5479,7 +5491,7 @@
         <f t="shared" si="7"/>
         <v>10.5</v>
       </c>
-      <c r="M117" s="6">
+      <c r="M117" s="2">
         <f t="shared" si="8"/>
         <v>36</v>
       </c>
@@ -5522,9 +5534,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M118" s="6">
+      <c r="M118" s="2">
         <f t="shared" si="8"/>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="119" spans="1:13" s="6" customFormat="1">
@@ -5565,9 +5577,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M119" s="6">
+      <c r="M119" s="2">
         <f t="shared" si="8"/>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="120" spans="1:13" s="6" customFormat="1">
@@ -5608,9 +5620,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M120" s="6">
+      <c r="M120" s="2">
         <f t="shared" si="8"/>
-        <v>45</v>
+        <v>66</v>
       </c>
     </row>
     <row r="121" spans="1:13" s="6" customFormat="1">
@@ -5651,9 +5663,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M121" s="6">
+      <c r="M121" s="2">
         <f t="shared" si="8"/>
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="122" spans="1:13" s="6" customFormat="1">
@@ -5694,7 +5706,7 @@
         <f t="shared" si="7"/>
         <v>3.5</v>
       </c>
-      <c r="M122" s="6">
+      <c r="M122" s="2">
         <f t="shared" si="8"/>
         <v>42</v>
       </c>
@@ -5737,9 +5749,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M123" s="6">
+      <c r="M123" s="2">
         <f t="shared" si="8"/>
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="124" spans="1:13" s="6" customFormat="1">
@@ -5780,9 +5792,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M124" s="6">
+      <c r="M124" s="2">
         <f t="shared" si="8"/>
-        <v>45</v>
+        <v>75</v>
       </c>
     </row>
     <row r="125" spans="1:13" s="6" customFormat="1">
@@ -5823,9 +5835,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M125" s="6">
+      <c r="M125" s="2">
         <f t="shared" si="8"/>
-        <v>45</v>
+        <v>69</v>
       </c>
     </row>
     <row r="126" spans="1:13" s="6" customFormat="1">
@@ -5866,7 +5878,7 @@
         <f t="shared" si="7"/>
         <v>17.5</v>
       </c>
-      <c r="M126" s="6">
+      <c r="M126" s="2">
         <f t="shared" si="8"/>
         <v>30</v>
       </c>
@@ -5909,7 +5921,7 @@
         <f t="shared" si="7"/>
         <v>14</v>
       </c>
-      <c r="M127" s="6">
+      <c r="M127" s="2">
         <f t="shared" si="8"/>
         <v>33</v>
       </c>
@@ -5952,9 +5964,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M128" s="6">
+      <c r="M128" s="2">
         <f t="shared" si="8"/>
-        <v>45</v>
+        <v>75</v>
       </c>
     </row>
     <row r="129" spans="1:13" s="6" customFormat="1">
@@ -5995,7 +6007,7 @@
         <f t="shared" si="7"/>
         <v>31.5</v>
       </c>
-      <c r="M129" s="6">
+      <c r="M129" s="2">
         <f t="shared" si="8"/>
         <v>18</v>
       </c>
@@ -6038,9 +6050,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M130" s="6">
+      <c r="M130" s="2">
         <f t="shared" si="8"/>
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="131" spans="1:13" s="6" customFormat="1">
@@ -6081,7 +6093,7 @@
         <f t="shared" si="7"/>
         <v>14</v>
       </c>
-      <c r="M131" s="6">
+      <c r="M131" s="2">
         <f t="shared" si="8"/>
         <v>33</v>
       </c>
@@ -6124,8 +6136,8 @@
         <f t="shared" ref="L132" si="12">IF(I132&gt;0,0,(E132-B132)*3.5)</f>
         <v>0</v>
       </c>
-      <c r="M132" s="6">
-        <f t="shared" ref="M132" si="13">IF(I132&lt;=0,B132*3,E132*3)</f>
+      <c r="M132" s="2">
+        <f t="shared" ref="M132" si="13">IF(J132&gt;=0,B132*3,F132*3-(F132-B132)*3.5)</f>
         <v>45</v>
       </c>
     </row>
@@ -6148,7 +6160,7 @@
       </c>
       <c r="M133" s="6">
         <f>SUM(M3:M132)</f>
-        <v>5586</v>
+        <v>6219</v>
       </c>
     </row>
     <row r="134" spans="1:13" s="6" customFormat="1"/>

--- a/inventory_balance_V2.xlsx
+++ b/inventory_balance_V2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>date</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>"inventory loss"</t>
+  </si>
+  <si>
+    <t>SUM</t>
   </si>
 </sst>
 </file>
@@ -129,7 +132,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -138,6 +141,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -479,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N172"/>
+  <dimension ref="A1:O175"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="M132" sqref="M132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -495,9 +501,10 @@
     <col min="9" max="9" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.6640625" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="E1" s="6"/>
       <c r="I1" s="7" t="s">
         <v>9</v>
@@ -506,8 +513,9 @@
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
       <c r="M1" s="7"/>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="N1" s="8"/>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -545,7 +553,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>41701</v>
       </c>
@@ -585,15 +593,19 @@
         <v>3.5</v>
       </c>
       <c r="M3" s="2">
-        <f>IF(J3&gt;=0,B3*3,F3*3-(F3-B3)*3.5)</f>
-        <v>39</v>
-      </c>
-      <c r="N3">
-        <f>COUNTA(M3:M132)</f>
-        <v>130</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <f>IF(J3&lt;=0,B3*3,F3*3-(F3-B3)*3.5)</f>
+        <v>38.5</v>
+      </c>
+      <c r="N3" s="6">
+        <f>IF(I3=0,M3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <f>COUNTA(M3:M135)</f>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="3">
         <v>41702</v>
       </c>
@@ -633,11 +645,15 @@
         <v>0</v>
       </c>
       <c r="M4" s="2">
-        <f t="shared" ref="M4:M67" si="3">IF(J4&gt;=0,B4*3,F4*3-(F4-B4)*3.5)</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="6" customFormat="1">
+        <f t="shared" ref="M4:M67" si="3">IF(J4&lt;=0,B4*3,F4*3-(F4-B4)*3.5)</f>
+        <v>63</v>
+      </c>
+      <c r="N4" s="6">
+        <f t="shared" ref="N4:N67" si="4">IF(I4=0,M4,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="6" customFormat="1">
       <c r="A5" s="5">
         <v>41703</v>
       </c>
@@ -668,7 +684,7 @@
         <v>58.5</v>
       </c>
       <c r="K5" s="6">
-        <f t="shared" ref="K5:K68" si="4">IF(I5&lt;=0,0,(B5-E5)*6.5)</f>
+        <f t="shared" ref="K5:K68" si="5">IF(I5&lt;=0,0,(B5-E5)*6.5)</f>
         <v>0</v>
       </c>
       <c r="L5" s="6">
@@ -677,10 +693,14 @@
       </c>
       <c r="M5" s="2">
         <f t="shared" si="3"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" s="6" customFormat="1">
+        <v>24.5</v>
+      </c>
+      <c r="N5" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="6" customFormat="1">
       <c r="A6" s="5">
         <v>41704</v>
       </c>
@@ -711,7 +731,7 @@
         <v>91</v>
       </c>
       <c r="K6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="L6" s="6">
@@ -720,10 +740,14 @@
       </c>
       <c r="M6" s="2">
         <f t="shared" si="3"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="6" customFormat="1">
+        <v>49</v>
+      </c>
+      <c r="N6" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="6" customFormat="1">
       <c r="A7" s="5">
         <v>41705</v>
       </c>
@@ -754,7 +778,7 @@
         <v>91</v>
       </c>
       <c r="K7" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
       <c r="L7" s="6">
@@ -763,10 +787,14 @@
       </c>
       <c r="M7" s="2">
         <f t="shared" si="3"/>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="6" customFormat="1">
+        <v>70</v>
+      </c>
+      <c r="N7" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="6" customFormat="1">
       <c r="A8" s="5">
         <v>41708</v>
       </c>
@@ -797,7 +825,7 @@
         <v>91</v>
       </c>
       <c r="K8" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19.5</v>
       </c>
       <c r="L8" s="6">
@@ -806,10 +834,14 @@
       </c>
       <c r="M8" s="2">
         <f t="shared" si="3"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="6" customFormat="1">
+        <v>52.5</v>
+      </c>
+      <c r="N8" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="6" customFormat="1">
       <c r="A9" s="5">
         <v>41709</v>
       </c>
@@ -840,7 +872,7 @@
         <v>65</v>
       </c>
       <c r="K9" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L9" s="6">
@@ -849,10 +881,14 @@
       </c>
       <c r="M9" s="2">
         <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" s="6" customFormat="1">
+        <v>28</v>
+      </c>
+      <c r="N9" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="6" customFormat="1">
       <c r="A10" s="5">
         <v>41710</v>
       </c>
@@ -883,7 +919,7 @@
         <v>58.5</v>
       </c>
       <c r="K10" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L10" s="6">
@@ -892,10 +928,14 @@
       </c>
       <c r="M10" s="2">
         <f t="shared" si="3"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" s="6" customFormat="1">
+        <v>24.5</v>
+      </c>
+      <c r="N10" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="6" customFormat="1">
       <c r="A11" s="5">
         <v>41711</v>
       </c>
@@ -926,7 +966,7 @@
         <v>91</v>
       </c>
       <c r="K11" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>39</v>
       </c>
       <c r="L11" s="6">
@@ -935,10 +975,14 @@
       </c>
       <c r="M11" s="2">
         <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" s="6" customFormat="1">
+        <v>63</v>
+      </c>
+      <c r="N11" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="6" customFormat="1">
       <c r="A12" s="5">
         <v>41712</v>
       </c>
@@ -969,7 +1013,7 @@
         <v>91</v>
       </c>
       <c r="K12" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19.5</v>
       </c>
       <c r="L12" s="6">
@@ -978,10 +1022,14 @@
       </c>
       <c r="M12" s="2">
         <f t="shared" si="3"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" s="6" customFormat="1">
+        <v>52.5</v>
+      </c>
+      <c r="N12" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="6" customFormat="1">
       <c r="A13" s="5">
         <v>41715</v>
       </c>
@@ -1012,7 +1060,7 @@
         <v>91</v>
       </c>
       <c r="K13" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19.5</v>
       </c>
       <c r="L13" s="6">
@@ -1021,10 +1069,14 @@
       </c>
       <c r="M13" s="2">
         <f t="shared" si="3"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" s="6" customFormat="1">
+        <v>52.5</v>
+      </c>
+      <c r="N13" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="6" customFormat="1">
       <c r="A14" s="5">
         <v>41716</v>
       </c>
@@ -1055,7 +1107,7 @@
         <v>91</v>
       </c>
       <c r="K14" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="L14" s="6">
@@ -1064,10 +1116,14 @@
       </c>
       <c r="M14" s="2">
         <f t="shared" si="3"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" s="6" customFormat="1">
+        <v>49</v>
+      </c>
+      <c r="N14" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="6" customFormat="1">
       <c r="A15" s="5">
         <v>41717</v>
       </c>
@@ -1098,7 +1154,7 @@
         <v>84.5</v>
       </c>
       <c r="K15" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L15" s="6">
@@ -1107,10 +1163,14 @@
       </c>
       <c r="M15" s="2">
         <f t="shared" si="3"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" s="6" customFormat="1">
+        <v>38.5</v>
+      </c>
+      <c r="N15" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="6" customFormat="1">
       <c r="A16" s="5">
         <v>41718</v>
       </c>
@@ -1141,7 +1201,7 @@
         <v>91</v>
       </c>
       <c r="K16" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45.5</v>
       </c>
       <c r="L16" s="6">
@@ -1150,10 +1210,14 @@
       </c>
       <c r="M16" s="2">
         <f t="shared" si="3"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" s="6" customFormat="1">
+        <v>66.5</v>
+      </c>
+      <c r="N16" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="6" customFormat="1">
       <c r="A17" s="5">
         <v>41719</v>
       </c>
@@ -1184,7 +1248,7 @@
         <v>91</v>
       </c>
       <c r="K17" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32.5</v>
       </c>
       <c r="L17" s="6">
@@ -1193,10 +1257,14 @@
       </c>
       <c r="M17" s="2">
         <f t="shared" si="3"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" s="6" customFormat="1">
+        <v>59.5</v>
+      </c>
+      <c r="N17" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="6" customFormat="1">
       <c r="A18" s="5">
         <v>41722</v>
       </c>
@@ -1227,7 +1295,7 @@
         <v>91</v>
       </c>
       <c r="K18" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.5</v>
       </c>
       <c r="L18" s="6">
@@ -1236,10 +1304,14 @@
       </c>
       <c r="M18" s="2">
         <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" s="6" customFormat="1">
+        <v>45.5</v>
+      </c>
+      <c r="N18" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="6" customFormat="1">
       <c r="A19" s="5">
         <v>41723</v>
       </c>
@@ -1270,7 +1342,7 @@
         <v>78</v>
       </c>
       <c r="K19" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L19" s="6">
@@ -1279,10 +1351,14 @@
       </c>
       <c r="M19" s="2">
         <f t="shared" si="3"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" s="6" customFormat="1">
+        <v>35</v>
+      </c>
+      <c r="N19" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="6" customFormat="1">
       <c r="A20" s="5">
         <v>41724</v>
       </c>
@@ -1313,7 +1389,7 @@
         <v>71.5</v>
       </c>
       <c r="K20" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L20" s="6">
@@ -1322,10 +1398,14 @@
       </c>
       <c r="M20" s="2">
         <f t="shared" si="3"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" s="6" customFormat="1">
+        <v>31.5</v>
+      </c>
+      <c r="N20" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="6" customFormat="1">
       <c r="A21" s="5">
         <v>41725</v>
       </c>
@@ -1356,7 +1436,7 @@
         <v>91</v>
       </c>
       <c r="K21" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L21" s="6">
@@ -1367,8 +1447,12 @@
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" s="6" customFormat="1">
+      <c r="N21" s="6">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="6" customFormat="1">
       <c r="A22" s="5">
         <v>41726</v>
       </c>
@@ -1399,7 +1483,7 @@
         <v>71.5</v>
       </c>
       <c r="K22" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L22" s="6">
@@ -1408,10 +1492,14 @@
       </c>
       <c r="M22" s="2">
         <f t="shared" si="3"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" s="6" customFormat="1">
+        <v>31.5</v>
+      </c>
+      <c r="N22" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="6" customFormat="1">
       <c r="A23" s="5">
         <v>41729</v>
       </c>
@@ -1442,7 +1530,7 @@
         <v>84.5</v>
       </c>
       <c r="K23" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L23" s="6">
@@ -1451,10 +1539,14 @@
       </c>
       <c r="M23" s="2">
         <f t="shared" si="3"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" s="6" customFormat="1">
+        <v>38.5</v>
+      </c>
+      <c r="N23" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="6" customFormat="1">
       <c r="A24" s="5">
         <v>41730</v>
       </c>
@@ -1485,7 +1577,7 @@
         <v>91</v>
       </c>
       <c r="K24" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.5</v>
       </c>
       <c r="L24" s="6">
@@ -1494,10 +1586,14 @@
       </c>
       <c r="M24" s="2">
         <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" s="6" customFormat="1">
+        <v>45.5</v>
+      </c>
+      <c r="N24" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" s="6" customFormat="1">
       <c r="A25" s="5">
         <v>41731</v>
       </c>
@@ -1528,7 +1624,7 @@
         <v>71.5</v>
       </c>
       <c r="K25" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L25" s="6">
@@ -1537,10 +1633,14 @@
       </c>
       <c r="M25" s="2">
         <f t="shared" si="3"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" s="6" customFormat="1">
+        <v>31.5</v>
+      </c>
+      <c r="N25" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="6" customFormat="1">
       <c r="A26" s="5">
         <v>41732</v>
       </c>
@@ -1571,7 +1671,7 @@
         <v>71.5</v>
       </c>
       <c r="K26" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L26" s="6">
@@ -1580,10 +1680,14 @@
       </c>
       <c r="M26" s="2">
         <f t="shared" si="3"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" s="6" customFormat="1">
+        <v>31.5</v>
+      </c>
+      <c r="N26" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" s="6" customFormat="1">
       <c r="A27" s="5">
         <v>41733</v>
       </c>
@@ -1614,7 +1718,7 @@
         <v>91</v>
       </c>
       <c r="K27" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L27" s="6">
@@ -1625,8 +1729,12 @@
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" s="6" customFormat="1">
+      <c r="N27" s="6">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" s="6" customFormat="1">
       <c r="A28" s="5">
         <v>41736</v>
       </c>
@@ -1657,7 +1765,7 @@
         <v>65</v>
       </c>
       <c r="K28" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L28" s="6">
@@ -1666,10 +1774,14 @@
       </c>
       <c r="M28" s="2">
         <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" s="6" customFormat="1">
+        <v>28</v>
+      </c>
+      <c r="N28" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" s="6" customFormat="1">
       <c r="A29" s="5">
         <v>41737</v>
       </c>
@@ -1700,7 +1812,7 @@
         <v>91</v>
       </c>
       <c r="K29" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32.5</v>
       </c>
       <c r="L29" s="6">
@@ -1709,10 +1821,14 @@
       </c>
       <c r="M29" s="2">
         <f t="shared" si="3"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" s="6" customFormat="1">
+        <v>59.5</v>
+      </c>
+      <c r="N29" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" s="6" customFormat="1">
       <c r="A30" s="5">
         <v>41738</v>
       </c>
@@ -1743,7 +1859,7 @@
         <v>91</v>
       </c>
       <c r="K30" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32.5</v>
       </c>
       <c r="L30" s="6">
@@ -1752,10 +1868,14 @@
       </c>
       <c r="M30" s="2">
         <f t="shared" si="3"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" s="6" customFormat="1">
+        <v>59.5</v>
+      </c>
+      <c r="N30" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" s="6" customFormat="1">
       <c r="A31" s="5">
         <v>41739</v>
       </c>
@@ -1786,7 +1906,7 @@
         <v>91</v>
       </c>
       <c r="K31" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32.5</v>
       </c>
       <c r="L31" s="6">
@@ -1795,10 +1915,14 @@
       </c>
       <c r="M31" s="2">
         <f t="shared" si="3"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" s="6" customFormat="1">
+        <v>59.5</v>
+      </c>
+      <c r="N31" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" s="6" customFormat="1">
       <c r="A32" s="5">
         <v>41740</v>
       </c>
@@ -1829,7 +1953,7 @@
         <v>91</v>
       </c>
       <c r="K32" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="L32" s="6">
@@ -1838,10 +1962,14 @@
       </c>
       <c r="M32" s="2">
         <f t="shared" si="3"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" s="6" customFormat="1">
+        <v>56</v>
+      </c>
+      <c r="N32" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" s="6" customFormat="1">
       <c r="A33" s="5">
         <v>41743</v>
       </c>
@@ -1872,7 +2000,7 @@
         <v>91</v>
       </c>
       <c r="K33" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="L33" s="6">
@@ -1881,10 +2009,14 @@
       </c>
       <c r="M33" s="2">
         <f t="shared" si="3"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" s="6" customFormat="1">
+        <v>56</v>
+      </c>
+      <c r="N33" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" s="6" customFormat="1">
       <c r="A34" s="5">
         <v>41744</v>
       </c>
@@ -1915,7 +2047,7 @@
         <v>91</v>
       </c>
       <c r="K34" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.5</v>
       </c>
       <c r="L34" s="6">
@@ -1924,10 +2056,14 @@
       </c>
       <c r="M34" s="2">
         <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" s="6" customFormat="1">
+        <v>45.5</v>
+      </c>
+      <c r="N34" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" s="6" customFormat="1">
       <c r="A35" s="5">
         <v>41745</v>
       </c>
@@ -1958,7 +2094,7 @@
         <v>91</v>
       </c>
       <c r="K35" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L35" s="6">
@@ -1969,8 +2105,12 @@
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" s="6" customFormat="1">
+      <c r="N35" s="6">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" s="6" customFormat="1">
       <c r="A36" s="5">
         <v>41746</v>
       </c>
@@ -2001,7 +2141,7 @@
         <v>91</v>
       </c>
       <c r="K36" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L36" s="6">
@@ -2012,8 +2152,12 @@
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" s="6" customFormat="1">
+      <c r="N36" s="6">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" s="6" customFormat="1">
       <c r="A37" s="5">
         <v>41747</v>
       </c>
@@ -2044,7 +2188,7 @@
         <v>84.5</v>
       </c>
       <c r="K37" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L37" s="6">
@@ -2053,10 +2197,14 @@
       </c>
       <c r="M37" s="2">
         <f t="shared" si="3"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" s="6" customFormat="1">
+        <v>38.5</v>
+      </c>
+      <c r="N37" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" s="6" customFormat="1">
       <c r="A38" s="5">
         <v>41750</v>
       </c>
@@ -2087,7 +2235,7 @@
         <v>91</v>
       </c>
       <c r="K38" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32.5</v>
       </c>
       <c r="L38" s="6">
@@ -2096,10 +2244,14 @@
       </c>
       <c r="M38" s="2">
         <f t="shared" si="3"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" s="6" customFormat="1">
+        <v>59.5</v>
+      </c>
+      <c r="N38" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" s="6" customFormat="1">
       <c r="A39" s="5">
         <v>41751</v>
       </c>
@@ -2130,7 +2282,7 @@
         <v>91</v>
       </c>
       <c r="K39" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.5</v>
       </c>
       <c r="L39" s="6">
@@ -2139,10 +2291,14 @@
       </c>
       <c r="M39" s="2">
         <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" s="6" customFormat="1">
+        <v>45.5</v>
+      </c>
+      <c r="N39" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" s="6" customFormat="1">
       <c r="A40" s="5">
         <v>41752</v>
       </c>
@@ -2173,7 +2329,7 @@
         <v>91</v>
       </c>
       <c r="K40" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>39</v>
       </c>
       <c r="L40" s="6">
@@ -2182,10 +2338,14 @@
       </c>
       <c r="M40" s="2">
         <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" s="6" customFormat="1">
+        <v>63</v>
+      </c>
+      <c r="N40" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" s="6" customFormat="1">
       <c r="A41" s="5">
         <v>41753</v>
       </c>
@@ -2216,7 +2376,7 @@
         <v>78</v>
       </c>
       <c r="K41" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L41" s="6">
@@ -2225,10 +2385,14 @@
       </c>
       <c r="M41" s="2">
         <f t="shared" si="3"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" s="6" customFormat="1">
+        <v>35</v>
+      </c>
+      <c r="N41" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" s="6" customFormat="1">
       <c r="A42" s="5">
         <v>41754</v>
       </c>
@@ -2259,7 +2423,7 @@
         <v>91</v>
       </c>
       <c r="K42" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L42" s="6">
@@ -2270,8 +2434,12 @@
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" s="6" customFormat="1">
+      <c r="N42" s="6">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" s="6" customFormat="1">
       <c r="A43" s="5">
         <v>41757</v>
       </c>
@@ -2302,7 +2470,7 @@
         <v>91</v>
       </c>
       <c r="K43" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L43" s="6">
@@ -2313,8 +2481,12 @@
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" s="6" customFormat="1">
+      <c r="N43" s="6">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" s="6" customFormat="1">
       <c r="A44" s="5">
         <v>41758</v>
       </c>
@@ -2345,7 +2517,7 @@
         <v>91</v>
       </c>
       <c r="K44" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32.5</v>
       </c>
       <c r="L44" s="6">
@@ -2354,10 +2526,14 @@
       </c>
       <c r="M44" s="2">
         <f t="shared" si="3"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" s="6" customFormat="1">
+        <v>59.5</v>
+      </c>
+      <c r="N44" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" s="6" customFormat="1">
       <c r="A45" s="5">
         <v>41759</v>
       </c>
@@ -2388,7 +2564,7 @@
         <v>91</v>
       </c>
       <c r="K45" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.5</v>
       </c>
       <c r="L45" s="6">
@@ -2397,10 +2573,14 @@
       </c>
       <c r="M45" s="2">
         <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" s="6" customFormat="1">
+        <v>45.5</v>
+      </c>
+      <c r="N45" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" s="6" customFormat="1">
       <c r="A46" s="5">
         <v>41760</v>
       </c>
@@ -2431,7 +2611,7 @@
         <v>91</v>
       </c>
       <c r="K46" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19.5</v>
       </c>
       <c r="L46" s="6">
@@ -2440,10 +2620,14 @@
       </c>
       <c r="M46" s="2">
         <f t="shared" si="3"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" s="6" customFormat="1">
+        <v>52.5</v>
+      </c>
+      <c r="N46" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" s="6" customFormat="1">
       <c r="A47" s="5">
         <v>41761</v>
       </c>
@@ -2474,7 +2658,7 @@
         <v>91</v>
       </c>
       <c r="K47" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.5</v>
       </c>
       <c r="L47" s="6">
@@ -2483,10 +2667,14 @@
       </c>
       <c r="M47" s="2">
         <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" s="6" customFormat="1">
+        <v>45.5</v>
+      </c>
+      <c r="N47" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" s="6" customFormat="1">
       <c r="A48" s="5">
         <v>41764</v>
       </c>
@@ -2517,7 +2705,7 @@
         <v>91</v>
       </c>
       <c r="K48" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.5</v>
       </c>
       <c r="L48" s="6">
@@ -2526,10 +2714,14 @@
       </c>
       <c r="M48" s="2">
         <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" s="6" customFormat="1">
+        <v>45.5</v>
+      </c>
+      <c r="N48" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" s="6" customFormat="1">
       <c r="A49" s="5">
         <v>41765</v>
       </c>
@@ -2560,7 +2752,7 @@
         <v>91</v>
       </c>
       <c r="K49" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45.5</v>
       </c>
       <c r="L49" s="6">
@@ -2569,10 +2761,14 @@
       </c>
       <c r="M49" s="2">
         <f t="shared" si="3"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" s="6" customFormat="1">
+        <v>66.5</v>
+      </c>
+      <c r="N49" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" s="6" customFormat="1">
       <c r="A50" s="5">
         <v>41766</v>
       </c>
@@ -2603,7 +2799,7 @@
         <v>91</v>
       </c>
       <c r="K50" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.5</v>
       </c>
       <c r="L50" s="6">
@@ -2612,10 +2808,14 @@
       </c>
       <c r="M50" s="2">
         <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" s="6" customFormat="1">
+        <v>45.5</v>
+      </c>
+      <c r="N50" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" s="6" customFormat="1">
       <c r="A51" s="5">
         <v>41767</v>
       </c>
@@ -2646,7 +2846,7 @@
         <v>91</v>
       </c>
       <c r="K51" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
       <c r="L51" s="6">
@@ -2655,10 +2855,14 @@
       </c>
       <c r="M51" s="2">
         <f t="shared" si="3"/>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" s="6" customFormat="1">
+        <v>70</v>
+      </c>
+      <c r="N51" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" s="6" customFormat="1">
       <c r="A52" s="5">
         <v>41768</v>
       </c>
@@ -2689,7 +2893,7 @@
         <v>58.5</v>
       </c>
       <c r="K52" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L52" s="6">
@@ -2698,10 +2902,14 @@
       </c>
       <c r="M52" s="2">
         <f t="shared" si="3"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" s="6" customFormat="1">
+        <v>24.5</v>
+      </c>
+      <c r="N52" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" s="6" customFormat="1">
       <c r="A53" s="5">
         <v>41771</v>
       </c>
@@ -2732,7 +2940,7 @@
         <v>71.5</v>
       </c>
       <c r="K53" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L53" s="6">
@@ -2741,10 +2949,14 @@
       </c>
       <c r="M53" s="2">
         <f t="shared" si="3"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" s="6" customFormat="1">
+        <v>28.5</v>
+      </c>
+      <c r="N53" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" s="6" customFormat="1">
       <c r="A54" s="5">
         <v>41772</v>
       </c>
@@ -2775,7 +2987,7 @@
         <v>104</v>
       </c>
       <c r="K54" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L54" s="6">
@@ -2784,10 +2996,14 @@
       </c>
       <c r="M54" s="2">
         <f t="shared" si="3"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" s="6" customFormat="1">
+        <v>46</v>
+      </c>
+      <c r="N54" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" s="6" customFormat="1">
       <c r="A55" s="5">
         <v>41773</v>
       </c>
@@ -2818,7 +3034,7 @@
         <v>110.5</v>
       </c>
       <c r="K55" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L55" s="6">
@@ -2827,10 +3043,14 @@
       </c>
       <c r="M55" s="2">
         <f t="shared" si="3"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" s="6" customFormat="1">
+        <v>49.5</v>
+      </c>
+      <c r="N55" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" s="6" customFormat="1">
       <c r="A56" s="5">
         <v>41774</v>
       </c>
@@ -2861,7 +3081,7 @@
         <v>84.5</v>
       </c>
       <c r="K56" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L56" s="6">
@@ -2870,10 +3090,14 @@
       </c>
       <c r="M56" s="2">
         <f t="shared" si="3"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" s="6" customFormat="1">
+        <v>35.5</v>
+      </c>
+      <c r="N56" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" s="6" customFormat="1">
       <c r="A57" s="5">
         <v>41775</v>
       </c>
@@ -2904,7 +3128,7 @@
         <v>117</v>
       </c>
       <c r="K57" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>39</v>
       </c>
       <c r="L57" s="6">
@@ -2913,10 +3137,14 @@
       </c>
       <c r="M57" s="2">
         <f t="shared" si="3"/>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" s="6" customFormat="1">
+        <v>74</v>
+      </c>
+      <c r="N57" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" s="6" customFormat="1">
       <c r="A58" s="5">
         <v>41778</v>
       </c>
@@ -2947,7 +3175,7 @@
         <v>65</v>
       </c>
       <c r="K58" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L58" s="6">
@@ -2956,10 +3184,14 @@
       </c>
       <c r="M58" s="2">
         <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" s="6" customFormat="1">
+        <v>25</v>
+      </c>
+      <c r="N58" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" s="6" customFormat="1">
       <c r="A59" s="5">
         <v>41779</v>
       </c>
@@ -2990,7 +3222,7 @@
         <v>110.5</v>
       </c>
       <c r="K59" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L59" s="6">
@@ -2999,10 +3231,14 @@
       </c>
       <c r="M59" s="2">
         <f t="shared" si="3"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" s="6" customFormat="1">
+        <v>49.5</v>
+      </c>
+      <c r="N59" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" s="6" customFormat="1">
       <c r="A60" s="5">
         <v>41780</v>
       </c>
@@ -3033,7 +3269,7 @@
         <v>110.5</v>
       </c>
       <c r="K60" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L60" s="6">
@@ -3042,10 +3278,14 @@
       </c>
       <c r="M60" s="2">
         <f t="shared" si="3"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" s="6" customFormat="1">
+        <v>49.5</v>
+      </c>
+      <c r="N60" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" s="6" customFormat="1">
       <c r="A61" s="5">
         <v>41781</v>
       </c>
@@ -3076,7 +3316,7 @@
         <v>104</v>
       </c>
       <c r="K61" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L61" s="6">
@@ -3085,10 +3325,14 @@
       </c>
       <c r="M61" s="2">
         <f t="shared" si="3"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" s="6" customFormat="1">
+        <v>46</v>
+      </c>
+      <c r="N61" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" s="6" customFormat="1">
       <c r="A62" s="5">
         <v>41782</v>
       </c>
@@ -3119,7 +3363,7 @@
         <v>117</v>
       </c>
       <c r="K62" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.5</v>
       </c>
       <c r="L62" s="6">
@@ -3128,10 +3372,14 @@
       </c>
       <c r="M62" s="2">
         <f t="shared" si="3"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" s="6" customFormat="1">
+        <v>56.5</v>
+      </c>
+      <c r="N62" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" s="6" customFormat="1">
       <c r="A63" s="5">
         <v>41785</v>
       </c>
@@ -3162,7 +3410,7 @@
         <v>117</v>
       </c>
       <c r="K63" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>39</v>
       </c>
       <c r="L63" s="6">
@@ -3171,10 +3419,14 @@
       </c>
       <c r="M63" s="2">
         <f t="shared" si="3"/>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" s="6" customFormat="1">
+        <v>74</v>
+      </c>
+      <c r="N63" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" s="6" customFormat="1">
       <c r="A64" s="5">
         <v>41786</v>
       </c>
@@ -3205,7 +3457,7 @@
         <v>91</v>
       </c>
       <c r="K64" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L64" s="6">
@@ -3214,10 +3466,14 @@
       </c>
       <c r="M64" s="2">
         <f t="shared" si="3"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" s="6" customFormat="1">
+        <v>39</v>
+      </c>
+      <c r="N64" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" s="6" customFormat="1">
       <c r="A65" s="5">
         <v>41787</v>
       </c>
@@ -3248,7 +3504,7 @@
         <v>39</v>
       </c>
       <c r="K65" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L65" s="6">
@@ -3257,10 +3513,14 @@
       </c>
       <c r="M65" s="2">
         <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" s="6" customFormat="1">
+        <v>11</v>
+      </c>
+      <c r="N65" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" s="6" customFormat="1">
       <c r="A66" s="5">
         <v>41788</v>
       </c>
@@ -3291,7 +3551,7 @@
         <v>84.5</v>
       </c>
       <c r="K66" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L66" s="6">
@@ -3300,10 +3560,14 @@
       </c>
       <c r="M66" s="2">
         <f t="shared" si="3"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" s="6" customFormat="1">
+        <v>35.5</v>
+      </c>
+      <c r="N66" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" s="6" customFormat="1">
       <c r="A67" s="5">
         <v>41789</v>
       </c>
@@ -3334,7 +3598,7 @@
         <v>84.5</v>
       </c>
       <c r="K67" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L67" s="6">
@@ -3343,10 +3607,14 @@
       </c>
       <c r="M67" s="2">
         <f t="shared" si="3"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" s="6" customFormat="1">
+        <v>35.5</v>
+      </c>
+      <c r="N67" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" s="6" customFormat="1">
       <c r="A68" s="5">
         <v>41792</v>
       </c>
@@ -3369,27 +3637,31 @@
         <v>10</v>
       </c>
       <c r="I68" s="6">
-        <f t="shared" ref="I68:I131" si="5">B68-E68</f>
+        <f t="shared" ref="I68:I134" si="6">B68-E68</f>
         <v>-3</v>
       </c>
       <c r="J68" s="6">
-        <f t="shared" ref="J68:J131" si="6">IF(I68&lt;=0,B68*6.5,E68*6.5)</f>
+        <f t="shared" ref="J68:J134" si="7">IF(I68&lt;=0,B68*6.5,E68*6.5)</f>
         <v>97.5</v>
       </c>
       <c r="K68" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L68" s="6">
-        <f t="shared" ref="L68:L131" si="7">IF(I68&gt;0,0,(E68-B68)*3.5)</f>
+        <f t="shared" ref="L68:L134" si="8">IF(I68&gt;0,0,(E68-B68)*3.5)</f>
         <v>10.5</v>
       </c>
       <c r="M68" s="2">
-        <f t="shared" ref="M68:M131" si="8">IF(J68&gt;=0,B68*3,F68*3-(F68-B68)*3.5)</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" s="6" customFormat="1">
+        <f t="shared" ref="M68:M134" si="9">IF(J68&lt;=0,B68*3,F68*3-(F68-B68)*3.5)</f>
+        <v>42.5</v>
+      </c>
+      <c r="N68" s="6">
+        <f t="shared" ref="N68:N134" si="10">IF(I68=0,M68,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" s="6" customFormat="1">
       <c r="A69" s="5">
         <v>41793</v>
       </c>
@@ -3412,27 +3684,31 @@
         <v>10</v>
       </c>
       <c r="I69" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-5</v>
       </c>
       <c r="J69" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>84.5</v>
       </c>
       <c r="K69" s="6">
-        <f t="shared" ref="K69:K132" si="9">IF(I69&lt;=0,0,(B69-E69)*6.5)</f>
+        <f t="shared" ref="K69:K135" si="11">IF(I69&lt;=0,0,(B69-E69)*6.5)</f>
         <v>0</v>
       </c>
       <c r="L69" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>17.5</v>
       </c>
       <c r="M69" s="2">
-        <f t="shared" si="8"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" s="6" customFormat="1">
+        <f t="shared" si="9"/>
+        <v>35.5</v>
+      </c>
+      <c r="N69" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" s="6" customFormat="1">
       <c r="A70" s="5">
         <v>41794</v>
       </c>
@@ -3455,27 +3731,31 @@
         <v>10</v>
       </c>
       <c r="I70" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
       <c r="J70" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>104</v>
       </c>
       <c r="K70" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L70" s="6">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="M70" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L70" s="6">
-        <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-      <c r="M70" s="2">
-        <f t="shared" si="8"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" s="6" customFormat="1">
+        <v>46</v>
+      </c>
+      <c r="N70" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" s="6" customFormat="1">
       <c r="A71" s="5">
         <v>41795</v>
       </c>
@@ -3498,27 +3778,31 @@
         <v>10</v>
       </c>
       <c r="I71" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-3</v>
       </c>
       <c r="J71" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>97.5</v>
       </c>
       <c r="K71" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L71" s="6">
+        <f t="shared" si="8"/>
+        <v>10.5</v>
+      </c>
+      <c r="M71" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L71" s="6">
-        <f t="shared" si="7"/>
-        <v>10.5</v>
-      </c>
-      <c r="M71" s="2">
-        <f t="shared" si="8"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" s="6" customFormat="1">
+        <v>42.5</v>
+      </c>
+      <c r="N71" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" s="6" customFormat="1">
       <c r="A72" s="5">
         <v>41796</v>
       </c>
@@ -3541,27 +3825,31 @@
         <v>10</v>
       </c>
       <c r="I72" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
       <c r="J72" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>104</v>
       </c>
       <c r="K72" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L72" s="6">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="M72" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L72" s="6">
-        <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-      <c r="M72" s="2">
-        <f t="shared" si="8"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" s="6" customFormat="1">
+        <v>46</v>
+      </c>
+      <c r="N72" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" s="6" customFormat="1">
       <c r="A73" s="5">
         <v>41799</v>
       </c>
@@ -3584,27 +3872,31 @@
         <v>10</v>
       </c>
       <c r="I73" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="J73" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>110.5</v>
       </c>
       <c r="K73" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L73" s="6">
+        <f t="shared" si="8"/>
+        <v>3.5</v>
+      </c>
+      <c r="M73" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L73" s="6">
-        <f t="shared" si="7"/>
-        <v>3.5</v>
-      </c>
-      <c r="M73" s="2">
-        <f t="shared" si="8"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" s="6" customFormat="1">
+        <v>49.5</v>
+      </c>
+      <c r="N73" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" s="6" customFormat="1">
       <c r="A74" s="5">
         <v>41800</v>
       </c>
@@ -3627,27 +3919,31 @@
         <v>10</v>
       </c>
       <c r="I74" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-4</v>
       </c>
       <c r="J74" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>91</v>
       </c>
       <c r="K74" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L74" s="6">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="M74" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L74" s="6">
-        <f t="shared" si="7"/>
-        <v>14</v>
-      </c>
-      <c r="M74" s="2">
-        <f t="shared" si="8"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" s="6" customFormat="1">
+        <v>39</v>
+      </c>
+      <c r="N74" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" s="6" customFormat="1">
       <c r="A75" s="5">
         <v>41801</v>
       </c>
@@ -3670,27 +3966,31 @@
         <v>10</v>
       </c>
       <c r="I75" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J75" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>117</v>
       </c>
       <c r="K75" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L75" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M75" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L75" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M75" s="2">
-        <f t="shared" si="8"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" s="6" customFormat="1">
+        <v>53</v>
+      </c>
+      <c r="N75" s="6">
+        <f t="shared" si="10"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" s="6" customFormat="1">
       <c r="A76" s="5">
         <v>41802</v>
       </c>
@@ -3713,27 +4013,31 @@
         <v>10</v>
       </c>
       <c r="I76" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-3</v>
       </c>
       <c r="J76" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>97.5</v>
       </c>
       <c r="K76" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L76" s="6">
+        <f t="shared" si="8"/>
+        <v>10.5</v>
+      </c>
+      <c r="M76" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L76" s="6">
-        <f t="shared" si="7"/>
-        <v>10.5</v>
-      </c>
-      <c r="M76" s="2">
-        <f t="shared" si="8"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" s="6" customFormat="1">
+        <v>42.5</v>
+      </c>
+      <c r="N76" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" s="6" customFormat="1">
       <c r="A77" s="5">
         <v>41803</v>
       </c>
@@ -3756,27 +4060,31 @@
         <v>10</v>
       </c>
       <c r="I77" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="J77" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>110.5</v>
       </c>
       <c r="K77" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L77" s="6">
+        <f t="shared" si="8"/>
+        <v>3.5</v>
+      </c>
+      <c r="M77" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L77" s="6">
-        <f t="shared" si="7"/>
-        <v>3.5</v>
-      </c>
-      <c r="M77" s="2">
-        <f t="shared" si="8"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" s="6" customFormat="1">
+        <v>49.5</v>
+      </c>
+      <c r="N77" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" s="6" customFormat="1">
       <c r="A78" s="5">
         <v>41806</v>
       </c>
@@ -3799,27 +4107,31 @@
         <v>10</v>
       </c>
       <c r="I78" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="J78" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>117</v>
       </c>
       <c r="K78" s="6">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="L78" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M78" s="2">
         <f t="shared" si="9"/>
-        <v>13</v>
-      </c>
-      <c r="L78" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M78" s="2">
-        <f t="shared" si="8"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" s="6" customFormat="1">
+      <c r="N78" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" s="6" customFormat="1">
       <c r="A79" s="5">
         <v>41807</v>
       </c>
@@ -3842,27 +4154,31 @@
         <v>10</v>
       </c>
       <c r="I79" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="J79" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>110.5</v>
       </c>
       <c r="K79" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L79" s="6">
+        <f t="shared" si="8"/>
+        <v>3.5</v>
+      </c>
+      <c r="M79" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L79" s="6">
-        <f t="shared" si="7"/>
-        <v>3.5</v>
-      </c>
-      <c r="M79" s="2">
-        <f t="shared" si="8"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" s="6" customFormat="1">
+        <v>49.5</v>
+      </c>
+      <c r="N79" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" s="6" customFormat="1">
       <c r="A80" s="5">
         <v>41808</v>
       </c>
@@ -3885,27 +4201,31 @@
         <v>10</v>
       </c>
       <c r="I80" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-4</v>
       </c>
       <c r="J80" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>91</v>
       </c>
       <c r="K80" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L80" s="6">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="M80" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L80" s="6">
-        <f t="shared" si="7"/>
-        <v>14</v>
-      </c>
-      <c r="M80" s="2">
-        <f t="shared" si="8"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" s="6" customFormat="1">
+        <v>39</v>
+      </c>
+      <c r="N80" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" s="6" customFormat="1">
       <c r="A81" s="5">
         <v>41809</v>
       </c>
@@ -3928,27 +4248,31 @@
         <v>10</v>
       </c>
       <c r="I81" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="J81" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>117</v>
       </c>
       <c r="K81" s="6">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="L81" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M81" s="2">
         <f t="shared" si="9"/>
-        <v>13</v>
-      </c>
-      <c r="L81" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M81" s="2">
-        <f t="shared" si="8"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" s="6" customFormat="1">
+      <c r="N81" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" s="6" customFormat="1">
       <c r="A82" s="5">
         <v>41810</v>
       </c>
@@ -3971,27 +4295,31 @@
         <v>10</v>
       </c>
       <c r="I82" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J82" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>117</v>
       </c>
       <c r="K82" s="6">
+        <f t="shared" si="11"/>
+        <v>6.5</v>
+      </c>
+      <c r="L82" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M82" s="2">
         <f t="shared" si="9"/>
-        <v>6.5</v>
-      </c>
-      <c r="L82" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M82" s="2">
-        <f t="shared" si="8"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" s="6" customFormat="1">
+        <v>56.5</v>
+      </c>
+      <c r="N82" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" s="6" customFormat="1">
       <c r="A83" s="5">
         <v>41813</v>
       </c>
@@ -4014,27 +4342,31 @@
         <v>10</v>
       </c>
       <c r="I83" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J83" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>117</v>
       </c>
       <c r="K83" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L83" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M83" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L83" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M83" s="2">
-        <f t="shared" si="8"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" s="6" customFormat="1">
+        <v>53</v>
+      </c>
+      <c r="N83" s="6">
+        <f t="shared" si="10"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" s="6" customFormat="1">
       <c r="A84" s="5">
         <v>41814</v>
       </c>
@@ -4057,27 +4389,31 @@
         <v>10</v>
       </c>
       <c r="I84" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
       <c r="J84" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>104</v>
       </c>
       <c r="K84" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L84" s="6">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="M84" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L84" s="6">
-        <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-      <c r="M84" s="2">
-        <f t="shared" si="8"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" s="6" customFormat="1">
+        <v>46</v>
+      </c>
+      <c r="N84" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" s="6" customFormat="1">
       <c r="A85" s="5">
         <v>41815</v>
       </c>
@@ -4100,27 +4436,31 @@
         <v>10</v>
       </c>
       <c r="I85" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-5</v>
       </c>
       <c r="J85" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>84.5</v>
       </c>
       <c r="K85" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L85" s="6">
+        <f t="shared" si="8"/>
+        <v>17.5</v>
+      </c>
+      <c r="M85" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L85" s="6">
-        <f t="shared" si="7"/>
-        <v>17.5</v>
-      </c>
-      <c r="M85" s="2">
-        <f t="shared" si="8"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" s="6" customFormat="1">
+        <v>35.5</v>
+      </c>
+      <c r="N85" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" s="6" customFormat="1">
       <c r="A86" s="5">
         <v>41816</v>
       </c>
@@ -4143,27 +4483,31 @@
         <v>10</v>
       </c>
       <c r="I86" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="J86" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>117</v>
       </c>
       <c r="K86" s="6">
+        <f t="shared" si="11"/>
+        <v>19.5</v>
+      </c>
+      <c r="L86" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M86" s="2">
         <f t="shared" si="9"/>
-        <v>19.5</v>
-      </c>
-      <c r="L86" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M86" s="2">
-        <f t="shared" si="8"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" s="6" customFormat="1">
+        <v>63.5</v>
+      </c>
+      <c r="N86" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" s="6" customFormat="1">
       <c r="A87" s="5">
         <v>41817</v>
       </c>
@@ -4186,27 +4530,31 @@
         <v>10</v>
       </c>
       <c r="I87" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-4</v>
       </c>
       <c r="J87" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>91</v>
       </c>
       <c r="K87" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L87" s="6">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="M87" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L87" s="6">
-        <f t="shared" si="7"/>
-        <v>14</v>
-      </c>
-      <c r="M87" s="2">
-        <f t="shared" si="8"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" s="6" customFormat="1">
+        <v>39</v>
+      </c>
+      <c r="N87" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" s="6" customFormat="1">
       <c r="A88" s="5">
         <v>41820</v>
       </c>
@@ -4229,27 +4577,31 @@
         <v>10</v>
       </c>
       <c r="I88" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="J88" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>110.5</v>
       </c>
       <c r="K88" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L88" s="6">
+        <f t="shared" si="8"/>
+        <v>3.5</v>
+      </c>
+      <c r="M88" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L88" s="6">
-        <f t="shared" si="7"/>
-        <v>3.5</v>
-      </c>
-      <c r="M88" s="2">
-        <f t="shared" si="8"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" s="6" customFormat="1">
+        <v>49.5</v>
+      </c>
+      <c r="N88" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" s="6" customFormat="1">
       <c r="A89" s="5">
         <v>41821</v>
       </c>
@@ -4272,27 +4624,31 @@
         <v>10</v>
       </c>
       <c r="I89" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-3</v>
       </c>
       <c r="J89" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>97.5</v>
       </c>
       <c r="K89" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L89" s="6">
+        <f t="shared" si="8"/>
+        <v>10.5</v>
+      </c>
+      <c r="M89" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L89" s="6">
-        <f t="shared" si="7"/>
-        <v>10.5</v>
-      </c>
-      <c r="M89" s="2">
-        <f t="shared" si="8"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" s="6" customFormat="1">
+        <v>42.5</v>
+      </c>
+      <c r="N89" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" s="6" customFormat="1">
       <c r="A90" s="5">
         <v>41822</v>
       </c>
@@ -4315,27 +4671,31 @@
         <v>10</v>
       </c>
       <c r="I90" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="J90" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>110.5</v>
       </c>
       <c r="K90" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L90" s="6">
+        <f t="shared" si="8"/>
+        <v>3.5</v>
+      </c>
+      <c r="M90" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L90" s="6">
-        <f t="shared" si="7"/>
-        <v>3.5</v>
-      </c>
-      <c r="M90" s="2">
-        <f t="shared" si="8"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" s="6" customFormat="1">
+        <v>49.5</v>
+      </c>
+      <c r="N90" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" s="6" customFormat="1">
       <c r="A91" s="5">
         <v>41823</v>
       </c>
@@ -4358,27 +4718,31 @@
         <v>10</v>
       </c>
       <c r="I91" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
       <c r="J91" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>104</v>
       </c>
       <c r="K91" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L91" s="6">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="M91" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L91" s="6">
-        <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-      <c r="M91" s="2">
-        <f t="shared" si="8"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" s="6" customFormat="1">
+        <v>46</v>
+      </c>
+      <c r="N91" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" s="6" customFormat="1">
       <c r="A92" s="5">
         <v>41824</v>
       </c>
@@ -4401,27 +4765,31 @@
         <v>10</v>
       </c>
       <c r="I92" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="J92" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>117</v>
       </c>
       <c r="K92" s="6">
+        <f t="shared" si="11"/>
+        <v>32.5</v>
+      </c>
+      <c r="L92" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M92" s="2">
         <f t="shared" si="9"/>
-        <v>32.5</v>
-      </c>
-      <c r="L92" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M92" s="2">
-        <f t="shared" si="8"/>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" s="6" customFormat="1">
+        <v>70.5</v>
+      </c>
+      <c r="N92" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" s="6" customFormat="1">
       <c r="A93" s="5">
         <v>41827</v>
       </c>
@@ -4444,27 +4812,31 @@
         <v>10</v>
       </c>
       <c r="I93" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
       <c r="J93" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>104</v>
       </c>
       <c r="K93" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L93" s="6">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="M93" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L93" s="6">
-        <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-      <c r="M93" s="2">
-        <f t="shared" si="8"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" s="6" customFormat="1">
+        <v>46</v>
+      </c>
+      <c r="N93" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" s="6" customFormat="1">
       <c r="A94" s="5">
         <v>41828</v>
       </c>
@@ -4487,27 +4859,31 @@
         <v>10</v>
       </c>
       <c r="I94" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="J94" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>117</v>
       </c>
       <c r="K94" s="6">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="L94" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M94" s="2">
         <f t="shared" si="9"/>
-        <v>13</v>
-      </c>
-      <c r="L94" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M94" s="2">
-        <f t="shared" si="8"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" s="6" customFormat="1">
+      <c r="N94" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" s="6" customFormat="1">
       <c r="A95" s="5">
         <v>41829</v>
       </c>
@@ -4530,27 +4906,31 @@
         <v>10</v>
       </c>
       <c r="I95" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-5</v>
       </c>
       <c r="J95" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>84.5</v>
       </c>
       <c r="K95" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L95" s="6">
+        <f t="shared" si="8"/>
+        <v>17.5</v>
+      </c>
+      <c r="M95" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L95" s="6">
-        <f t="shared" si="7"/>
-        <v>17.5</v>
-      </c>
-      <c r="M95" s="2">
-        <f t="shared" si="8"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" s="6" customFormat="1">
+        <v>35.5</v>
+      </c>
+      <c r="N95" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" s="6" customFormat="1">
       <c r="A96" s="5">
         <v>41830</v>
       </c>
@@ -4573,27 +4953,31 @@
         <v>10</v>
       </c>
       <c r="I96" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-3</v>
       </c>
       <c r="J96" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>97.5</v>
       </c>
       <c r="K96" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L96" s="6">
+        <f t="shared" si="8"/>
+        <v>10.5</v>
+      </c>
+      <c r="M96" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L96" s="6">
-        <f t="shared" si="7"/>
-        <v>10.5</v>
-      </c>
-      <c r="M96" s="2">
-        <f t="shared" si="8"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" s="6" customFormat="1">
+        <v>42.5</v>
+      </c>
+      <c r="N96" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" s="6" customFormat="1">
       <c r="A97" s="5">
         <v>41831</v>
       </c>
@@ -4616,27 +5000,31 @@
         <v>10</v>
       </c>
       <c r="I97" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-6</v>
       </c>
       <c r="J97" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>78</v>
       </c>
       <c r="K97" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L97" s="6">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="M97" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L97" s="6">
-        <f t="shared" si="7"/>
-        <v>21</v>
-      </c>
-      <c r="M97" s="2">
-        <f t="shared" si="8"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" s="6" customFormat="1">
+        <v>32</v>
+      </c>
+      <c r="N97" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" s="6" customFormat="1">
       <c r="A98" s="5">
         <v>41834</v>
       </c>
@@ -4659,27 +5047,31 @@
         <v>10</v>
       </c>
       <c r="I98" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J98" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>117</v>
       </c>
       <c r="K98" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L98" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M98" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L98" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M98" s="2">
-        <f t="shared" si="8"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" s="6" customFormat="1">
+        <v>53</v>
+      </c>
+      <c r="N98" s="6">
+        <f t="shared" si="10"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" s="6" customFormat="1">
       <c r="A99" s="5">
         <v>41835</v>
       </c>
@@ -4702,27 +5094,31 @@
         <v>10</v>
       </c>
       <c r="I99" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-3</v>
       </c>
       <c r="J99" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>97.5</v>
       </c>
       <c r="K99" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L99" s="6">
+        <f t="shared" si="8"/>
+        <v>10.5</v>
+      </c>
+      <c r="M99" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L99" s="6">
-        <f t="shared" si="7"/>
-        <v>10.5</v>
-      </c>
-      <c r="M99" s="2">
-        <f t="shared" si="8"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" s="6" customFormat="1">
+        <v>42.5</v>
+      </c>
+      <c r="N99" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" s="6" customFormat="1">
       <c r="A100" s="5">
         <v>41836</v>
       </c>
@@ -4745,27 +5141,31 @@
         <v>10</v>
       </c>
       <c r="I100" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="J100" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>117</v>
       </c>
       <c r="K100" s="6">
+        <f t="shared" si="11"/>
+        <v>19.5</v>
+      </c>
+      <c r="L100" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M100" s="2">
         <f t="shared" si="9"/>
-        <v>19.5</v>
-      </c>
-      <c r="L100" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M100" s="2">
-        <f t="shared" si="8"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" s="6" customFormat="1">
+        <v>63.5</v>
+      </c>
+      <c r="N100" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" s="6" customFormat="1">
       <c r="A101" s="5">
         <v>41837</v>
       </c>
@@ -4788,27 +5188,31 @@
         <v>10</v>
       </c>
       <c r="I101" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="J101" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>117</v>
       </c>
       <c r="K101" s="6">
+        <f t="shared" si="11"/>
+        <v>32.5</v>
+      </c>
+      <c r="L101" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M101" s="2">
         <f t="shared" si="9"/>
-        <v>32.5</v>
-      </c>
-      <c r="L101" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M101" s="2">
-        <f t="shared" si="8"/>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" s="6" customFormat="1">
+        <v>70.5</v>
+      </c>
+      <c r="N101" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" s="6" customFormat="1">
       <c r="A102" s="5">
         <v>41838</v>
       </c>
@@ -4831,27 +5235,31 @@
         <v>10</v>
       </c>
       <c r="I102" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="J102" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>110.5</v>
       </c>
       <c r="K102" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L102" s="6">
+        <f t="shared" si="8"/>
+        <v>3.5</v>
+      </c>
+      <c r="M102" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L102" s="6">
-        <f t="shared" si="7"/>
-        <v>3.5</v>
-      </c>
-      <c r="M102" s="2">
-        <f t="shared" si="8"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" s="6" customFormat="1">
+        <v>49.5</v>
+      </c>
+      <c r="N102" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" s="6" customFormat="1">
       <c r="A103" s="5">
         <v>41841</v>
       </c>
@@ -4874,27 +5282,31 @@
         <v>11</v>
       </c>
       <c r="I103" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="J103" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>91</v>
       </c>
       <c r="K103" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L103" s="6">
+        <f t="shared" si="8"/>
+        <v>3.5</v>
+      </c>
+      <c r="M103" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L103" s="6">
-        <f t="shared" si="7"/>
-        <v>3.5</v>
-      </c>
-      <c r="M103" s="2">
-        <f t="shared" si="8"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" s="6" customFormat="1">
+        <v>40</v>
+      </c>
+      <c r="N103" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" s="6" customFormat="1">
       <c r="A104" s="5">
         <v>41842</v>
       </c>
@@ -4917,27 +5329,31 @@
         <v>11</v>
       </c>
       <c r="I104" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J104" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>97.5</v>
       </c>
       <c r="K104" s="6">
+        <f t="shared" si="11"/>
+        <v>6.5</v>
+      </c>
+      <c r="L104" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M104" s="2">
         <f t="shared" si="9"/>
-        <v>6.5</v>
-      </c>
-      <c r="L104" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M104" s="2">
-        <f t="shared" si="8"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" s="6" customFormat="1">
+        <v>47</v>
+      </c>
+      <c r="N104" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" s="6" customFormat="1">
       <c r="A105" s="5">
         <v>41843</v>
       </c>
@@ -4960,27 +5376,31 @@
         <v>11</v>
       </c>
       <c r="I105" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="J105" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>97.5</v>
       </c>
       <c r="K105" s="6">
+        <f t="shared" si="11"/>
+        <v>39</v>
+      </c>
+      <c r="L105" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M105" s="2">
         <f t="shared" si="9"/>
-        <v>39</v>
-      </c>
-      <c r="L105" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M105" s="2">
-        <f t="shared" si="8"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" s="6" customFormat="1">
+        <v>64.5</v>
+      </c>
+      <c r="N105" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" s="6" customFormat="1">
       <c r="A106" s="5">
         <v>41844</v>
       </c>
@@ -5003,27 +5423,31 @@
         <v>11</v>
       </c>
       <c r="I106" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J106" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>97.5</v>
       </c>
       <c r="K106" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L106" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M106" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L106" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M106" s="2">
-        <f t="shared" si="8"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" s="6" customFormat="1">
+        <v>43.5</v>
+      </c>
+      <c r="N106" s="6">
+        <f t="shared" si="10"/>
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" s="6" customFormat="1">
       <c r="A107" s="5">
         <v>41845</v>
       </c>
@@ -5046,27 +5470,31 @@
         <v>11</v>
       </c>
       <c r="I107" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-6</v>
       </c>
       <c r="J107" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>58.5</v>
       </c>
       <c r="K107" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L107" s="6">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="M107" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L107" s="6">
-        <f t="shared" si="7"/>
-        <v>21</v>
-      </c>
-      <c r="M107" s="2">
-        <f t="shared" si="8"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" s="6" customFormat="1">
+        <v>22.5</v>
+      </c>
+      <c r="N107" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" s="6" customFormat="1">
       <c r="A108" s="5">
         <v>41848</v>
       </c>
@@ -5089,27 +5517,31 @@
         <v>11</v>
       </c>
       <c r="I108" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-3</v>
       </c>
       <c r="J108" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>78</v>
       </c>
       <c r="K108" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L108" s="6">
+        <f t="shared" si="8"/>
+        <v>10.5</v>
+      </c>
+      <c r="M108" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L108" s="6">
-        <f t="shared" si="7"/>
-        <v>10.5</v>
-      </c>
-      <c r="M108" s="2">
-        <f t="shared" si="8"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" s="6" customFormat="1">
+        <v>33</v>
+      </c>
+      <c r="N108" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" s="6" customFormat="1">
       <c r="A109" s="5">
         <v>41849</v>
       </c>
@@ -5132,758 +5564,830 @@
         <v>11</v>
       </c>
       <c r="I109" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="J109" s="6">
+        <f t="shared" si="7"/>
+        <v>97.5</v>
+      </c>
+      <c r="K109" s="6">
+        <f t="shared" si="11"/>
+        <v>26</v>
+      </c>
+      <c r="L109" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M109" s="2">
+        <f t="shared" si="9"/>
+        <v>57.5</v>
+      </c>
+      <c r="N109" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" s="6" customFormat="1">
+      <c r="A110" s="5">
+        <v>41850</v>
+      </c>
+      <c r="B110" s="6">
+        <v>17</v>
+      </c>
+      <c r="C110" s="6">
+        <v>22</v>
+      </c>
+      <c r="D110" s="6">
+        <v>10</v>
+      </c>
+      <c r="E110" s="6">
+        <v>15</v>
+      </c>
+      <c r="F110" s="6">
+        <v>18</v>
+      </c>
+      <c r="G110" s="6">
+        <v>11</v>
+      </c>
+      <c r="I110" s="6">
         <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="J110" s="6">
+        <f t="shared" si="7"/>
         <v>97.5</v>
       </c>
-      <c r="K109" s="6">
+      <c r="K110" s="6">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="L110" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M110" s="2">
+        <f t="shared" si="9"/>
+        <v>50.5</v>
+      </c>
+      <c r="N110" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" s="6" customFormat="1">
+      <c r="A111" s="5">
+        <v>41851</v>
+      </c>
+      <c r="B111" s="6">
+        <v>17</v>
+      </c>
+      <c r="C111" s="6">
+        <v>23</v>
+      </c>
+      <c r="D111" s="6">
+        <v>15</v>
+      </c>
+      <c r="E111" s="6">
+        <v>15</v>
+      </c>
+      <c r="F111" s="6">
+        <v>18</v>
+      </c>
+      <c r="G111" s="6">
+        <v>11</v>
+      </c>
+      <c r="I111" s="6">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="J111" s="6">
+        <f t="shared" si="7"/>
+        <v>97.5</v>
+      </c>
+      <c r="K111" s="6">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="L111" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M111" s="2">
+        <f t="shared" si="9"/>
+        <v>50.5</v>
+      </c>
+      <c r="N111" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" s="6" customFormat="1">
+      <c r="A112" s="5">
+        <v>41852</v>
+      </c>
+      <c r="B112" s="6">
+        <v>18</v>
+      </c>
+      <c r="C112" s="6">
+        <v>29</v>
+      </c>
+      <c r="D112" s="6">
+        <v>13</v>
+      </c>
+      <c r="E112" s="6">
+        <v>15</v>
+      </c>
+      <c r="F112" s="6">
+        <v>18</v>
+      </c>
+      <c r="G112" s="6">
+        <v>11</v>
+      </c>
+      <c r="I112" s="6">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="J112" s="6">
+        <f t="shared" si="7"/>
+        <v>97.5</v>
+      </c>
+      <c r="K112" s="6">
+        <f t="shared" si="11"/>
+        <v>19.5</v>
+      </c>
+      <c r="L112" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M112" s="2">
+        <f t="shared" si="9"/>
+        <v>54</v>
+      </c>
+      <c r="N112" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" s="6" customFormat="1">
+      <c r="A113" s="5">
+        <v>41855</v>
+      </c>
+      <c r="B113" s="6">
+        <v>23</v>
+      </c>
+      <c r="C113" s="6">
+        <v>20</v>
+      </c>
+      <c r="D113" s="6">
+        <v>15</v>
+      </c>
+      <c r="E113" s="6">
+        <v>15</v>
+      </c>
+      <c r="F113" s="6">
+        <v>18</v>
+      </c>
+      <c r="G113" s="6">
+        <v>11</v>
+      </c>
+      <c r="I113" s="6">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="J113" s="6">
+        <f t="shared" si="7"/>
+        <v>97.5</v>
+      </c>
+      <c r="K113" s="6">
+        <f t="shared" si="11"/>
+        <v>52</v>
+      </c>
+      <c r="L113" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M113" s="2">
+        <f t="shared" si="9"/>
+        <v>71.5</v>
+      </c>
+      <c r="N113" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" s="6" customFormat="1">
+      <c r="A114" s="5">
+        <v>41856</v>
+      </c>
+      <c r="B114" s="6">
+        <v>18</v>
+      </c>
+      <c r="C114" s="6">
+        <v>22</v>
+      </c>
+      <c r="D114" s="6">
+        <v>11</v>
+      </c>
+      <c r="E114" s="6">
+        <v>15</v>
+      </c>
+      <c r="F114" s="6">
+        <v>18</v>
+      </c>
+      <c r="G114" s="6">
+        <v>11</v>
+      </c>
+      <c r="I114" s="6">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="J114" s="6">
+        <f t="shared" si="7"/>
+        <v>97.5</v>
+      </c>
+      <c r="K114" s="6">
+        <f t="shared" si="11"/>
+        <v>19.5</v>
+      </c>
+      <c r="L114" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M114" s="2">
+        <f t="shared" si="9"/>
+        <v>54</v>
+      </c>
+      <c r="N114" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" s="6" customFormat="1">
+      <c r="A115" s="5">
+        <v>41857</v>
+      </c>
+      <c r="B115" s="6">
+        <v>12</v>
+      </c>
+      <c r="C115" s="6">
+        <v>27</v>
+      </c>
+      <c r="D115" s="6">
+        <v>16</v>
+      </c>
+      <c r="E115" s="6">
+        <v>15</v>
+      </c>
+      <c r="F115" s="6">
+        <v>18</v>
+      </c>
+      <c r="G115" s="6">
+        <v>11</v>
+      </c>
+      <c r="I115" s="6">
+        <f t="shared" si="6"/>
+        <v>-3</v>
+      </c>
+      <c r="J115" s="6">
+        <f t="shared" si="7"/>
+        <v>78</v>
+      </c>
+      <c r="K115" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L115" s="6">
+        <f t="shared" si="8"/>
+        <v>10.5</v>
+      </c>
+      <c r="M115" s="2">
+        <f t="shared" si="9"/>
+        <v>33</v>
+      </c>
+      <c r="N115" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" s="6" customFormat="1">
+      <c r="A116" s="5">
+        <v>41858</v>
+      </c>
+      <c r="B116" s="6">
+        <v>16</v>
+      </c>
+      <c r="C116" s="6">
+        <v>26</v>
+      </c>
+      <c r="D116" s="6">
+        <v>13</v>
+      </c>
+      <c r="E116" s="6">
+        <v>15</v>
+      </c>
+      <c r="F116" s="6">
+        <v>18</v>
+      </c>
+      <c r="G116" s="6">
+        <v>11</v>
+      </c>
+      <c r="I116" s="6">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J116" s="6">
+        <f t="shared" si="7"/>
+        <v>97.5</v>
+      </c>
+      <c r="K116" s="6">
+        <f t="shared" si="11"/>
+        <v>6.5</v>
+      </c>
+      <c r="L116" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M116" s="2">
+        <f t="shared" si="9"/>
+        <v>47</v>
+      </c>
+      <c r="N116" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" s="6" customFormat="1">
+      <c r="A117" s="5">
+        <v>41859</v>
+      </c>
+      <c r="B117" s="6">
+        <v>12</v>
+      </c>
+      <c r="C117" s="6">
+        <v>27</v>
+      </c>
+      <c r="D117" s="6">
+        <v>13</v>
+      </c>
+      <c r="E117" s="6">
+        <v>15</v>
+      </c>
+      <c r="F117" s="6">
+        <v>18</v>
+      </c>
+      <c r="G117" s="6">
+        <v>11</v>
+      </c>
+      <c r="I117" s="6">
+        <f t="shared" si="6"/>
+        <v>-3</v>
+      </c>
+      <c r="J117" s="6">
+        <f t="shared" si="7"/>
+        <v>78</v>
+      </c>
+      <c r="K117" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L117" s="6">
+        <f t="shared" si="8"/>
+        <v>10.5</v>
+      </c>
+      <c r="M117" s="2">
+        <f t="shared" si="9"/>
+        <v>33</v>
+      </c>
+      <c r="N117" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" s="6" customFormat="1">
+      <c r="A118" s="5">
+        <v>41862</v>
+      </c>
+      <c r="B118" s="6">
+        <v>20</v>
+      </c>
+      <c r="C118" s="6">
+        <v>19</v>
+      </c>
+      <c r="D118" s="6">
+        <v>13</v>
+      </c>
+      <c r="E118" s="6">
+        <v>15</v>
+      </c>
+      <c r="F118" s="6">
+        <v>18</v>
+      </c>
+      <c r="G118" s="6">
+        <v>11</v>
+      </c>
+      <c r="I118" s="6">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="J118" s="6">
+        <f t="shared" si="7"/>
+        <v>97.5</v>
+      </c>
+      <c r="K118" s="6">
+        <f t="shared" si="11"/>
+        <v>32.5</v>
+      </c>
+      <c r="L118" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M118" s="2">
+        <f t="shared" si="9"/>
+        <v>61</v>
+      </c>
+      <c r="N118" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" s="6" customFormat="1">
+      <c r="A119" s="5">
+        <v>41863</v>
+      </c>
+      <c r="B119" s="6">
+        <v>20</v>
+      </c>
+      <c r="C119" s="6">
+        <v>22</v>
+      </c>
+      <c r="D119" s="6">
+        <v>17</v>
+      </c>
+      <c r="E119" s="6">
+        <v>15</v>
+      </c>
+      <c r="F119" s="6">
+        <v>18</v>
+      </c>
+      <c r="G119" s="6">
+        <v>11</v>
+      </c>
+      <c r="I119" s="6">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="J119" s="6">
+        <f t="shared" si="7"/>
+        <v>97.5</v>
+      </c>
+      <c r="K119" s="6">
+        <f t="shared" si="11"/>
+        <v>32.5</v>
+      </c>
+      <c r="L119" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M119" s="2">
+        <f t="shared" si="9"/>
+        <v>61</v>
+      </c>
+      <c r="N119" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" s="6" customFormat="1">
+      <c r="A120" s="5">
+        <v>41864</v>
+      </c>
+      <c r="B120" s="6">
+        <v>22</v>
+      </c>
+      <c r="C120" s="6">
+        <v>30</v>
+      </c>
+      <c r="D120" s="6">
+        <v>20</v>
+      </c>
+      <c r="E120" s="6">
+        <v>15</v>
+      </c>
+      <c r="F120" s="6">
+        <v>18</v>
+      </c>
+      <c r="G120" s="6">
+        <v>11</v>
+      </c>
+      <c r="I120" s="6">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="J120" s="6">
+        <f t="shared" si="7"/>
+        <v>97.5</v>
+      </c>
+      <c r="K120" s="6">
+        <f t="shared" si="11"/>
+        <v>45.5</v>
+      </c>
+      <c r="L120" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M120" s="2">
+        <f t="shared" si="9"/>
+        <v>68</v>
+      </c>
+      <c r="N120" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" s="6" customFormat="1">
+      <c r="A121" s="5">
+        <v>41865</v>
+      </c>
+      <c r="B121" s="6">
+        <v>16</v>
+      </c>
+      <c r="C121" s="6">
+        <v>27</v>
+      </c>
+      <c r="D121" s="6">
+        <v>11</v>
+      </c>
+      <c r="E121" s="6">
+        <v>15</v>
+      </c>
+      <c r="F121" s="6">
+        <v>18</v>
+      </c>
+      <c r="G121" s="6">
+        <v>11</v>
+      </c>
+      <c r="I121" s="6">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J121" s="6">
+        <f t="shared" si="7"/>
+        <v>97.5</v>
+      </c>
+      <c r="K121" s="6">
+        <f t="shared" si="11"/>
+        <v>6.5</v>
+      </c>
+      <c r="L121" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M121" s="2">
+        <f t="shared" si="9"/>
+        <v>47</v>
+      </c>
+      <c r="N121" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" s="6" customFormat="1">
+      <c r="A122" s="5">
+        <v>41866</v>
+      </c>
+      <c r="B122" s="6">
+        <v>14</v>
+      </c>
+      <c r="C122" s="6">
+        <v>18</v>
+      </c>
+      <c r="D122" s="6">
+        <v>16</v>
+      </c>
+      <c r="E122" s="6">
+        <v>15</v>
+      </c>
+      <c r="F122" s="6">
+        <v>18</v>
+      </c>
+      <c r="G122" s="6">
+        <v>11</v>
+      </c>
+      <c r="I122" s="6">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="J122" s="6">
+        <f t="shared" si="7"/>
+        <v>91</v>
+      </c>
+      <c r="K122" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L122" s="6">
+        <f t="shared" si="8"/>
+        <v>3.5</v>
+      </c>
+      <c r="M122" s="2">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="N122" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" s="6" customFormat="1">
+      <c r="A123" s="5">
+        <v>41869</v>
+      </c>
+      <c r="B123" s="6">
+        <v>16</v>
+      </c>
+      <c r="C123" s="6">
+        <v>19</v>
+      </c>
+      <c r="D123" s="6">
+        <v>11</v>
+      </c>
+      <c r="E123" s="6">
+        <v>15</v>
+      </c>
+      <c r="F123" s="6">
+        <v>18</v>
+      </c>
+      <c r="G123" s="6">
+        <v>11</v>
+      </c>
+      <c r="I123" s="6">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J123" s="6">
+        <f t="shared" si="7"/>
+        <v>97.5</v>
+      </c>
+      <c r="K123" s="6">
+        <f t="shared" si="11"/>
+        <v>6.5</v>
+      </c>
+      <c r="L123" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M123" s="2">
+        <f t="shared" si="9"/>
+        <v>47</v>
+      </c>
+      <c r="N123" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" s="6" customFormat="1">
+      <c r="A124" s="5">
+        <v>41870</v>
+      </c>
+      <c r="B124" s="6">
+        <v>25</v>
+      </c>
+      <c r="C124" s="6">
+        <v>17</v>
+      </c>
+      <c r="D124" s="6">
+        <v>14</v>
+      </c>
+      <c r="E124" s="6">
+        <v>15</v>
+      </c>
+      <c r="F124" s="6">
+        <v>18</v>
+      </c>
+      <c r="G124" s="6">
+        <v>11</v>
+      </c>
+      <c r="I124" s="6">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="J124" s="6">
+        <f t="shared" si="7"/>
+        <v>97.5</v>
+      </c>
+      <c r="K124" s="6">
+        <f t="shared" si="11"/>
+        <v>65</v>
+      </c>
+      <c r="L124" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M124" s="2">
+        <f t="shared" si="9"/>
+        <v>78.5</v>
+      </c>
+      <c r="N124" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" s="6" customFormat="1">
+      <c r="A125" s="5">
+        <v>41871</v>
+      </c>
+      <c r="B125" s="6">
+        <v>23</v>
+      </c>
+      <c r="C125" s="6">
+        <v>20</v>
+      </c>
+      <c r="D125" s="6">
+        <v>11</v>
+      </c>
+      <c r="E125" s="6">
+        <v>15</v>
+      </c>
+      <c r="F125" s="6">
+        <v>18</v>
+      </c>
+      <c r="G125" s="6">
+        <v>11</v>
+      </c>
+      <c r="I125" s="6">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="J125" s="6">
+        <f t="shared" si="7"/>
+        <v>97.5</v>
+      </c>
+      <c r="K125" s="6">
+        <f t="shared" si="11"/>
+        <v>52</v>
+      </c>
+      <c r="L125" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M125" s="2">
+        <f t="shared" si="9"/>
+        <v>71.5</v>
+      </c>
+      <c r="N125" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" s="6" customFormat="1">
+      <c r="A126" s="5">
+        <v>41872</v>
+      </c>
+      <c r="B126" s="6">
+        <v>10</v>
+      </c>
+      <c r="C126" s="6">
+        <v>15</v>
+      </c>
+      <c r="D126" s="6">
+        <v>9</v>
+      </c>
+      <c r="E126" s="6">
+        <v>15</v>
+      </c>
+      <c r="F126" s="6">
+        <v>18</v>
+      </c>
+      <c r="G126" s="6">
+        <v>11</v>
+      </c>
+      <c r="I126" s="6">
+        <f t="shared" si="6"/>
+        <v>-5</v>
+      </c>
+      <c r="J126" s="6">
+        <f t="shared" si="7"/>
+        <v>65</v>
+      </c>
+      <c r="K126" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L126" s="6">
+        <f t="shared" si="8"/>
+        <v>17.5</v>
+      </c>
+      <c r="M126" s="2">
         <f t="shared" si="9"/>
         <v>26</v>
       </c>
-      <c r="L109" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M109" s="2">
-        <f t="shared" si="8"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" s="6" customFormat="1">
-      <c r="A110" s="5">
-        <v>41850</v>
-      </c>
-      <c r="B110" s="6">
-        <v>17</v>
-      </c>
-      <c r="C110" s="6">
-        <v>22</v>
-      </c>
-      <c r="D110" s="6">
-        <v>10</v>
-      </c>
-      <c r="E110" s="6">
-        <v>15</v>
-      </c>
-      <c r="F110" s="6">
-        <v>18</v>
-      </c>
-      <c r="G110" s="6">
-        <v>11</v>
-      </c>
-      <c r="I110" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="J110" s="6">
-        <f t="shared" si="6"/>
-        <v>97.5</v>
-      </c>
-      <c r="K110" s="6">
-        <f t="shared" si="9"/>
-        <v>13</v>
-      </c>
-      <c r="L110" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M110" s="2">
-        <f t="shared" si="8"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" s="6" customFormat="1">
-      <c r="A111" s="5">
-        <v>41851</v>
-      </c>
-      <c r="B111" s="6">
-        <v>17</v>
-      </c>
-      <c r="C111" s="6">
-        <v>23</v>
-      </c>
-      <c r="D111" s="6">
-        <v>15</v>
-      </c>
-      <c r="E111" s="6">
-        <v>15</v>
-      </c>
-      <c r="F111" s="6">
-        <v>18</v>
-      </c>
-      <c r="G111" s="6">
-        <v>11</v>
-      </c>
-      <c r="I111" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="J111" s="6">
-        <f t="shared" si="6"/>
-        <v>97.5</v>
-      </c>
-      <c r="K111" s="6">
-        <f t="shared" si="9"/>
-        <v>13</v>
-      </c>
-      <c r="L111" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M111" s="2">
-        <f t="shared" si="8"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" s="6" customFormat="1">
-      <c r="A112" s="5">
-        <v>41852</v>
-      </c>
-      <c r="B112" s="6">
-        <v>18</v>
-      </c>
-      <c r="C112" s="6">
-        <v>29</v>
-      </c>
-      <c r="D112" s="6">
-        <v>13</v>
-      </c>
-      <c r="E112" s="6">
-        <v>15</v>
-      </c>
-      <c r="F112" s="6">
-        <v>18</v>
-      </c>
-      <c r="G112" s="6">
-        <v>11</v>
-      </c>
-      <c r="I112" s="6">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="J112" s="6">
-        <f t="shared" si="6"/>
-        <v>97.5</v>
-      </c>
-      <c r="K112" s="6">
-        <f t="shared" si="9"/>
-        <v>19.5</v>
-      </c>
-      <c r="L112" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M112" s="2">
-        <f t="shared" si="8"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" s="6" customFormat="1">
-      <c r="A113" s="5">
-        <v>41855</v>
-      </c>
-      <c r="B113" s="6">
-        <v>23</v>
-      </c>
-      <c r="C113" s="6">
-        <v>20</v>
-      </c>
-      <c r="D113" s="6">
-        <v>15</v>
-      </c>
-      <c r="E113" s="6">
-        <v>15</v>
-      </c>
-      <c r="F113" s="6">
-        <v>18</v>
-      </c>
-      <c r="G113" s="6">
-        <v>11</v>
-      </c>
-      <c r="I113" s="6">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="J113" s="6">
-        <f t="shared" si="6"/>
-        <v>97.5</v>
-      </c>
-      <c r="K113" s="6">
-        <f t="shared" si="9"/>
-        <v>52</v>
-      </c>
-      <c r="L113" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M113" s="2">
-        <f t="shared" si="8"/>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" s="6" customFormat="1">
-      <c r="A114" s="5">
-        <v>41856</v>
-      </c>
-      <c r="B114" s="6">
-        <v>18</v>
-      </c>
-      <c r="C114" s="6">
-        <v>22</v>
-      </c>
-      <c r="D114" s="6">
-        <v>11</v>
-      </c>
-      <c r="E114" s="6">
-        <v>15</v>
-      </c>
-      <c r="F114" s="6">
-        <v>18</v>
-      </c>
-      <c r="G114" s="6">
-        <v>11</v>
-      </c>
-      <c r="I114" s="6">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="J114" s="6">
-        <f t="shared" si="6"/>
-        <v>97.5</v>
-      </c>
-      <c r="K114" s="6">
-        <f t="shared" si="9"/>
-        <v>19.5</v>
-      </c>
-      <c r="L114" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M114" s="2">
-        <f t="shared" si="8"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" s="6" customFormat="1">
-      <c r="A115" s="5">
-        <v>41857</v>
-      </c>
-      <c r="B115" s="6">
-        <v>12</v>
-      </c>
-      <c r="C115" s="6">
-        <v>27</v>
-      </c>
-      <c r="D115" s="6">
-        <v>16</v>
-      </c>
-      <c r="E115" s="6">
-        <v>15</v>
-      </c>
-      <c r="F115" s="6">
-        <v>18</v>
-      </c>
-      <c r="G115" s="6">
-        <v>11</v>
-      </c>
-      <c r="I115" s="6">
-        <f t="shared" si="5"/>
-        <v>-3</v>
-      </c>
-      <c r="J115" s="6">
-        <f t="shared" si="6"/>
-        <v>78</v>
-      </c>
-      <c r="K115" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L115" s="6">
-        <f t="shared" si="7"/>
-        <v>10.5</v>
-      </c>
-      <c r="M115" s="2">
-        <f t="shared" si="8"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" s="6" customFormat="1">
-      <c r="A116" s="5">
-        <v>41858</v>
-      </c>
-      <c r="B116" s="6">
-        <v>16</v>
-      </c>
-      <c r="C116" s="6">
-        <v>26</v>
-      </c>
-      <c r="D116" s="6">
-        <v>13</v>
-      </c>
-      <c r="E116" s="6">
-        <v>15</v>
-      </c>
-      <c r="F116" s="6">
-        <v>18</v>
-      </c>
-      <c r="G116" s="6">
-        <v>11</v>
-      </c>
-      <c r="I116" s="6">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="J116" s="6">
-        <f t="shared" si="6"/>
-        <v>97.5</v>
-      </c>
-      <c r="K116" s="6">
-        <f t="shared" si="9"/>
-        <v>6.5</v>
-      </c>
-      <c r="L116" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M116" s="2">
-        <f t="shared" si="8"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" s="6" customFormat="1">
-      <c r="A117" s="5">
-        <v>41859</v>
-      </c>
-      <c r="B117" s="6">
-        <v>12</v>
-      </c>
-      <c r="C117" s="6">
-        <v>27</v>
-      </c>
-      <c r="D117" s="6">
-        <v>13</v>
-      </c>
-      <c r="E117" s="6">
-        <v>15</v>
-      </c>
-      <c r="F117" s="6">
-        <v>18</v>
-      </c>
-      <c r="G117" s="6">
-        <v>11</v>
-      </c>
-      <c r="I117" s="6">
-        <f t="shared" si="5"/>
-        <v>-3</v>
-      </c>
-      <c r="J117" s="6">
-        <f t="shared" si="6"/>
-        <v>78</v>
-      </c>
-      <c r="K117" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L117" s="6">
-        <f t="shared" si="7"/>
-        <v>10.5</v>
-      </c>
-      <c r="M117" s="2">
-        <f t="shared" si="8"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" s="6" customFormat="1">
-      <c r="A118" s="5">
-        <v>41862</v>
-      </c>
-      <c r="B118" s="6">
-        <v>20</v>
-      </c>
-      <c r="C118" s="6">
-        <v>19</v>
-      </c>
-      <c r="D118" s="6">
-        <v>13</v>
-      </c>
-      <c r="E118" s="6">
-        <v>15</v>
-      </c>
-      <c r="F118" s="6">
-        <v>18</v>
-      </c>
-      <c r="G118" s="6">
-        <v>11</v>
-      </c>
-      <c r="I118" s="6">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="J118" s="6">
-        <f t="shared" si="6"/>
-        <v>97.5</v>
-      </c>
-      <c r="K118" s="6">
-        <f t="shared" si="9"/>
-        <v>32.5</v>
-      </c>
-      <c r="L118" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M118" s="2">
-        <f t="shared" si="8"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" s="6" customFormat="1">
-      <c r="A119" s="5">
-        <v>41863</v>
-      </c>
-      <c r="B119" s="6">
-        <v>20</v>
-      </c>
-      <c r="C119" s="6">
-        <v>22</v>
-      </c>
-      <c r="D119" s="6">
-        <v>17</v>
-      </c>
-      <c r="E119" s="6">
-        <v>15</v>
-      </c>
-      <c r="F119" s="6">
-        <v>18</v>
-      </c>
-      <c r="G119" s="6">
-        <v>11</v>
-      </c>
-      <c r="I119" s="6">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="J119" s="6">
-        <f t="shared" si="6"/>
-        <v>97.5</v>
-      </c>
-      <c r="K119" s="6">
-        <f t="shared" si="9"/>
-        <v>32.5</v>
-      </c>
-      <c r="L119" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M119" s="2">
-        <f t="shared" si="8"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" s="6" customFormat="1">
-      <c r="A120" s="5">
-        <v>41864</v>
-      </c>
-      <c r="B120" s="6">
-        <v>22</v>
-      </c>
-      <c r="C120" s="6">
-        <v>30</v>
-      </c>
-      <c r="D120" s="6">
-        <v>20</v>
-      </c>
-      <c r="E120" s="6">
-        <v>15</v>
-      </c>
-      <c r="F120" s="6">
-        <v>18</v>
-      </c>
-      <c r="G120" s="6">
-        <v>11</v>
-      </c>
-      <c r="I120" s="6">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="J120" s="6">
-        <f t="shared" si="6"/>
-        <v>97.5</v>
-      </c>
-      <c r="K120" s="6">
-        <f t="shared" si="9"/>
-        <v>45.5</v>
-      </c>
-      <c r="L120" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M120" s="2">
-        <f t="shared" si="8"/>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" s="6" customFormat="1">
-      <c r="A121" s="5">
-        <v>41865</v>
-      </c>
-      <c r="B121" s="6">
-        <v>16</v>
-      </c>
-      <c r="C121" s="6">
-        <v>27</v>
-      </c>
-      <c r="D121" s="6">
-        <v>11</v>
-      </c>
-      <c r="E121" s="6">
-        <v>15</v>
-      </c>
-      <c r="F121" s="6">
-        <v>18</v>
-      </c>
-      <c r="G121" s="6">
-        <v>11</v>
-      </c>
-      <c r="I121" s="6">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="J121" s="6">
-        <f t="shared" si="6"/>
-        <v>97.5</v>
-      </c>
-      <c r="K121" s="6">
-        <f t="shared" si="9"/>
-        <v>6.5</v>
-      </c>
-      <c r="L121" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M121" s="2">
-        <f t="shared" si="8"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" s="6" customFormat="1">
-      <c r="A122" s="5">
-        <v>41866</v>
-      </c>
-      <c r="B122" s="6">
-        <v>14</v>
-      </c>
-      <c r="C122" s="6">
-        <v>18</v>
-      </c>
-      <c r="D122" s="6">
-        <v>16</v>
-      </c>
-      <c r="E122" s="6">
-        <v>15</v>
-      </c>
-      <c r="F122" s="6">
-        <v>18</v>
-      </c>
-      <c r="G122" s="6">
-        <v>11</v>
-      </c>
-      <c r="I122" s="6">
-        <f t="shared" si="5"/>
-        <v>-1</v>
-      </c>
-      <c r="J122" s="6">
-        <f t="shared" si="6"/>
-        <v>91</v>
-      </c>
-      <c r="K122" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L122" s="6">
-        <f t="shared" si="7"/>
-        <v>3.5</v>
-      </c>
-      <c r="M122" s="2">
-        <f t="shared" si="8"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" s="6" customFormat="1">
-      <c r="A123" s="5">
-        <v>41869</v>
-      </c>
-      <c r="B123" s="6">
-        <v>16</v>
-      </c>
-      <c r="C123" s="6">
-        <v>19</v>
-      </c>
-      <c r="D123" s="6">
-        <v>11</v>
-      </c>
-      <c r="E123" s="6">
-        <v>15</v>
-      </c>
-      <c r="F123" s="6">
-        <v>18</v>
-      </c>
-      <c r="G123" s="6">
-        <v>11</v>
-      </c>
-      <c r="I123" s="6">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="J123" s="6">
-        <f t="shared" si="6"/>
-        <v>97.5</v>
-      </c>
-      <c r="K123" s="6">
-        <f t="shared" si="9"/>
-        <v>6.5</v>
-      </c>
-      <c r="L123" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M123" s="2">
-        <f t="shared" si="8"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" s="6" customFormat="1">
-      <c r="A124" s="5">
-        <v>41870</v>
-      </c>
-      <c r="B124" s="6">
-        <v>25</v>
-      </c>
-      <c r="C124" s="6">
-        <v>17</v>
-      </c>
-      <c r="D124" s="6">
-        <v>14</v>
-      </c>
-      <c r="E124" s="6">
-        <v>15</v>
-      </c>
-      <c r="F124" s="6">
-        <v>18</v>
-      </c>
-      <c r="G124" s="6">
-        <v>11</v>
-      </c>
-      <c r="I124" s="6">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="J124" s="6">
-        <f t="shared" si="6"/>
-        <v>97.5</v>
-      </c>
-      <c r="K124" s="6">
-        <f t="shared" si="9"/>
-        <v>65</v>
-      </c>
-      <c r="L124" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M124" s="2">
-        <f t="shared" si="8"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" s="6" customFormat="1">
-      <c r="A125" s="5">
-        <v>41871</v>
-      </c>
-      <c r="B125" s="6">
-        <v>23</v>
-      </c>
-      <c r="C125" s="6">
-        <v>20</v>
-      </c>
-      <c r="D125" s="6">
-        <v>11</v>
-      </c>
-      <c r="E125" s="6">
-        <v>15</v>
-      </c>
-      <c r="F125" s="6">
-        <v>18</v>
-      </c>
-      <c r="G125" s="6">
-        <v>11</v>
-      </c>
-      <c r="I125" s="6">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="J125" s="6">
-        <f t="shared" si="6"/>
-        <v>97.5</v>
-      </c>
-      <c r="K125" s="6">
-        <f t="shared" si="9"/>
-        <v>52</v>
-      </c>
-      <c r="L125" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M125" s="2">
-        <f t="shared" si="8"/>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" s="6" customFormat="1">
-      <c r="A126" s="5">
-        <v>41872</v>
-      </c>
-      <c r="B126" s="6">
-        <v>10</v>
-      </c>
-      <c r="C126" s="6">
-        <v>15</v>
-      </c>
-      <c r="D126" s="6">
-        <v>9</v>
-      </c>
-      <c r="E126" s="6">
-        <v>15</v>
-      </c>
-      <c r="F126" s="6">
-        <v>18</v>
-      </c>
-      <c r="G126" s="6">
-        <v>11</v>
-      </c>
-      <c r="I126" s="6">
-        <f t="shared" si="5"/>
-        <v>-5</v>
-      </c>
-      <c r="J126" s="6">
-        <f t="shared" si="6"/>
-        <v>65</v>
-      </c>
-      <c r="K126" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L126" s="6">
-        <f t="shared" si="7"/>
-        <v>17.5</v>
-      </c>
-      <c r="M126" s="2">
-        <f t="shared" si="8"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" s="6" customFormat="1">
+      <c r="N126" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" s="6" customFormat="1">
       <c r="A127" s="5">
         <v>41873</v>
       </c>
@@ -5906,27 +6410,31 @@
         <v>11</v>
       </c>
       <c r="I127" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-4</v>
       </c>
       <c r="J127" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>71.5</v>
       </c>
       <c r="K127" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L127" s="6">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="M127" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L127" s="6">
-        <f t="shared" si="7"/>
-        <v>14</v>
-      </c>
-      <c r="M127" s="2">
-        <f t="shared" si="8"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" s="6" customFormat="1">
+        <v>29.5</v>
+      </c>
+      <c r="N127" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" s="6" customFormat="1">
       <c r="A128" s="5">
         <v>41876</v>
       </c>
@@ -5949,27 +6457,31 @@
         <v>11</v>
       </c>
       <c r="I128" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J128" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>97.5</v>
       </c>
       <c r="K128" s="6">
+        <f t="shared" si="11"/>
+        <v>65</v>
+      </c>
+      <c r="L128" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M128" s="2">
         <f t="shared" si="9"/>
-        <v>65</v>
-      </c>
-      <c r="L128" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M128" s="2">
-        <f t="shared" si="8"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" s="6" customFormat="1">
+        <v>78.5</v>
+      </c>
+      <c r="N128" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" s="6" customFormat="1">
       <c r="A129" s="5">
         <v>41877</v>
       </c>
@@ -5992,188 +6504,364 @@
         <v>11</v>
       </c>
       <c r="I129" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-9</v>
       </c>
       <c r="J129" s="6">
+        <f t="shared" si="7"/>
+        <v>39</v>
+      </c>
+      <c r="K129" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L129" s="6">
+        <f t="shared" si="8"/>
+        <v>31.5</v>
+      </c>
+      <c r="M129" s="2">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="N129" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" s="6" customFormat="1">
+      <c r="A130" s="5"/>
+      <c r="B130" s="6">
+        <v>1</v>
+      </c>
+      <c r="E130" s="6">
+        <v>1</v>
+      </c>
+      <c r="I130" s="6">
+        <f t="shared" ref="I130:I132" si="12">B130-E130</f>
+        <v>0</v>
+      </c>
+      <c r="J130" s="6">
+        <f t="shared" ref="J130:J132" si="13">IF(I130&lt;=0,B130*6.5,E130*6.5)</f>
+        <v>6.5</v>
+      </c>
+      <c r="K130" s="6">
+        <f t="shared" ref="K130:K132" si="14">IF(I130&lt;=0,0,(B130-E130)*6.5)</f>
+        <v>0</v>
+      </c>
+      <c r="L130" s="6">
+        <f t="shared" ref="L130:L132" si="15">IF(I130&gt;0,0,(E130-B130)*3.5)</f>
+        <v>0</v>
+      </c>
+      <c r="M130" s="2">
+        <f t="shared" ref="M130:M132" si="16">IF(J130&lt;=0,B130*3,F130*3-(F130-B130)*3.5)</f>
+        <v>3.5</v>
+      </c>
+      <c r="N130" s="6">
+        <f t="shared" ref="N130:N132" si="17">IF(I130=0,M130,0)</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" s="6" customFormat="1">
+      <c r="A131" s="5"/>
+      <c r="B131" s="6">
+        <v>2</v>
+      </c>
+      <c r="E131" s="6">
+        <v>1</v>
+      </c>
+      <c r="I131" s="6">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J131" s="6">
+        <f t="shared" si="13"/>
+        <v>6.5</v>
+      </c>
+      <c r="K131" s="6">
+        <f t="shared" si="14"/>
+        <v>6.5</v>
+      </c>
+      <c r="L131" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M131" s="2">
+        <f t="shared" si="16"/>
+        <v>7</v>
+      </c>
+      <c r="N131" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" s="6" customFormat="1">
+      <c r="A132" s="5"/>
+      <c r="B132" s="6">
+        <v>10</v>
+      </c>
+      <c r="E132" s="6">
+        <v>12</v>
+      </c>
+      <c r="I132" s="6">
+        <f t="shared" si="12"/>
+        <v>-2</v>
+      </c>
+      <c r="J132" s="6">
+        <f t="shared" si="13"/>
+        <v>65</v>
+      </c>
+      <c r="K132" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L132" s="6">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="M132" s="2">
+        <f t="shared" si="16"/>
+        <v>35</v>
+      </c>
+      <c r="N132" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" s="6" customFormat="1">
+      <c r="A133" s="5">
+        <v>41878</v>
+      </c>
+      <c r="B133" s="6">
+        <v>17</v>
+      </c>
+      <c r="C133" s="6">
+        <v>28</v>
+      </c>
+      <c r="D133" s="6">
+        <v>17</v>
+      </c>
+      <c r="E133" s="6">
+        <v>15</v>
+      </c>
+      <c r="F133" s="6">
+        <v>18</v>
+      </c>
+      <c r="G133" s="6">
+        <v>11</v>
+      </c>
+      <c r="I133" s="6">
         <f t="shared" si="6"/>
-        <v>39</v>
-      </c>
-      <c r="K129" s="6">
+        <v>2</v>
+      </c>
+      <c r="J133" s="6">
+        <f t="shared" si="7"/>
+        <v>97.5</v>
+      </c>
+      <c r="K133" s="6">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="L133" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M133" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L129" s="6">
+        <v>50.5</v>
+      </c>
+      <c r="N133" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" s="6" customFormat="1">
+      <c r="A134" s="5">
+        <v>41879</v>
+      </c>
+      <c r="B134" s="6">
+        <v>11</v>
+      </c>
+      <c r="C134" s="6">
+        <v>25</v>
+      </c>
+      <c r="D134" s="6">
+        <v>20</v>
+      </c>
+      <c r="E134" s="6">
+        <v>15</v>
+      </c>
+      <c r="F134" s="6">
+        <v>18</v>
+      </c>
+      <c r="G134" s="6">
+        <v>11</v>
+      </c>
+      <c r="I134" s="6">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="J134" s="6">
         <f t="shared" si="7"/>
-        <v>31.5</v>
-      </c>
-      <c r="M129" s="2">
+        <v>71.5</v>
+      </c>
+      <c r="K134" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L134" s="6">
         <f t="shared" si="8"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" s="6" customFormat="1">
-      <c r="A130" s="5">
-        <v>41878</v>
-      </c>
-      <c r="B130" s="6">
-        <v>17</v>
-      </c>
-      <c r="C130" s="6">
-        <v>28</v>
-      </c>
-      <c r="D130" s="6">
-        <v>17</v>
-      </c>
-      <c r="E130" s="6">
+        <v>14</v>
+      </c>
+      <c r="M134" s="2">
+        <f t="shared" si="9"/>
+        <v>29.5</v>
+      </c>
+      <c r="N134" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" s="6" customFormat="1">
+      <c r="A135" s="5">
+        <v>41880</v>
+      </c>
+      <c r="B135" s="6">
         <v>15</v>
       </c>
-      <c r="F130" s="6">
-        <v>18</v>
-      </c>
-      <c r="G130" s="6">
+      <c r="C135" s="6">
+        <v>13</v>
+      </c>
+      <c r="D135" s="6">
         <v>11</v>
       </c>
-      <c r="I130" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="J130" s="6">
-        <f t="shared" si="6"/>
+      <c r="E135" s="6">
+        <v>15</v>
+      </c>
+      <c r="F135" s="6">
+        <v>18</v>
+      </c>
+      <c r="G135" s="6">
+        <v>11</v>
+      </c>
+      <c r="I135" s="6">
+        <f t="shared" ref="I135" si="18">B135-E135</f>
+        <v>0</v>
+      </c>
+      <c r="J135" s="6">
+        <f t="shared" ref="J135" si="19">IF(I135&lt;=0,B135*6.5,E135*6.5)</f>
         <v>97.5</v>
       </c>
-      <c r="K130" s="6">
-        <f t="shared" si="9"/>
+      <c r="K135" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L135" s="6">
+        <f t="shared" ref="L135" si="20">IF(I135&gt;0,0,(E135-B135)*3.5)</f>
+        <v>0</v>
+      </c>
+      <c r="M135" s="2">
+        <f t="shared" ref="M135" si="21">IF(J135&lt;=0,B135*3,F135*3-(F135-B135)*3.5)</f>
+        <v>43.5</v>
+      </c>
+      <c r="N135" s="6">
+        <f t="shared" ref="N135" si="22">IF(I135=0,M135,0)</f>
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" s="6" customFormat="1">
+      <c r="B136" s="6">
+        <f>AVERAGE(B3:B135)</f>
+        <v>15.684210526315789</v>
+      </c>
+      <c r="I136" s="6">
+        <f>AVERAGE(I3:I135)</f>
+        <v>0.16541353383458646</v>
+      </c>
+      <c r="K136" s="6">
+        <f>SUM(K3:K135)*(6.5)</f>
+        <v>9548.5</v>
+      </c>
+      <c r="L136" s="6">
+        <f>SUM(L3:L135)*3.5</f>
+        <v>2499</v>
+      </c>
+      <c r="M136" s="6">
+        <f>SUM(M3:M135)</f>
+        <v>6181</v>
+      </c>
+      <c r="N136" s="6">
+        <f>SUM(N3:N135)</f>
+        <v>501.5</v>
+      </c>
+      <c r="O136" s="6">
+        <f>M136-N136</f>
+        <v>5679.5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" s="6" customFormat="1">
+      <c r="A137" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L130" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M130" s="2">
-        <f t="shared" si="8"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" s="6" customFormat="1">
-      <c r="A131" s="5">
-        <v>41879</v>
-      </c>
-      <c r="B131" s="6">
-        <v>11</v>
-      </c>
-      <c r="C131" s="6">
-        <v>25</v>
-      </c>
-      <c r="D131" s="6">
-        <v>20</v>
-      </c>
-      <c r="E131" s="6">
-        <v>15</v>
-      </c>
-      <c r="F131" s="6">
-        <v>18</v>
-      </c>
-      <c r="G131" s="6">
-        <v>11</v>
-      </c>
-      <c r="I131" s="6">
-        <f t="shared" si="5"/>
-        <v>-4</v>
-      </c>
-      <c r="J131" s="6">
-        <f t="shared" si="6"/>
-        <v>71.5</v>
-      </c>
-      <c r="K131" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L131" s="6">
-        <f t="shared" si="7"/>
-        <v>14</v>
-      </c>
-      <c r="M131" s="2">
-        <f t="shared" si="8"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" s="6" customFormat="1">
-      <c r="A132" s="5">
-        <v>41880</v>
-      </c>
-      <c r="B132" s="6">
-        <v>15</v>
-      </c>
-      <c r="C132" s="6">
-        <v>13</v>
-      </c>
-      <c r="D132" s="6">
-        <v>11</v>
-      </c>
-      <c r="E132" s="6">
-        <v>15</v>
-      </c>
-      <c r="F132" s="6">
-        <v>18</v>
-      </c>
-      <c r="G132" s="6">
-        <v>11</v>
-      </c>
-      <c r="I132" s="6">
-        <f t="shared" ref="I132" si="10">B132-E132</f>
-        <v>0</v>
-      </c>
-      <c r="J132" s="6">
-        <f t="shared" ref="J132" si="11">IF(I132&lt;=0,B132*6.5,E132*6.5)</f>
-        <v>97.5</v>
-      </c>
-      <c r="K132" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L132" s="6">
-        <f t="shared" ref="L132" si="12">IF(I132&gt;0,0,(E132-B132)*3.5)</f>
-        <v>0</v>
-      </c>
-      <c r="M132" s="2">
-        <f t="shared" ref="M132" si="13">IF(J132&gt;=0,B132*3,F132*3-(F132-B132)*3.5)</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" s="6" customFormat="1">
-      <c r="B133" s="6">
-        <f>AVERAGE(B3:B132)</f>
-        <v>15.946153846153846</v>
-      </c>
-      <c r="I133" s="6">
-        <f>AVERAGE(I3:I132)</f>
-        <v>0.17692307692307693</v>
-      </c>
-      <c r="K133" s="6">
-        <f>SUM(K3:K132)*(6.5)</f>
-        <v>9506.25</v>
-      </c>
-      <c r="L133" s="6">
-        <f>SUM(L3:L132)*3.5</f>
-        <v>2474.5</v>
-      </c>
-      <c r="M133" s="6">
-        <f>SUM(M3:M132)</f>
-        <v>6219</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" s="6" customFormat="1"/>
-    <row r="135" spans="1:13" s="6" customFormat="1"/>
-    <row r="136" spans="1:13" s="6" customFormat="1"/>
-    <row r="137" spans="1:13" s="6" customFormat="1"/>
-    <row r="138" spans="1:13" s="6" customFormat="1"/>
-    <row r="139" spans="1:13" s="6" customFormat="1"/>
-    <row r="140" spans="1:13" s="6" customFormat="1"/>
-    <row r="141" spans="1:13" s="6" customFormat="1"/>
-    <row r="142" spans="1:13" s="6" customFormat="1"/>
-    <row r="143" spans="1:13" s="6" customFormat="1"/>
-    <row r="144" spans="1:13" s="6" customFormat="1"/>
+      <c r="B137" s="6">
+        <f>SUM(B3:B135)</f>
+        <v>2086</v>
+      </c>
+      <c r="C137" s="6">
+        <f t="shared" ref="C137:N137" si="23">SUM(C3:C135)</f>
+        <v>2867</v>
+      </c>
+      <c r="D137" s="6">
+        <f t="shared" si="23"/>
+        <v>1698</v>
+      </c>
+      <c r="E137" s="6">
+        <f t="shared" si="23"/>
+        <v>2064</v>
+      </c>
+      <c r="F137" s="6">
+        <f t="shared" si="23"/>
+        <v>2240</v>
+      </c>
+      <c r="G137" s="6">
+        <f t="shared" si="23"/>
+        <v>1230</v>
+      </c>
+      <c r="H137" s="6">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I137" s="6">
+        <f t="shared" si="23"/>
+        <v>22</v>
+      </c>
+      <c r="J137" s="6">
+        <f t="shared" si="23"/>
+        <v>12090</v>
+      </c>
+      <c r="K137" s="6">
+        <f t="shared" si="23"/>
+        <v>1469</v>
+      </c>
+      <c r="L137" s="6">
+        <f t="shared" si="23"/>
+        <v>714</v>
+      </c>
+      <c r="M137" s="6">
+        <f t="shared" si="23"/>
+        <v>6181</v>
+      </c>
+      <c r="N137" s="6">
+        <f t="shared" si="23"/>
+        <v>501.5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" s="6" customFormat="1"/>
+    <row r="139" spans="1:15" s="6" customFormat="1"/>
+    <row r="140" spans="1:15" s="6" customFormat="1"/>
+    <row r="141" spans="1:15" s="6" customFormat="1"/>
+    <row r="142" spans="1:15" s="6" customFormat="1"/>
+    <row r="143" spans="1:15" s="6" customFormat="1"/>
+    <row r="144" spans="1:15" s="6" customFormat="1"/>
     <row r="145" s="6" customFormat="1"/>
     <row r="146" s="6" customFormat="1"/>
     <row r="147" s="6" customFormat="1"/>
@@ -6202,6 +6890,9 @@
     <row r="170" s="6" customFormat="1"/>
     <row r="171" s="6" customFormat="1"/>
     <row r="172" s="6" customFormat="1"/>
+    <row r="173" s="6" customFormat="1"/>
+    <row r="174" s="6" customFormat="1"/>
+    <row r="175" s="6" customFormat="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I1:M1"/>
